--- a/Code/Results/Cases/Case_3_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9948060838321414</v>
+        <v>0.9948060838321444</v>
       </c>
       <c r="D2">
-        <v>1.01445390992071</v>
+        <v>1.014453909920712</v>
       </c>
       <c r="E2">
-        <v>1.000752734008627</v>
+        <v>1.00075273400863</v>
       </c>
       <c r="F2">
-        <v>1.000967804818127</v>
+        <v>1.000967804818129</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042875725736353</v>
+        <v>1.042875725736355</v>
       </c>
       <c r="J2">
-        <v>1.017143261656583</v>
+        <v>1.017143261656586</v>
       </c>
       <c r="K2">
-        <v>1.025715485488963</v>
+        <v>1.025715485488966</v>
       </c>
       <c r="L2">
-        <v>1.012201592002944</v>
+        <v>1.012201592002947</v>
       </c>
       <c r="M2">
-        <v>1.012413673029418</v>
+        <v>1.012413673029421</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003547858356948</v>
+        <v>1.003547858356949</v>
       </c>
       <c r="D3">
         <v>1.021324478651891</v>
       </c>
       <c r="E3">
-        <v>1.00851002713401</v>
+        <v>1.008510027134011</v>
       </c>
       <c r="F3">
         <v>1.01032244327002</v>
@@ -483,7 +483,7 @@
         <v>1.031691589876417</v>
       </c>
       <c r="L3">
-        <v>1.01903516634126</v>
+        <v>1.019035166341261</v>
       </c>
       <c r="M3">
         <v>1.020824928476982</v>
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008995682804425</v>
+        <v>1.008995682804426</v>
       </c>
       <c r="D4">
-        <v>1.025608599604926</v>
+        <v>1.025608599604927</v>
       </c>
       <c r="E4">
-        <v>1.013344555089719</v>
+        <v>1.01334455508972</v>
       </c>
       <c r="F4">
         <v>1.016157029318666</v>
@@ -515,16 +515,16 @@
         <v>1.048582625618703</v>
       </c>
       <c r="J4">
-        <v>1.028172044058986</v>
+        <v>1.028172044058987</v>
       </c>
       <c r="K4">
-        <v>1.035407471877321</v>
+        <v>1.035407471877322</v>
       </c>
       <c r="L4">
-        <v>1.023284547429744</v>
+        <v>1.023284547429745</v>
       </c>
       <c r="M4">
-        <v>1.0260642870382</v>
+        <v>1.026064287038201</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011239384412964</v>
+        <v>1.011239384412963</v>
       </c>
       <c r="D5">
-        <v>1.027373477285222</v>
+        <v>1.027373477285221</v>
       </c>
       <c r="E5">
-        <v>1.01533564793772</v>
+        <v>1.015335647937719</v>
       </c>
       <c r="F5">
-        <v>1.018561218189377</v>
+        <v>1.018561218189376</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.049477253921636</v>
       </c>
       <c r="J5">
-        <v>1.029912270767072</v>
+        <v>1.029912270767071</v>
       </c>
       <c r="K5">
         <v>1.036935775015996</v>
       </c>
       <c r="L5">
-        <v>1.025032392712098</v>
+        <v>1.025032392712097</v>
       </c>
       <c r="M5">
-        <v>1.028221553652773</v>
+        <v>1.028221553652771</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011613473310263</v>
+        <v>1.011613473310262</v>
       </c>
       <c r="D6">
-        <v>1.027667755531437</v>
+        <v>1.027667755531436</v>
       </c>
       <c r="E6">
-        <v>1.015667616480391</v>
+        <v>1.01566761648039</v>
       </c>
       <c r="F6">
-        <v>1.018962136469968</v>
+        <v>1.018962136469967</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.049626188482545</v>
       </c>
       <c r="J6">
-        <v>1.030202307524008</v>
+        <v>1.030202307524007</v>
       </c>
       <c r="K6">
-        <v>1.03719046127545</v>
+        <v>1.037190461275449</v>
       </c>
       <c r="L6">
-        <v>1.025323673039155</v>
+        <v>1.025323673039154</v>
       </c>
       <c r="M6">
-        <v>1.028581197897381</v>
+        <v>1.02858119789738</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -629,10 +629,10 @@
         <v>1.048594666108498</v>
       </c>
       <c r="J7">
-        <v>1.028195442966169</v>
+        <v>1.028195442966168</v>
       </c>
       <c r="K7">
-        <v>1.035428023288479</v>
+        <v>1.03542802328848</v>
       </c>
       <c r="L7">
         <v>1.023308050544567</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.99780578289321</v>
+        <v>0.9978057828932084</v>
       </c>
       <c r="D8">
-        <v>1.016810915314218</v>
+        <v>1.016810915314217</v>
       </c>
       <c r="E8">
-        <v>1.003414515705643</v>
+        <v>1.003414515705642</v>
       </c>
       <c r="F8">
-        <v>1.004176807257276</v>
+        <v>1.004176807257275</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044088744664192</v>
+        <v>1.044088744664191</v>
       </c>
       <c r="J8">
-        <v>1.019477826752226</v>
+        <v>1.019477826752225</v>
       </c>
       <c r="K8">
-        <v>1.027767886929371</v>
+        <v>1.02776788692937</v>
       </c>
       <c r="L8">
-        <v>1.0145484330079</v>
+        <v>1.014548433007899</v>
       </c>
       <c r="M8">
-        <v>1.015300496728412</v>
+        <v>1.015300496728411</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,19 +684,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9762610676802177</v>
+        <v>0.9762610676802166</v>
       </c>
       <c r="D9">
-        <v>0.9998991173059218</v>
+        <v>0.9998991173059208</v>
       </c>
       <c r="E9">
-        <v>0.9843014936665699</v>
+        <v>0.984301493666569</v>
       </c>
       <c r="F9">
-        <v>0.9811480247301941</v>
+        <v>0.981148024730193</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.035310616076199</v>
       </c>
       <c r="J9">
-        <v>1.002680887439799</v>
+        <v>1.002680887439798</v>
       </c>
       <c r="K9">
-        <v>1.012993831473473</v>
+        <v>1.012993831473472</v>
       </c>
       <c r="L9">
-        <v>0.9976545088406111</v>
+        <v>0.9976545088406104</v>
       </c>
       <c r="M9">
-        <v>0.9945545510983399</v>
+        <v>0.994554551098339</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9604162703416743</v>
+        <v>0.9604162703416755</v>
       </c>
       <c r="D10">
-        <v>0.9874917230598073</v>
+        <v>0.9874917230598087</v>
       </c>
       <c r="E10">
-        <v>0.970256086483076</v>
+        <v>0.9702560864830777</v>
       </c>
       <c r="F10">
-        <v>0.9642337762662971</v>
+        <v>0.9642337762662986</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028773095018139</v>
+        <v>1.02877309501814</v>
       </c>
       <c r="J10">
-        <v>0.9902934460360518</v>
+        <v>0.9902934460360532</v>
       </c>
       <c r="K10">
-        <v>1.002090551527499</v>
+        <v>1.002090551527501</v>
       </c>
       <c r="L10">
-        <v>0.98518397760997</v>
+        <v>0.9851839776099716</v>
       </c>
       <c r="M10">
-        <v>0.9792802907881248</v>
+        <v>0.9792802907881264</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.953122611819089</v>
+        <v>0.9531226118190909</v>
       </c>
       <c r="D11">
-        <v>0.9817907099133888</v>
+        <v>0.9817907099133905</v>
       </c>
       <c r="E11">
-        <v>0.9637952712001613</v>
+        <v>0.9637952712001631</v>
       </c>
       <c r="F11">
-        <v>0.9564519198507518</v>
+        <v>0.9564519198507542</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025745532917727</v>
+        <v>1.025745532917729</v>
       </c>
       <c r="J11">
-        <v>0.9845844917230913</v>
+        <v>0.9845844917230931</v>
       </c>
       <c r="K11">
-        <v>0.9970643955186287</v>
+        <v>0.9970643955186304</v>
       </c>
       <c r="L11">
-        <v>0.9794338523708424</v>
+        <v>0.9794338523708442</v>
       </c>
       <c r="M11">
-        <v>0.9722446276460166</v>
+        <v>0.9722446276460185</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9503398576944451</v>
+        <v>0.9503398576944426</v>
       </c>
       <c r="D12">
-        <v>0.9796174730990935</v>
+        <v>0.9796174730990918</v>
       </c>
       <c r="E12">
-        <v>0.9613311545490603</v>
+        <v>0.9613311545490582</v>
       </c>
       <c r="F12">
-        <v>0.9534833928950617</v>
+        <v>0.9534833928950595</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024587812873921</v>
+        <v>1.02458781287392</v>
       </c>
       <c r="J12">
-        <v>0.9824054744964126</v>
+        <v>0.9824054744964104</v>
       </c>
       <c r="K12">
-        <v>0.9951458730683503</v>
+        <v>0.9951458730683486</v>
       </c>
       <c r="L12">
-        <v>0.9772386777326207</v>
+        <v>0.9772386777326184</v>
       </c>
       <c r="M12">
-        <v>0.9695595437052782</v>
+        <v>0.9695595437052761</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9509402521981016</v>
+        <v>0.9509402521981012</v>
       </c>
       <c r="D13">
-        <v>0.9800862707359576</v>
+        <v>0.9800862707359571</v>
       </c>
       <c r="E13">
-        <v>0.9618627579447446</v>
+        <v>0.9618627579447444</v>
       </c>
       <c r="F13">
-        <v>0.9541238491470432</v>
+        <v>0.9541238491470428</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024837712881175</v>
+        <v>1.024837712881174</v>
       </c>
       <c r="J13">
-        <v>0.9828756463970933</v>
+        <v>0.982875646397093</v>
       </c>
       <c r="K13">
-        <v>0.9955598416234164</v>
+        <v>0.9955598416234159</v>
       </c>
       <c r="L13">
-        <v>0.9777123561030393</v>
+        <v>0.9777123561030392</v>
       </c>
       <c r="M13">
-        <v>0.9701389009532736</v>
+        <v>0.9701389009532732</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.952894144516367</v>
+        <v>0.9528941445163674</v>
       </c>
       <c r="D14">
-        <v>0.9816122447609991</v>
+        <v>0.9816122447609992</v>
       </c>
       <c r="E14">
-        <v>0.9635929452957414</v>
+        <v>0.9635929452957419</v>
       </c>
       <c r="F14">
-        <v>0.9562081913009635</v>
+        <v>0.9562081913009638</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.025650534821476</v>
       </c>
       <c r="J14">
-        <v>0.9844056087294417</v>
+        <v>0.9844056087294425</v>
       </c>
       <c r="K14">
-        <v>0.9969068994433539</v>
+        <v>0.9969068994433542</v>
       </c>
       <c r="L14">
-        <v>0.9792536519821526</v>
+        <v>0.9792536519821533</v>
       </c>
       <c r="M14">
-        <v>0.9720241950435481</v>
+        <v>0.9720241950435485</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.954087970418931</v>
+        <v>0.9540879704189299</v>
       </c>
       <c r="D15">
-        <v>0.9825448689353892</v>
+        <v>0.9825448689353883</v>
       </c>
       <c r="E15">
-        <v>0.9646502097542392</v>
+        <v>0.9646502097542381</v>
       </c>
       <c r="F15">
-        <v>0.9574817818658795</v>
+        <v>0.9574817818658787</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026146829879382</v>
+        <v>1.026146829879381</v>
       </c>
       <c r="J15">
-        <v>0.9853403037459747</v>
+        <v>0.9853403037459737</v>
       </c>
       <c r="K15">
-        <v>0.9977298396512742</v>
+        <v>0.9977298396512729</v>
       </c>
       <c r="L15">
-        <v>0.9801952126089841</v>
+        <v>0.980195212608983</v>
       </c>
       <c r="M15">
-        <v>0.9731760053363985</v>
+        <v>0.9731760053363976</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9608905152666224</v>
+        <v>0.9608905152666218</v>
       </c>
       <c r="D16">
-        <v>0.9878626498251574</v>
+        <v>0.9878626498251569</v>
       </c>
       <c r="E16">
-        <v>0.9706762879436414</v>
+        <v>0.9706762879436408</v>
       </c>
       <c r="F16">
-        <v>0.9647398387970864</v>
+        <v>0.9647398387970858</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.028969587485679</v>
       </c>
       <c r="J16">
-        <v>0.9906645230894363</v>
+        <v>0.9906645230894359</v>
       </c>
       <c r="K16">
         <v>1.002417227587944</v>
       </c>
       <c r="L16">
-        <v>0.9855576707482226</v>
+        <v>0.9855576707482221</v>
       </c>
       <c r="M16">
-        <v>0.9797376600224099</v>
+        <v>0.9797376600224094</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9650361616077118</v>
+        <v>0.9650361616077108</v>
       </c>
       <c r="D17">
-        <v>0.991106322103096</v>
+        <v>0.9911063221030948</v>
       </c>
       <c r="E17">
-        <v>0.9743500380509441</v>
+        <v>0.9743500380509432</v>
       </c>
       <c r="F17">
-        <v>0.9691640664231284</v>
+        <v>0.9691640664231275</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.030685217105102</v>
       </c>
       <c r="J17">
-        <v>0.9939075764110783</v>
+        <v>0.9939075764110772</v>
       </c>
       <c r="K17">
         <v>1.005272107636141</v>
       </c>
       <c r="L17">
-        <v>0.9888232647482929</v>
+        <v>0.9888232647482917</v>
       </c>
       <c r="M17">
-        <v>0.9837352620374552</v>
+        <v>0.9837352620374544</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,7 +1029,7 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9674131465981431</v>
+        <v>0.967413146598143</v>
       </c>
       <c r="D18">
         <v>0.9929670821028566</v>
@@ -1038,25 +1038,25 @@
         <v>0.9764568611623337</v>
       </c>
       <c r="F18">
-        <v>0.9717011708001461</v>
+        <v>0.9717011708001462</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03166720334242</v>
+        <v>1.031667203342421</v>
       </c>
       <c r="J18">
-        <v>0.9957664018733858</v>
+        <v>0.9957664018733859</v>
       </c>
       <c r="K18">
         <v>1.006908327274993</v>
       </c>
       <c r="L18">
-        <v>0.9906947432198134</v>
+        <v>0.9906947432198137</v>
       </c>
       <c r="M18">
-        <v>0.9860269371570346</v>
+        <v>0.9860269371570349</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9682168998957371</v>
+        <v>0.9682168998957397</v>
       </c>
       <c r="D19">
-        <v>0.993596429865125</v>
+        <v>0.9935964298651271</v>
       </c>
       <c r="E19">
-        <v>0.9771693260315388</v>
+        <v>0.9771693260315411</v>
       </c>
       <c r="F19">
-        <v>0.9725591361455544</v>
+        <v>0.9725591361455562</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031998959835888</v>
+        <v>1.03199895983589</v>
       </c>
       <c r="J19">
-        <v>0.9963948323125208</v>
+        <v>0.9963948323125232</v>
       </c>
       <c r="K19">
-        <v>1.007461477935077</v>
+        <v>1.007461477935079</v>
       </c>
       <c r="L19">
-        <v>0.9913274064569906</v>
+        <v>0.9913274064569926</v>
       </c>
       <c r="M19">
-        <v>0.986801773275671</v>
+        <v>0.9868017732756728</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9645956808763997</v>
+        <v>0.9645956808763979</v>
       </c>
       <c r="D20">
-        <v>0.9907615775316581</v>
+        <v>0.9907615775316567</v>
       </c>
       <c r="E20">
-        <v>0.9739596531088711</v>
+        <v>0.9739596531088691</v>
       </c>
       <c r="F20">
-        <v>0.9686939462747751</v>
+        <v>0.9686939462747735</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030503105503577</v>
+        <v>1.030503105503575</v>
       </c>
       <c r="J20">
-        <v>0.9935630632339596</v>
+        <v>0.9935630632339578</v>
       </c>
       <c r="K20">
-        <v>1.004968842211133</v>
+        <v>1.004968842211132</v>
       </c>
       <c r="L20">
-        <v>0.988476384892552</v>
+        <v>0.9884763848925501</v>
       </c>
       <c r="M20">
-        <v>0.9833105559828077</v>
+        <v>0.983310555982806</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9523208795960088</v>
+        <v>0.9523208795960085</v>
       </c>
       <c r="D21">
-        <v>0.9811644753425853</v>
+        <v>0.9811644753425852</v>
       </c>
       <c r="E21">
-        <v>0.9630852886656929</v>
+        <v>0.9630852886656925</v>
       </c>
       <c r="F21">
-        <v>0.9555966405907972</v>
+        <v>0.9555966405907967</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.025412126315334</v>
       </c>
       <c r="J21">
-        <v>0.9839567460873984</v>
+        <v>0.9839567460873981</v>
       </c>
       <c r="K21">
         <v>0.996511700309849</v>
       </c>
       <c r="L21">
-        <v>0.9788014765166332</v>
+        <v>0.9788014765166327</v>
       </c>
       <c r="M21">
-        <v>0.9714710781126278</v>
+        <v>0.9714710781126272</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9441720698285763</v>
+        <v>0.944172069828575</v>
       </c>
       <c r="D22">
-        <v>0.9748045138997757</v>
+        <v>0.9748045138997746</v>
       </c>
       <c r="E22">
-        <v>0.9558714925019222</v>
+        <v>0.955871492501921</v>
       </c>
       <c r="F22">
-        <v>0.9469045927537054</v>
+        <v>0.9469045927537042</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02201712315229</v>
+        <v>1.022017123152289</v>
       </c>
       <c r="J22">
-        <v>0.9775743875405242</v>
+        <v>0.9775743875405229</v>
       </c>
       <c r="K22">
-        <v>0.9908921853791813</v>
+        <v>0.9908921853791806</v>
       </c>
       <c r="L22">
-        <v>0.972370935558584</v>
+        <v>0.9723709355585829</v>
       </c>
       <c r="M22">
-        <v>0.9636067335362424</v>
+        <v>0.9636067335362412</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1222,31 +1222,31 @@
         <v>0.9485360875531977</v>
       </c>
       <c r="D23">
-        <v>0.9782093629515168</v>
+        <v>0.9782093629515166</v>
       </c>
       <c r="E23">
-        <v>0.9597342007898854</v>
+        <v>0.9597342007898856</v>
       </c>
       <c r="F23">
-        <v>0.951559325402857</v>
+        <v>0.9515593254028569</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02383666391542</v>
+        <v>1.023836663915419</v>
       </c>
       <c r="J23">
         <v>0.9809928171027676</v>
       </c>
       <c r="K23">
-        <v>0.9939020696398566</v>
+        <v>0.9939020696398565</v>
       </c>
       <c r="L23">
-        <v>0.9758154191509228</v>
+        <v>0.975815419150923</v>
       </c>
       <c r="M23">
-        <v>0.9678188580431524</v>
+        <v>0.9678188580431523</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,13 +1257,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9647948415463973</v>
+        <v>0.9647948415463972</v>
       </c>
       <c r="D24">
-        <v>0.9909174487822352</v>
+        <v>0.990917448782235</v>
       </c>
       <c r="E24">
-        <v>0.9741361620154837</v>
+        <v>0.9741361620154838</v>
       </c>
       <c r="F24">
         <v>0.9689065070051671</v>
@@ -1272,19 +1272,19 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030585451459137</v>
+        <v>1.030585451459136</v>
       </c>
       <c r="J24">
-        <v>0.9937188347652123</v>
+        <v>0.9937188347652124</v>
       </c>
       <c r="K24">
         <v>1.005105963948974</v>
       </c>
       <c r="L24">
-        <v>0.9886332273461024</v>
+        <v>0.9886332273461026</v>
       </c>
       <c r="M24">
-        <v>0.9835025855502051</v>
+        <v>0.9835025855502048</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9820681062983222</v>
+        <v>0.9820681062983203</v>
       </c>
       <c r="D25">
-        <v>1.004453253562191</v>
+        <v>1.004453253562189</v>
       </c>
       <c r="E25">
-        <v>0.9894517941311252</v>
+        <v>0.9894517941311237</v>
       </c>
       <c r="F25">
-        <v>0.9873510692275357</v>
+        <v>0.9873510692275345</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037690705333621</v>
+        <v>1.03769070533362</v>
       </c>
       <c r="J25">
-        <v>1.007214395892859</v>
+        <v>1.007214395892858</v>
       </c>
       <c r="K25">
-        <v>1.01698282962314</v>
+        <v>1.016982829623139</v>
       </c>
       <c r="L25">
-        <v>1.002216094591476</v>
+        <v>1.002216094591475</v>
       </c>
       <c r="M25">
-        <v>1.000148969369783</v>
+        <v>1.000148969369781</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9948060838321444</v>
+        <v>0.9948060838321414</v>
       </c>
       <c r="D2">
-        <v>1.014453909920712</v>
+        <v>1.01445390992071</v>
       </c>
       <c r="E2">
-        <v>1.00075273400863</v>
+        <v>1.000752734008627</v>
       </c>
       <c r="F2">
-        <v>1.000967804818129</v>
+        <v>1.000967804818127</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042875725736355</v>
+        <v>1.042875725736353</v>
       </c>
       <c r="J2">
-        <v>1.017143261656586</v>
+        <v>1.017143261656583</v>
       </c>
       <c r="K2">
-        <v>1.025715485488966</v>
+        <v>1.025715485488963</v>
       </c>
       <c r="L2">
-        <v>1.012201592002947</v>
+        <v>1.012201592002944</v>
       </c>
       <c r="M2">
-        <v>1.012413673029421</v>
+        <v>1.012413673029418</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003547858356949</v>
+        <v>1.003547858356948</v>
       </c>
       <c r="D3">
         <v>1.021324478651891</v>
       </c>
       <c r="E3">
-        <v>1.008510027134011</v>
+        <v>1.00851002713401</v>
       </c>
       <c r="F3">
         <v>1.01032244327002</v>
@@ -483,7 +483,7 @@
         <v>1.031691589876417</v>
       </c>
       <c r="L3">
-        <v>1.019035166341261</v>
+        <v>1.01903516634126</v>
       </c>
       <c r="M3">
         <v>1.020824928476982</v>
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008995682804426</v>
+        <v>1.008995682804425</v>
       </c>
       <c r="D4">
-        <v>1.025608599604927</v>
+        <v>1.025608599604926</v>
       </c>
       <c r="E4">
-        <v>1.01334455508972</v>
+        <v>1.013344555089719</v>
       </c>
       <c r="F4">
         <v>1.016157029318666</v>
@@ -515,16 +515,16 @@
         <v>1.048582625618703</v>
       </c>
       <c r="J4">
-        <v>1.028172044058987</v>
+        <v>1.028172044058986</v>
       </c>
       <c r="K4">
-        <v>1.035407471877322</v>
+        <v>1.035407471877321</v>
       </c>
       <c r="L4">
-        <v>1.023284547429745</v>
+        <v>1.023284547429744</v>
       </c>
       <c r="M4">
-        <v>1.026064287038201</v>
+        <v>1.0260642870382</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011239384412963</v>
+        <v>1.011239384412964</v>
       </c>
       <c r="D5">
-        <v>1.027373477285221</v>
+        <v>1.027373477285222</v>
       </c>
       <c r="E5">
-        <v>1.015335647937719</v>
+        <v>1.01533564793772</v>
       </c>
       <c r="F5">
-        <v>1.018561218189376</v>
+        <v>1.018561218189377</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.049477253921636</v>
       </c>
       <c r="J5">
-        <v>1.029912270767071</v>
+        <v>1.029912270767072</v>
       </c>
       <c r="K5">
         <v>1.036935775015996</v>
       </c>
       <c r="L5">
-        <v>1.025032392712097</v>
+        <v>1.025032392712098</v>
       </c>
       <c r="M5">
-        <v>1.028221553652771</v>
+        <v>1.028221553652773</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011613473310262</v>
+        <v>1.011613473310263</v>
       </c>
       <c r="D6">
-        <v>1.027667755531436</v>
+        <v>1.027667755531437</v>
       </c>
       <c r="E6">
-        <v>1.01566761648039</v>
+        <v>1.015667616480391</v>
       </c>
       <c r="F6">
-        <v>1.018962136469967</v>
+        <v>1.018962136469968</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.049626188482545</v>
       </c>
       <c r="J6">
-        <v>1.030202307524007</v>
+        <v>1.030202307524008</v>
       </c>
       <c r="K6">
-        <v>1.037190461275449</v>
+        <v>1.03719046127545</v>
       </c>
       <c r="L6">
-        <v>1.025323673039154</v>
+        <v>1.025323673039155</v>
       </c>
       <c r="M6">
-        <v>1.02858119789738</v>
+        <v>1.028581197897381</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -629,10 +629,10 @@
         <v>1.048594666108498</v>
       </c>
       <c r="J7">
-        <v>1.028195442966168</v>
+        <v>1.028195442966169</v>
       </c>
       <c r="K7">
-        <v>1.03542802328848</v>
+        <v>1.035428023288479</v>
       </c>
       <c r="L7">
         <v>1.023308050544567</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9978057828932084</v>
+        <v>0.99780578289321</v>
       </c>
       <c r="D8">
-        <v>1.016810915314217</v>
+        <v>1.016810915314218</v>
       </c>
       <c r="E8">
-        <v>1.003414515705642</v>
+        <v>1.003414515705643</v>
       </c>
       <c r="F8">
-        <v>1.004176807257275</v>
+        <v>1.004176807257276</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044088744664191</v>
+        <v>1.044088744664192</v>
       </c>
       <c r="J8">
-        <v>1.019477826752225</v>
+        <v>1.019477826752226</v>
       </c>
       <c r="K8">
-        <v>1.02776788692937</v>
+        <v>1.027767886929371</v>
       </c>
       <c r="L8">
-        <v>1.014548433007899</v>
+        <v>1.0145484330079</v>
       </c>
       <c r="M8">
-        <v>1.015300496728411</v>
+        <v>1.015300496728412</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,19 +684,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9762610676802166</v>
+        <v>0.9762610676802177</v>
       </c>
       <c r="D9">
-        <v>0.9998991173059208</v>
+        <v>0.9998991173059218</v>
       </c>
       <c r="E9">
-        <v>0.984301493666569</v>
+        <v>0.9843014936665699</v>
       </c>
       <c r="F9">
-        <v>0.981148024730193</v>
+        <v>0.9811480247301941</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.035310616076199</v>
       </c>
       <c r="J9">
-        <v>1.002680887439798</v>
+        <v>1.002680887439799</v>
       </c>
       <c r="K9">
-        <v>1.012993831473472</v>
+        <v>1.012993831473473</v>
       </c>
       <c r="L9">
-        <v>0.9976545088406104</v>
+        <v>0.9976545088406111</v>
       </c>
       <c r="M9">
-        <v>0.994554551098339</v>
+        <v>0.9945545510983399</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9604162703416755</v>
+        <v>0.9604162703416743</v>
       </c>
       <c r="D10">
-        <v>0.9874917230598087</v>
+        <v>0.9874917230598073</v>
       </c>
       <c r="E10">
-        <v>0.9702560864830777</v>
+        <v>0.970256086483076</v>
       </c>
       <c r="F10">
-        <v>0.9642337762662986</v>
+        <v>0.9642337762662971</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02877309501814</v>
+        <v>1.028773095018139</v>
       </c>
       <c r="J10">
-        <v>0.9902934460360532</v>
+        <v>0.9902934460360518</v>
       </c>
       <c r="K10">
-        <v>1.002090551527501</v>
+        <v>1.002090551527499</v>
       </c>
       <c r="L10">
-        <v>0.9851839776099716</v>
+        <v>0.98518397760997</v>
       </c>
       <c r="M10">
-        <v>0.9792802907881264</v>
+        <v>0.9792802907881248</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9531226118190909</v>
+        <v>0.953122611819089</v>
       </c>
       <c r="D11">
-        <v>0.9817907099133905</v>
+        <v>0.9817907099133888</v>
       </c>
       <c r="E11">
-        <v>0.9637952712001631</v>
+        <v>0.9637952712001613</v>
       </c>
       <c r="F11">
-        <v>0.9564519198507542</v>
+        <v>0.9564519198507518</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025745532917729</v>
+        <v>1.025745532917727</v>
       </c>
       <c r="J11">
-        <v>0.9845844917230931</v>
+        <v>0.9845844917230913</v>
       </c>
       <c r="K11">
-        <v>0.9970643955186304</v>
+        <v>0.9970643955186287</v>
       </c>
       <c r="L11">
-        <v>0.9794338523708442</v>
+        <v>0.9794338523708424</v>
       </c>
       <c r="M11">
-        <v>0.9722446276460185</v>
+        <v>0.9722446276460166</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9503398576944426</v>
+        <v>0.9503398576944451</v>
       </c>
       <c r="D12">
-        <v>0.9796174730990918</v>
+        <v>0.9796174730990935</v>
       </c>
       <c r="E12">
-        <v>0.9613311545490582</v>
+        <v>0.9613311545490603</v>
       </c>
       <c r="F12">
-        <v>0.9534833928950595</v>
+        <v>0.9534833928950617</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02458781287392</v>
+        <v>1.024587812873921</v>
       </c>
       <c r="J12">
-        <v>0.9824054744964104</v>
+        <v>0.9824054744964126</v>
       </c>
       <c r="K12">
-        <v>0.9951458730683486</v>
+        <v>0.9951458730683503</v>
       </c>
       <c r="L12">
-        <v>0.9772386777326184</v>
+        <v>0.9772386777326207</v>
       </c>
       <c r="M12">
-        <v>0.9695595437052761</v>
+        <v>0.9695595437052782</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9509402521981012</v>
+        <v>0.9509402521981016</v>
       </c>
       <c r="D13">
-        <v>0.9800862707359571</v>
+        <v>0.9800862707359576</v>
       </c>
       <c r="E13">
-        <v>0.9618627579447444</v>
+        <v>0.9618627579447446</v>
       </c>
       <c r="F13">
-        <v>0.9541238491470428</v>
+        <v>0.9541238491470432</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024837712881174</v>
+        <v>1.024837712881175</v>
       </c>
       <c r="J13">
-        <v>0.982875646397093</v>
+        <v>0.9828756463970933</v>
       </c>
       <c r="K13">
-        <v>0.9955598416234159</v>
+        <v>0.9955598416234164</v>
       </c>
       <c r="L13">
-        <v>0.9777123561030392</v>
+        <v>0.9777123561030393</v>
       </c>
       <c r="M13">
-        <v>0.9701389009532732</v>
+        <v>0.9701389009532736</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9528941445163674</v>
+        <v>0.952894144516367</v>
       </c>
       <c r="D14">
-        <v>0.9816122447609992</v>
+        <v>0.9816122447609991</v>
       </c>
       <c r="E14">
-        <v>0.9635929452957419</v>
+        <v>0.9635929452957414</v>
       </c>
       <c r="F14">
-        <v>0.9562081913009638</v>
+        <v>0.9562081913009635</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.025650534821476</v>
       </c>
       <c r="J14">
-        <v>0.9844056087294425</v>
+        <v>0.9844056087294417</v>
       </c>
       <c r="K14">
-        <v>0.9969068994433542</v>
+        <v>0.9969068994433539</v>
       </c>
       <c r="L14">
-        <v>0.9792536519821533</v>
+        <v>0.9792536519821526</v>
       </c>
       <c r="M14">
-        <v>0.9720241950435485</v>
+        <v>0.9720241950435481</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9540879704189299</v>
+        <v>0.954087970418931</v>
       </c>
       <c r="D15">
-        <v>0.9825448689353883</v>
+        <v>0.9825448689353892</v>
       </c>
       <c r="E15">
-        <v>0.9646502097542381</v>
+        <v>0.9646502097542392</v>
       </c>
       <c r="F15">
-        <v>0.9574817818658787</v>
+        <v>0.9574817818658795</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026146829879381</v>
+        <v>1.026146829879382</v>
       </c>
       <c r="J15">
-        <v>0.9853403037459737</v>
+        <v>0.9853403037459747</v>
       </c>
       <c r="K15">
-        <v>0.9977298396512729</v>
+        <v>0.9977298396512742</v>
       </c>
       <c r="L15">
-        <v>0.980195212608983</v>
+        <v>0.9801952126089841</v>
       </c>
       <c r="M15">
-        <v>0.9731760053363976</v>
+        <v>0.9731760053363985</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9608905152666218</v>
+        <v>0.9608905152666224</v>
       </c>
       <c r="D16">
-        <v>0.9878626498251569</v>
+        <v>0.9878626498251574</v>
       </c>
       <c r="E16">
-        <v>0.9706762879436408</v>
+        <v>0.9706762879436414</v>
       </c>
       <c r="F16">
-        <v>0.9647398387970858</v>
+        <v>0.9647398387970864</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.028969587485679</v>
       </c>
       <c r="J16">
-        <v>0.9906645230894359</v>
+        <v>0.9906645230894363</v>
       </c>
       <c r="K16">
         <v>1.002417227587944</v>
       </c>
       <c r="L16">
-        <v>0.9855576707482221</v>
+        <v>0.9855576707482226</v>
       </c>
       <c r="M16">
-        <v>0.9797376600224094</v>
+        <v>0.9797376600224099</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9650361616077108</v>
+        <v>0.9650361616077118</v>
       </c>
       <c r="D17">
-        <v>0.9911063221030948</v>
+        <v>0.991106322103096</v>
       </c>
       <c r="E17">
-        <v>0.9743500380509432</v>
+        <v>0.9743500380509441</v>
       </c>
       <c r="F17">
-        <v>0.9691640664231275</v>
+        <v>0.9691640664231284</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.030685217105102</v>
       </c>
       <c r="J17">
-        <v>0.9939075764110772</v>
+        <v>0.9939075764110783</v>
       </c>
       <c r="K17">
         <v>1.005272107636141</v>
       </c>
       <c r="L17">
-        <v>0.9888232647482917</v>
+        <v>0.9888232647482929</v>
       </c>
       <c r="M17">
-        <v>0.9837352620374544</v>
+        <v>0.9837352620374552</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,7 +1029,7 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.967413146598143</v>
+        <v>0.9674131465981431</v>
       </c>
       <c r="D18">
         <v>0.9929670821028566</v>
@@ -1038,25 +1038,25 @@
         <v>0.9764568611623337</v>
       </c>
       <c r="F18">
-        <v>0.9717011708001462</v>
+        <v>0.9717011708001461</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031667203342421</v>
+        <v>1.03166720334242</v>
       </c>
       <c r="J18">
-        <v>0.9957664018733859</v>
+        <v>0.9957664018733858</v>
       </c>
       <c r="K18">
         <v>1.006908327274993</v>
       </c>
       <c r="L18">
-        <v>0.9906947432198137</v>
+        <v>0.9906947432198134</v>
       </c>
       <c r="M18">
-        <v>0.9860269371570349</v>
+        <v>0.9860269371570346</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9682168998957397</v>
+        <v>0.9682168998957371</v>
       </c>
       <c r="D19">
-        <v>0.9935964298651271</v>
+        <v>0.993596429865125</v>
       </c>
       <c r="E19">
-        <v>0.9771693260315411</v>
+        <v>0.9771693260315388</v>
       </c>
       <c r="F19">
-        <v>0.9725591361455562</v>
+        <v>0.9725591361455544</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03199895983589</v>
+        <v>1.031998959835888</v>
       </c>
       <c r="J19">
-        <v>0.9963948323125232</v>
+        <v>0.9963948323125208</v>
       </c>
       <c r="K19">
-        <v>1.007461477935079</v>
+        <v>1.007461477935077</v>
       </c>
       <c r="L19">
-        <v>0.9913274064569926</v>
+        <v>0.9913274064569906</v>
       </c>
       <c r="M19">
-        <v>0.9868017732756728</v>
+        <v>0.986801773275671</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9645956808763979</v>
+        <v>0.9645956808763997</v>
       </c>
       <c r="D20">
-        <v>0.9907615775316567</v>
+        <v>0.9907615775316581</v>
       </c>
       <c r="E20">
-        <v>0.9739596531088691</v>
+        <v>0.9739596531088711</v>
       </c>
       <c r="F20">
-        <v>0.9686939462747735</v>
+        <v>0.9686939462747751</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030503105503575</v>
+        <v>1.030503105503577</v>
       </c>
       <c r="J20">
-        <v>0.9935630632339578</v>
+        <v>0.9935630632339596</v>
       </c>
       <c r="K20">
-        <v>1.004968842211132</v>
+        <v>1.004968842211133</v>
       </c>
       <c r="L20">
-        <v>0.9884763848925501</v>
+        <v>0.988476384892552</v>
       </c>
       <c r="M20">
-        <v>0.983310555982806</v>
+        <v>0.9833105559828077</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9523208795960085</v>
+        <v>0.9523208795960088</v>
       </c>
       <c r="D21">
-        <v>0.9811644753425852</v>
+        <v>0.9811644753425853</v>
       </c>
       <c r="E21">
-        <v>0.9630852886656925</v>
+        <v>0.9630852886656929</v>
       </c>
       <c r="F21">
-        <v>0.9555966405907967</v>
+        <v>0.9555966405907972</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.025412126315334</v>
       </c>
       <c r="J21">
-        <v>0.9839567460873981</v>
+        <v>0.9839567460873984</v>
       </c>
       <c r="K21">
         <v>0.996511700309849</v>
       </c>
       <c r="L21">
-        <v>0.9788014765166327</v>
+        <v>0.9788014765166332</v>
       </c>
       <c r="M21">
-        <v>0.9714710781126272</v>
+        <v>0.9714710781126278</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.944172069828575</v>
+        <v>0.9441720698285763</v>
       </c>
       <c r="D22">
-        <v>0.9748045138997746</v>
+        <v>0.9748045138997757</v>
       </c>
       <c r="E22">
-        <v>0.955871492501921</v>
+        <v>0.9558714925019222</v>
       </c>
       <c r="F22">
-        <v>0.9469045927537042</v>
+        <v>0.9469045927537054</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022017123152289</v>
+        <v>1.02201712315229</v>
       </c>
       <c r="J22">
-        <v>0.9775743875405229</v>
+        <v>0.9775743875405242</v>
       </c>
       <c r="K22">
-        <v>0.9908921853791806</v>
+        <v>0.9908921853791813</v>
       </c>
       <c r="L22">
-        <v>0.9723709355585829</v>
+        <v>0.972370935558584</v>
       </c>
       <c r="M22">
-        <v>0.9636067335362412</v>
+        <v>0.9636067335362424</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1222,31 +1222,31 @@
         <v>0.9485360875531977</v>
       </c>
       <c r="D23">
-        <v>0.9782093629515166</v>
+        <v>0.9782093629515168</v>
       </c>
       <c r="E23">
-        <v>0.9597342007898856</v>
+        <v>0.9597342007898854</v>
       </c>
       <c r="F23">
-        <v>0.9515593254028569</v>
+        <v>0.951559325402857</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023836663915419</v>
+        <v>1.02383666391542</v>
       </c>
       <c r="J23">
         <v>0.9809928171027676</v>
       </c>
       <c r="K23">
-        <v>0.9939020696398565</v>
+        <v>0.9939020696398566</v>
       </c>
       <c r="L23">
-        <v>0.975815419150923</v>
+        <v>0.9758154191509228</v>
       </c>
       <c r="M23">
-        <v>0.9678188580431523</v>
+        <v>0.9678188580431524</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,13 +1257,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9647948415463972</v>
+        <v>0.9647948415463973</v>
       </c>
       <c r="D24">
-        <v>0.990917448782235</v>
+        <v>0.9909174487822352</v>
       </c>
       <c r="E24">
-        <v>0.9741361620154838</v>
+        <v>0.9741361620154837</v>
       </c>
       <c r="F24">
         <v>0.9689065070051671</v>
@@ -1272,19 +1272,19 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030585451459136</v>
+        <v>1.030585451459137</v>
       </c>
       <c r="J24">
-        <v>0.9937188347652124</v>
+        <v>0.9937188347652123</v>
       </c>
       <c r="K24">
         <v>1.005105963948974</v>
       </c>
       <c r="L24">
-        <v>0.9886332273461026</v>
+        <v>0.9886332273461024</v>
       </c>
       <c r="M24">
-        <v>0.9835025855502048</v>
+        <v>0.9835025855502051</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9820681062983203</v>
+        <v>0.9820681062983222</v>
       </c>
       <c r="D25">
-        <v>1.004453253562189</v>
+        <v>1.004453253562191</v>
       </c>
       <c r="E25">
-        <v>0.9894517941311237</v>
+        <v>0.9894517941311252</v>
       </c>
       <c r="F25">
-        <v>0.9873510692275345</v>
+        <v>0.9873510692275357</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03769070533362</v>
+        <v>1.037690705333621</v>
       </c>
       <c r="J25">
-        <v>1.007214395892858</v>
+        <v>1.007214395892859</v>
       </c>
       <c r="K25">
-        <v>1.016982829623139</v>
+        <v>1.01698282962314</v>
       </c>
       <c r="L25">
-        <v>1.002216094591475</v>
+        <v>1.002216094591476</v>
       </c>
       <c r="M25">
-        <v>1.000148969369781</v>
+        <v>1.000148969369783</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9948060838321414</v>
+        <v>0.9973647436567717</v>
       </c>
       <c r="D2">
-        <v>1.01445390992071</v>
+        <v>1.016551561633606</v>
       </c>
       <c r="E2">
-        <v>1.000752734008627</v>
+        <v>1.002937236214491</v>
       </c>
       <c r="F2">
-        <v>1.000967804818127</v>
+        <v>1.002884944235887</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042875725736353</v>
+        <v>1.044086439933624</v>
       </c>
       <c r="J2">
-        <v>1.017143261656583</v>
+        <v>1.019624561499106</v>
       </c>
       <c r="K2">
-        <v>1.025715485488963</v>
+        <v>1.027785024040794</v>
       </c>
       <c r="L2">
-        <v>1.012201592002944</v>
+        <v>1.014355801784791</v>
       </c>
       <c r="M2">
-        <v>1.012413673029418</v>
+        <v>1.014304232993481</v>
+      </c>
+      <c r="N2">
+        <v>1.021072545329006</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003547858356948</v>
+        <v>1.006084596707822</v>
       </c>
       <c r="D3">
-        <v>1.021324478651891</v>
+        <v>1.023407424922796</v>
       </c>
       <c r="E3">
-        <v>1.00851002713401</v>
+        <v>1.010676727426643</v>
       </c>
       <c r="F3">
-        <v>1.01032244327002</v>
+        <v>1.012214724793736</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046401186285671</v>
+        <v>1.047604447643245</v>
       </c>
       <c r="J3">
-        <v>1.023942270232168</v>
+        <v>1.026410752711285</v>
       </c>
       <c r="K3">
-        <v>1.031691589876417</v>
+        <v>1.033749313584039</v>
       </c>
       <c r="L3">
-        <v>1.01903516634126</v>
+        <v>1.0211747961457</v>
       </c>
       <c r="M3">
-        <v>1.020824928476982</v>
+        <v>1.022693665559331</v>
+      </c>
+      <c r="N3">
+        <v>1.027868373711094</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008995682804425</v>
+        <v>1.011519838976217</v>
       </c>
       <c r="D4">
-        <v>1.025608599604926</v>
+        <v>1.02768316601622</v>
       </c>
       <c r="E4">
-        <v>1.013344555089719</v>
+        <v>1.01550108263099</v>
       </c>
       <c r="F4">
-        <v>1.016157029318666</v>
+        <v>1.018034909894714</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048582625618703</v>
+        <v>1.049781718370958</v>
       </c>
       <c r="J4">
-        <v>1.028172044058986</v>
+        <v>1.0306333870145</v>
       </c>
       <c r="K4">
-        <v>1.035407471877321</v>
+        <v>1.037458577105544</v>
       </c>
       <c r="L4">
-        <v>1.023284547429744</v>
+        <v>1.025415954925882</v>
       </c>
       <c r="M4">
-        <v>1.0260642870382</v>
+        <v>1.027920435214793</v>
+      </c>
+      <c r="N4">
+        <v>1.032097004639362</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011239384412964</v>
+        <v>1.013758593170059</v>
       </c>
       <c r="D5">
-        <v>1.027373477285222</v>
+        <v>1.029444763639983</v>
       </c>
       <c r="E5">
-        <v>1.01533564793772</v>
+        <v>1.017488186635483</v>
       </c>
       <c r="F5">
-        <v>1.018561218189377</v>
+        <v>1.020433403892375</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049477253921636</v>
+        <v>1.050674734347423</v>
       </c>
       <c r="J5">
-        <v>1.029912270767072</v>
+        <v>1.032370858476619</v>
       </c>
       <c r="K5">
-        <v>1.036935775015996</v>
+        <v>1.03898431722684</v>
       </c>
       <c r="L5">
-        <v>1.025032392712098</v>
+        <v>1.027160602602273</v>
       </c>
       <c r="M5">
-        <v>1.028221553652773</v>
+        <v>1.030072736635244</v>
+      </c>
+      <c r="N5">
+        <v>1.033836943510248</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011613473310263</v>
+        <v>1.014131870350048</v>
       </c>
       <c r="D6">
-        <v>1.027667755531437</v>
+        <v>1.029738504630095</v>
       </c>
       <c r="E6">
-        <v>1.015667616480391</v>
+        <v>1.017819501404725</v>
       </c>
       <c r="F6">
-        <v>1.018962136469968</v>
+        <v>1.020833385900052</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049626188482545</v>
+        <v>1.050823405981484</v>
       </c>
       <c r="J6">
-        <v>1.030202307524008</v>
+        <v>1.032660446265883</v>
       </c>
       <c r="K6">
-        <v>1.03719046127545</v>
+        <v>1.039238585319656</v>
       </c>
       <c r="L6">
-        <v>1.025323673039155</v>
+        <v>1.027451360414143</v>
       </c>
       <c r="M6">
-        <v>1.028581197897381</v>
+        <v>1.030431565351676</v>
+      </c>
+      <c r="N6">
+        <v>1.034126942547389</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009025841998576</v>
+        <v>1.011549930768457</v>
       </c>
       <c r="D7">
-        <v>1.025632320963463</v>
+        <v>1.02770684262728</v>
       </c>
       <c r="E7">
-        <v>1.013371318966563</v>
+        <v>1.015527792119555</v>
       </c>
       <c r="F7">
-        <v>1.01618934093642</v>
+        <v>1.018067144058346</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048594666108498</v>
+        <v>1.049793736785793</v>
       </c>
       <c r="J7">
-        <v>1.028195442966169</v>
+        <v>1.030656748174761</v>
       </c>
       <c r="K7">
-        <v>1.035428023288479</v>
+        <v>1.037479093439232</v>
       </c>
       <c r="L7">
-        <v>1.023308050544567</v>
+        <v>1.025439414333696</v>
       </c>
       <c r="M7">
-        <v>1.026093286664483</v>
+        <v>1.027949367257996</v>
+      </c>
+      <c r="N7">
+        <v>1.032120398975151</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.99780578289321</v>
+        <v>1.000356675285786</v>
       </c>
       <c r="D8">
-        <v>1.016810915314218</v>
+        <v>1.018903343141875</v>
       </c>
       <c r="E8">
-        <v>1.003414515705643</v>
+        <v>1.005592700326835</v>
       </c>
       <c r="F8">
-        <v>1.004176807257276</v>
+        <v>1.006085168509228</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044088744664192</v>
+        <v>1.045296794017984</v>
       </c>
       <c r="J8">
-        <v>1.019477826752226</v>
+        <v>1.021954536208526</v>
       </c>
       <c r="K8">
-        <v>1.027767886929371</v>
+        <v>1.029833202788952</v>
       </c>
       <c r="L8">
-        <v>1.0145484330079</v>
+        <v>1.016697444134669</v>
       </c>
       <c r="M8">
-        <v>1.015300496728412</v>
+        <v>1.017183338435891</v>
+      </c>
+      <c r="N8">
+        <v>1.023405828869766</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9762610676802177</v>
+        <v>0.9788737614166133</v>
       </c>
       <c r="D9">
-        <v>0.9998991173059218</v>
+        <v>1.002033400736356</v>
       </c>
       <c r="E9">
-        <v>0.9843014936665699</v>
+        <v>0.986530157104465</v>
       </c>
       <c r="F9">
-        <v>0.9811480247301941</v>
+        <v>0.9831255568892954</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035310616076199</v>
+        <v>1.036540403262633</v>
       </c>
       <c r="J9">
-        <v>1.002680887439799</v>
+        <v>1.005195250844086</v>
       </c>
       <c r="K9">
-        <v>1.012993831473473</v>
+        <v>1.015093573355484</v>
       </c>
       <c r="L9">
-        <v>0.9976545088406111</v>
+        <v>0.9998456201319124</v>
       </c>
       <c r="M9">
-        <v>0.9945545510983399</v>
+        <v>0.9964984747212603</v>
+      </c>
+      <c r="N9">
+        <v>1.006622743397792</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9604162703416743</v>
+        <v>0.9630840936369349</v>
       </c>
       <c r="D10">
-        <v>0.9874917230598073</v>
+        <v>0.9896637260081397</v>
       </c>
       <c r="E10">
-        <v>0.970256086483076</v>
+        <v>0.972530052762941</v>
       </c>
       <c r="F10">
-        <v>0.9642337762662971</v>
+        <v>0.9662721016387852</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028773095018139</v>
+        <v>1.030022988939214</v>
       </c>
       <c r="J10">
-        <v>0.9902934460360518</v>
+        <v>0.992842991865974</v>
       </c>
       <c r="K10">
-        <v>1.002090551527499</v>
+        <v>1.004222147057847</v>
       </c>
       <c r="L10">
-        <v>0.98518397760997</v>
+        <v>0.9874136537219594</v>
       </c>
       <c r="M10">
-        <v>0.9792802907881248</v>
+        <v>0.9812782491719785</v>
+      </c>
+      <c r="N10">
+        <v>0.9942529427951066</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.953122611819089</v>
+        <v>0.9558189112317123</v>
       </c>
       <c r="D11">
-        <v>0.9817907099133888</v>
+        <v>0.9839822830458015</v>
       </c>
       <c r="E11">
-        <v>0.9637952712001613</v>
+        <v>0.966092697469174</v>
       </c>
       <c r="F11">
-        <v>0.9564519198507518</v>
+        <v>0.9585214321698291</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025745532917727</v>
+        <v>1.027005981245569</v>
       </c>
       <c r="J11">
-        <v>0.9845844917230913</v>
+        <v>0.9871526143870745</v>
       </c>
       <c r="K11">
-        <v>0.9970643955186287</v>
+        <v>0.9992127266941341</v>
       </c>
       <c r="L11">
-        <v>0.9794338523708424</v>
+        <v>0.98168369408002</v>
       </c>
       <c r="M11">
-        <v>0.9722446276460166</v>
+        <v>0.9742703875566433</v>
+      </c>
+      <c r="N11">
+        <v>0.9885544843274914</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9503398576944451</v>
+        <v>0.9530475767057317</v>
       </c>
       <c r="D12">
-        <v>0.9796174730990935</v>
+        <v>0.9818169070095379</v>
       </c>
       <c r="E12">
-        <v>0.9613311545490603</v>
+        <v>0.9636379972569671</v>
       </c>
       <c r="F12">
-        <v>0.9534833928950617</v>
+        <v>0.9555653802365769</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024587812873921</v>
+        <v>1.025852519032849</v>
       </c>
       <c r="J12">
-        <v>0.9824054744964126</v>
+        <v>0.9849811099959663</v>
       </c>
       <c r="K12">
-        <v>0.9951458730683503</v>
+        <v>0.9973009590340891</v>
       </c>
       <c r="L12">
-        <v>0.9772386777326207</v>
+        <v>0.9794966437609016</v>
       </c>
       <c r="M12">
-        <v>0.9695595437052782</v>
+        <v>0.9715964364626147</v>
+      </c>
+      <c r="N12">
+        <v>0.9863798961510729</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9509402521981016</v>
+        <v>0.9536454806686134</v>
       </c>
       <c r="D13">
-        <v>0.9800862707359576</v>
+        <v>0.9822839897007938</v>
       </c>
       <c r="E13">
-        <v>0.9618627579447446</v>
+        <v>0.9641675466202773</v>
       </c>
       <c r="F13">
-        <v>0.9541238491470432</v>
+        <v>0.956203117171599</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024837712881175</v>
+        <v>1.026101489304364</v>
       </c>
       <c r="J13">
-        <v>0.9828756463970933</v>
+        <v>0.9854496405312763</v>
       </c>
       <c r="K13">
-        <v>0.9955598416234164</v>
+        <v>0.9977134524531183</v>
       </c>
       <c r="L13">
-        <v>0.9777123561030393</v>
+        <v>0.9799685485850329</v>
       </c>
       <c r="M13">
-        <v>0.9701389009532736</v>
+        <v>0.9721733664291996</v>
+      </c>
+      <c r="N13">
+        <v>0.9868490920534843</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.952894144516367</v>
+        <v>0.9555913696717623</v>
       </c>
       <c r="D14">
-        <v>0.9816122447609991</v>
+        <v>0.9838044548864335</v>
       </c>
       <c r="E14">
-        <v>0.9635929452957414</v>
+        <v>0.965891134754671</v>
       </c>
       <c r="F14">
-        <v>0.9562081913009635</v>
+        <v>0.9582787155480107</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025650534821476</v>
+        <v>1.026911327812605</v>
       </c>
       <c r="J14">
-        <v>0.9844056087294417</v>
+        <v>0.9869743391599707</v>
       </c>
       <c r="K14">
-        <v>0.9969068994433539</v>
+        <v>0.9990557773336896</v>
       </c>
       <c r="L14">
-        <v>0.9792536519821526</v>
+        <v>0.9815041515501746</v>
       </c>
       <c r="M14">
-        <v>0.9720241950435481</v>
+        <v>0.9740508577721159</v>
+      </c>
+      <c r="N14">
+        <v>0.9883759559291169</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.954087970418931</v>
+        <v>0.9567803812990739</v>
       </c>
       <c r="D15">
-        <v>0.9825448689353892</v>
+        <v>0.9847337669136152</v>
       </c>
       <c r="E15">
-        <v>0.9646502097542392</v>
+        <v>0.9669444306164013</v>
       </c>
       <c r="F15">
-        <v>0.9574817818658795</v>
+        <v>0.9595470423829372</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026146829879382</v>
+        <v>1.027405831470188</v>
       </c>
       <c r="J15">
-        <v>0.9853403037459747</v>
+        <v>0.9879058760378864</v>
       </c>
       <c r="K15">
-        <v>0.9977298396512742</v>
+        <v>0.9998758761094186</v>
       </c>
       <c r="L15">
-        <v>0.9801952126089841</v>
+        <v>0.982442292506772</v>
       </c>
       <c r="M15">
-        <v>0.9731760053363985</v>
+        <v>0.975197972366731</v>
+      </c>
+      <c r="N15">
+        <v>0.9893088156962483</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9608905152666224</v>
+        <v>0.963556557640879</v>
       </c>
       <c r="D16">
-        <v>0.9878626498251574</v>
+        <v>0.9900334305092651</v>
       </c>
       <c r="E16">
-        <v>0.9706762879436414</v>
+        <v>0.9729487881429926</v>
       </c>
       <c r="F16">
-        <v>0.9647398387970864</v>
+        <v>0.966776209543834</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028969587485679</v>
+        <v>1.030218824621334</v>
       </c>
       <c r="J16">
-        <v>0.9906645230894363</v>
+        <v>0.993212915206115</v>
       </c>
       <c r="K16">
-        <v>1.002417227587944</v>
+        <v>1.004547782061362</v>
       </c>
       <c r="L16">
-        <v>0.9855576707482226</v>
+        <v>0.9877860905389699</v>
       </c>
       <c r="M16">
-        <v>0.9797376600224099</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9817338775454479</v>
+      </c>
+      <c r="N16">
+        <v>0.9946233914688212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9650361616077118</v>
+        <v>0.967686990554571</v>
       </c>
       <c r="D17">
-        <v>0.991106322103096</v>
+        <v>0.9932666707431401</v>
       </c>
       <c r="E17">
-        <v>0.9743500380509441</v>
+        <v>0.976610020545965</v>
       </c>
       <c r="F17">
-        <v>0.9691640664231284</v>
+        <v>0.9711837173553026</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030685217105102</v>
+        <v>1.031928861385218</v>
       </c>
       <c r="J17">
-        <v>0.9939075764110783</v>
+        <v>0.996446155678647</v>
       </c>
       <c r="K17">
-        <v>1.005272107636141</v>
+        <v>1.007393798682129</v>
       </c>
       <c r="L17">
-        <v>0.9888232647482929</v>
+        <v>0.9910409783391794</v>
       </c>
       <c r="M17">
-        <v>0.9837352620374552</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9857165968740103</v>
+      </c>
+      <c r="N17">
+        <v>0.997861223513682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9674131465981431</v>
+        <v>0.9700555340563718</v>
       </c>
       <c r="D18">
-        <v>0.9929670821028566</v>
+        <v>0.9951216498595828</v>
       </c>
       <c r="E18">
-        <v>0.9764568611623337</v>
+        <v>0.9787099031534823</v>
       </c>
       <c r="F18">
-        <v>0.9717011708001461</v>
+        <v>0.9737115257417159</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03166720334242</v>
+        <v>1.032907758930022</v>
       </c>
       <c r="J18">
-        <v>0.9957664018733858</v>
+        <v>0.9982995711488852</v>
       </c>
       <c r="K18">
-        <v>1.006908327274993</v>
+        <v>1.009025124665005</v>
       </c>
       <c r="L18">
-        <v>0.9906947432198134</v>
+        <v>0.9929065375136211</v>
       </c>
       <c r="M18">
-        <v>0.9860269371570346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9880000045464987</v>
+      </c>
+      <c r="N18">
+        <v>0.9997172710464782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9682168998957371</v>
+        <v>0.9708564784096254</v>
       </c>
       <c r="D19">
-        <v>0.993596429865125</v>
+        <v>0.995749075298241</v>
       </c>
       <c r="E19">
-        <v>0.9771693260315388</v>
+        <v>0.9794200594350518</v>
       </c>
       <c r="F19">
-        <v>0.9725591361455544</v>
+        <v>0.9745663946281227</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031998959835888</v>
+        <v>1.033238490130858</v>
       </c>
       <c r="J19">
-        <v>0.9963948323125208</v>
+        <v>0.9989262072456137</v>
       </c>
       <c r="K19">
-        <v>1.007461477935077</v>
+        <v>1.009576651054802</v>
       </c>
       <c r="L19">
-        <v>0.9913274064569906</v>
+        <v>0.9935372346723851</v>
       </c>
       <c r="M19">
-        <v>0.986801773275671</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9887720880248567</v>
+      </c>
+      <c r="N19">
+        <v>1.00034479703834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9645956808763997</v>
+        <v>0.9672480964121157</v>
       </c>
       <c r="D20">
-        <v>0.9907615775316581</v>
+        <v>0.992923013322257</v>
       </c>
       <c r="E20">
-        <v>0.9739596531088711</v>
+        <v>0.9762209405137343</v>
       </c>
       <c r="F20">
-        <v>0.9686939462747751</v>
+        <v>0.9707153428585829</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030503105503577</v>
+        <v>1.031747331514851</v>
       </c>
       <c r="J20">
-        <v>0.9935630632339596</v>
+        <v>0.9961026621798834</v>
       </c>
       <c r="K20">
-        <v>1.004968842211133</v>
+        <v>1.007091455034053</v>
       </c>
       <c r="L20">
-        <v>0.988476384892552</v>
+        <v>0.990695212774654</v>
       </c>
       <c r="M20">
-        <v>0.9833105559828077</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9852934439143887</v>
+      </c>
+      <c r="N20">
+        <v>0.9975172422147512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9523208795960088</v>
+        <v>0.9550204368553263</v>
       </c>
       <c r="D21">
-        <v>0.9811644753425853</v>
+        <v>0.9833582903615578</v>
       </c>
       <c r="E21">
-        <v>0.9630852886656929</v>
+        <v>0.9653854008618103</v>
       </c>
       <c r="F21">
-        <v>0.9555966405907972</v>
+        <v>0.957669713557377</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025412126315334</v>
+        <v>1.026673787972365</v>
       </c>
       <c r="J21">
-        <v>0.9839567460873984</v>
+        <v>0.9865270085938984</v>
       </c>
       <c r="K21">
-        <v>0.996511700309849</v>
+        <v>0.9986619561595731</v>
       </c>
       <c r="L21">
-        <v>0.9788014765166332</v>
+        <v>0.9810536339385457</v>
       </c>
       <c r="M21">
-        <v>0.9714710781126278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9735000149374328</v>
+      </c>
+      <c r="N21">
+        <v>0.9879279901023312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9441720698285763</v>
+        <v>0.9469062490068356</v>
       </c>
       <c r="D22">
-        <v>0.9748045138997757</v>
+        <v>0.9770221854617569</v>
       </c>
       <c r="E22">
-        <v>0.9558714925019222</v>
+        <v>0.9582001691917562</v>
       </c>
       <c r="F22">
-        <v>0.9469045927537054</v>
+        <v>0.9490154266920374</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02201712315229</v>
+        <v>1.023291742968113</v>
       </c>
       <c r="J22">
-        <v>0.9775743875405242</v>
+        <v>0.9801675535591783</v>
       </c>
       <c r="K22">
-        <v>0.9908921853791813</v>
+        <v>0.9930630063640058</v>
       </c>
       <c r="L22">
-        <v>0.972370935558584</v>
+        <v>0.9746477980018268</v>
       </c>
       <c r="M22">
-        <v>0.9636067335362424</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9656693917158018</v>
+      </c>
+      <c r="N22">
+        <v>0.981559503912022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9485360875531977</v>
+        <v>0.9512513785622365</v>
       </c>
       <c r="D23">
-        <v>0.9782093629515168</v>
+        <v>0.9804140126479116</v>
       </c>
       <c r="E23">
-        <v>0.9597342007898854</v>
+        <v>0.962047289571567</v>
       </c>
       <c r="F23">
-        <v>0.951559325402857</v>
+        <v>0.9536495756978002</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02383666391542</v>
+        <v>1.025104200466602</v>
       </c>
       <c r="J23">
-        <v>0.9809928171027676</v>
+        <v>0.9835734523291204</v>
       </c>
       <c r="K23">
-        <v>0.9939020696398566</v>
+        <v>0.9960616469347401</v>
       </c>
       <c r="L23">
-        <v>0.9758154191509228</v>
+        <v>0.9780787828481248</v>
       </c>
       <c r="M23">
-        <v>0.9678188580431524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9698631281136041</v>
+      </c>
+      <c r="N23">
+        <v>0.9849702394488796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9647948415463973</v>
+        <v>0.9674465388457726</v>
       </c>
       <c r="D24">
-        <v>0.9909174487822352</v>
+        <v>0.9930783924044371</v>
       </c>
       <c r="E24">
-        <v>0.9741361620154837</v>
+        <v>0.9763968586814322</v>
       </c>
       <c r="F24">
-        <v>0.9689065070051671</v>
+        <v>0.9709271134050448</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030585451459137</v>
+        <v>1.031829414079124</v>
       </c>
       <c r="J24">
-        <v>0.9937188347652123</v>
+        <v>0.9962579720008263</v>
       </c>
       <c r="K24">
-        <v>1.005105963948974</v>
+        <v>1.007228159413748</v>
       </c>
       <c r="L24">
-        <v>0.9886332273461024</v>
+        <v>0.9908515507302375</v>
       </c>
       <c r="M24">
-        <v>0.9835025855502051</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9854847704377468</v>
+      </c>
+      <c r="N24">
+        <v>0.9976727725934539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9820681062983222</v>
+        <v>0.9846627279732466</v>
       </c>
       <c r="D25">
-        <v>1.004453253562191</v>
+        <v>1.006575237911187</v>
       </c>
       <c r="E25">
-        <v>0.9894517941311252</v>
+        <v>0.9916656532578269</v>
       </c>
       <c r="F25">
-        <v>0.9873510692275357</v>
+        <v>0.9893085134879603</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037690705333621</v>
+        <v>1.038914025886061</v>
       </c>
       <c r="J25">
-        <v>1.007214395892859</v>
+        <v>1.009717511216751</v>
       </c>
       <c r="K25">
-        <v>1.01698282962314</v>
+        <v>1.019072332138091</v>
       </c>
       <c r="L25">
-        <v>1.002216094591476</v>
+        <v>1.004394741864891</v>
       </c>
       <c r="M25">
-        <v>1.000148969369783</v>
+        <v>1.00207509981391</v>
+      </c>
+      <c r="N25">
+        <v>1.011151425898896</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9973647436567717</v>
+        <v>1.004637523232179</v>
       </c>
       <c r="D2">
-        <v>1.016551561633606</v>
+        <v>1.028242857041237</v>
       </c>
       <c r="E2">
-        <v>1.002937236214491</v>
+        <v>1.009827598289697</v>
       </c>
       <c r="F2">
-        <v>1.002884944235887</v>
+        <v>1.034667670062056</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044086439933624</v>
+        <v>1.052218786200822</v>
       </c>
       <c r="J2">
-        <v>1.019624561499106</v>
+        <v>1.026680406037196</v>
       </c>
       <c r="K2">
-        <v>1.027785024040794</v>
+        <v>1.039322261530617</v>
       </c>
       <c r="L2">
-        <v>1.014355801784791</v>
+        <v>1.021151696108199</v>
       </c>
       <c r="M2">
-        <v>1.014304232993481</v>
+        <v>1.045664266784783</v>
       </c>
       <c r="N2">
-        <v>1.021072545329006</v>
+        <v>1.028138409975657</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006084596707822</v>
+        <v>1.011789187117703</v>
       </c>
       <c r="D3">
-        <v>1.023407424922796</v>
+        <v>1.033899996834728</v>
       </c>
       <c r="E3">
-        <v>1.010676727426643</v>
+        <v>1.015788717346116</v>
       </c>
       <c r="F3">
-        <v>1.012214724793736</v>
+        <v>1.040873236741428</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047604447643245</v>
+        <v>1.054749682697243</v>
       </c>
       <c r="J3">
-        <v>1.026410752711285</v>
+        <v>1.031963546144148</v>
       </c>
       <c r="K3">
-        <v>1.033749313584039</v>
+        <v>1.044116743988385</v>
       </c>
       <c r="L3">
-        <v>1.0211747961457</v>
+        <v>1.026223486999003</v>
       </c>
       <c r="M3">
-        <v>1.022693665559331</v>
+        <v>1.0510085414371</v>
       </c>
       <c r="N3">
-        <v>1.027868373711094</v>
+        <v>1.033429052747546</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011519838976217</v>
+        <v>1.016283666933521</v>
       </c>
       <c r="D4">
-        <v>1.02768316601622</v>
+        <v>1.037457287017894</v>
       </c>
       <c r="E4">
-        <v>1.01550108263099</v>
+        <v>1.01954062342608</v>
       </c>
       <c r="F4">
-        <v>1.018034909894714</v>
+        <v>1.044778526324934</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049781718370958</v>
+        <v>1.05632577364815</v>
       </c>
       <c r="J4">
-        <v>1.0306333870145</v>
+        <v>1.035279811723495</v>
       </c>
       <c r="K4">
-        <v>1.037458577105544</v>
+        <v>1.047123714836217</v>
       </c>
       <c r="L4">
-        <v>1.025415954925882</v>
+        <v>1.029408794788506</v>
       </c>
       <c r="M4">
-        <v>1.027920435214793</v>
+        <v>1.054364959861582</v>
       </c>
       <c r="N4">
-        <v>1.032097004639362</v>
+        <v>1.036750027804396</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013758593170059</v>
+        <v>1.018142984241374</v>
       </c>
       <c r="D5">
-        <v>1.029444763639983</v>
+        <v>1.038929283230841</v>
       </c>
       <c r="E5">
-        <v>1.017488186635483</v>
+        <v>1.021094008852082</v>
       </c>
       <c r="F5">
-        <v>1.020433403892375</v>
+        <v>1.046395280806772</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050674734347423</v>
+        <v>1.056974246805194</v>
       </c>
       <c r="J5">
-        <v>1.032370858476619</v>
+        <v>1.03665070472354</v>
       </c>
       <c r="K5">
-        <v>1.03898431722684</v>
+        <v>1.048366109748964</v>
       </c>
       <c r="L5">
-        <v>1.027160602602273</v>
+        <v>1.03072595336356</v>
       </c>
       <c r="M5">
-        <v>1.030072736635244</v>
+        <v>1.05575284500888</v>
       </c>
       <c r="N5">
-        <v>1.033836943510248</v>
+        <v>1.038122867629746</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014131870350048</v>
+        <v>1.018453450233193</v>
       </c>
       <c r="D6">
-        <v>1.029738504630095</v>
+        <v>1.039175094525109</v>
       </c>
       <c r="E6">
-        <v>1.017819501404725</v>
+        <v>1.021353462639181</v>
       </c>
       <c r="F6">
-        <v>1.020833385900052</v>
+        <v>1.046665310182442</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050823405981484</v>
+        <v>1.057082317800851</v>
       </c>
       <c r="J6">
-        <v>1.032660446265883</v>
+        <v>1.036879553136757</v>
       </c>
       <c r="K6">
-        <v>1.039238585319656</v>
+        <v>1.048573469081166</v>
       </c>
       <c r="L6">
-        <v>1.027451360414143</v>
+        <v>1.030945855075133</v>
       </c>
       <c r="M6">
-        <v>1.030431565351676</v>
+        <v>1.05598455221406</v>
       </c>
       <c r="N6">
-        <v>1.034126942547389</v>
+        <v>1.038352041033958</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011549930768457</v>
+        <v>1.016308627580153</v>
       </c>
       <c r="D7">
-        <v>1.02770684262728</v>
+        <v>1.037477046639201</v>
       </c>
       <c r="E7">
-        <v>1.015527792119555</v>
+        <v>1.01956147216427</v>
       </c>
       <c r="F7">
-        <v>1.018067144058346</v>
+        <v>1.044800226135505</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049793736785793</v>
+        <v>1.056334493252825</v>
       </c>
       <c r="J7">
-        <v>1.030656748174761</v>
+        <v>1.035298219534799</v>
       </c>
       <c r="K7">
-        <v>1.037479093439232</v>
+        <v>1.047140399794493</v>
       </c>
       <c r="L7">
-        <v>1.025439414333696</v>
+        <v>1.029426479496024</v>
       </c>
       <c r="M7">
-        <v>1.027949367257996</v>
+        <v>1.054383594320878</v>
       </c>
       <c r="N7">
-        <v>1.032120398975151</v>
+        <v>1.036768461756905</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000356675285786</v>
+        <v>1.007083099020911</v>
       </c>
       <c r="D8">
-        <v>1.018903343141875</v>
+        <v>1.030176866764975</v>
       </c>
       <c r="E8">
-        <v>1.005592700326835</v>
+        <v>1.011864813932833</v>
       </c>
       <c r="F8">
-        <v>1.006085168509228</v>
+        <v>1.036788510661842</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045296794017984</v>
+        <v>1.053087254414601</v>
       </c>
       <c r="J8">
-        <v>1.021954536208526</v>
+        <v>1.028487811952264</v>
       </c>
       <c r="K8">
-        <v>1.029833202788952</v>
+        <v>1.040963017827385</v>
       </c>
       <c r="L8">
-        <v>1.016697444134669</v>
+        <v>1.022886431881787</v>
       </c>
       <c r="M8">
-        <v>1.017183338435891</v>
+        <v>1.047492190836024</v>
       </c>
       <c r="N8">
-        <v>1.023405828869766</v>
+        <v>1.029948382614437</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9788737614166133</v>
+        <v>0.9897222330044713</v>
       </c>
       <c r="D9">
-        <v>1.002033400736356</v>
+        <v>1.016461288401439</v>
       </c>
       <c r="E9">
-        <v>0.986530157104465</v>
+        <v>0.9974311718906594</v>
       </c>
       <c r="F9">
-        <v>0.9831255568892954</v>
+        <v>1.021761387546487</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036540403262633</v>
+        <v>1.046862770706281</v>
       </c>
       <c r="J9">
-        <v>1.005195250844086</v>
+        <v>1.015643220059828</v>
       </c>
       <c r="K9">
-        <v>1.015093573355484</v>
+        <v>1.02929282128888</v>
       </c>
       <c r="L9">
-        <v>0.9998456201319124</v>
+        <v>1.010566064484887</v>
       </c>
       <c r="M9">
-        <v>0.9964984747212603</v>
+        <v>1.03451099909233</v>
       </c>
       <c r="N9">
-        <v>1.006622743397792</v>
+        <v>1.017085549928219</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9630840936369349</v>
+        <v>0.9772730140692585</v>
       </c>
       <c r="D10">
-        <v>0.9896637260081397</v>
+        <v>1.006649781562193</v>
       </c>
       <c r="E10">
-        <v>0.972530052762941</v>
+        <v>0.9871224041066154</v>
       </c>
       <c r="F10">
-        <v>0.9662721016387852</v>
+        <v>1.011028748772516</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030022988939214</v>
+        <v>1.042327004998504</v>
       </c>
       <c r="J10">
-        <v>0.992842991865974</v>
+        <v>1.006418283573633</v>
       </c>
       <c r="K10">
-        <v>1.004222147057847</v>
+        <v>1.02090000123398</v>
       </c>
       <c r="L10">
-        <v>0.9874136537219594</v>
+        <v>1.001728126380626</v>
       </c>
       <c r="M10">
-        <v>0.9812782491719785</v>
+        <v>1.025201690536173</v>
       </c>
       <c r="N10">
-        <v>0.9942529427951066</v>
+        <v>1.007847512974098</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9558189112317123</v>
+        <v>0.9716401088048511</v>
       </c>
       <c r="D11">
-        <v>0.9839822830458015</v>
+        <v>1.002218212958302</v>
       </c>
       <c r="E11">
-        <v>0.966092697469174</v>
+        <v>0.9824696739156377</v>
       </c>
       <c r="F11">
-        <v>0.9585214321698291</v>
+        <v>1.006185174572055</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027005981245569</v>
+        <v>1.040258844846733</v>
       </c>
       <c r="J11">
-        <v>0.9871526143870745</v>
+        <v>1.002242208701029</v>
       </c>
       <c r="K11">
-        <v>0.9992127266941341</v>
+        <v>1.017098417923394</v>
       </c>
       <c r="L11">
-        <v>0.98168369408002</v>
+        <v>0.9977299357817987</v>
       </c>
       <c r="M11">
-        <v>0.9742703875566433</v>
+        <v>1.020991382658115</v>
       </c>
       <c r="N11">
-        <v>0.9885544843274914</v>
+        <v>1.003665507596172</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9530475767057317</v>
+        <v>0.9695079884038709</v>
       </c>
       <c r="D12">
-        <v>0.9818169070095379</v>
+        <v>1.000542203815856</v>
       </c>
       <c r="E12">
-        <v>0.9636379972569671</v>
+        <v>0.9807104949472417</v>
       </c>
       <c r="F12">
-        <v>0.9555653802365769</v>
+        <v>1.004353952843557</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025852519032849</v>
+        <v>1.039473764000931</v>
       </c>
       <c r="J12">
-        <v>0.9849811099959663</v>
+        <v>1.000661333206695</v>
       </c>
       <c r="K12">
-        <v>0.9973009590340891</v>
+        <v>1.015659023423523</v>
       </c>
       <c r="L12">
-        <v>0.9794966437609016</v>
+        <v>0.9962168232043627</v>
       </c>
       <c r="M12">
-        <v>0.9715964364626147</v>
+        <v>1.01939821068643</v>
       </c>
       <c r="N12">
-        <v>0.9863798961510729</v>
+        <v>1.002082387077307</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9536454806686134</v>
+        <v>0.969967196343919</v>
       </c>
       <c r="D13">
-        <v>0.9822839897007938</v>
+        <v>1.000903109821855</v>
       </c>
       <c r="E13">
-        <v>0.9641675466202773</v>
+        <v>0.9810892898452246</v>
       </c>
       <c r="F13">
-        <v>0.956203117171599</v>
+        <v>1.004748254388856</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026101489304364</v>
+        <v>1.0396429514861</v>
       </c>
       <c r="J13">
-        <v>0.9854496405312763</v>
+        <v>1.001001822164633</v>
       </c>
       <c r="K13">
-        <v>0.9977134524531183</v>
+        <v>1.01596905227003</v>
       </c>
       <c r="L13">
-        <v>0.9799685485850329</v>
+        <v>0.9965426979195402</v>
       </c>
       <c r="M13">
-        <v>0.9721733664291996</v>
+        <v>1.019741316993471</v>
       </c>
       <c r="N13">
-        <v>0.9868490920534843</v>
+        <v>1.00242335956862</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9555913696717623</v>
+        <v>0.9714647003934432</v>
       </c>
       <c r="D14">
-        <v>0.9838044548864335</v>
+        <v>1.002080299066135</v>
       </c>
       <c r="E14">
-        <v>0.965891134754671</v>
+        <v>0.9823249068916601</v>
       </c>
       <c r="F14">
-        <v>0.9582787155480107</v>
+        <v>1.006034476377214</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026911327812605</v>
+        <v>1.040194301689643</v>
       </c>
       <c r="J14">
-        <v>0.9869743391599707</v>
+        <v>1.002112153831439</v>
       </c>
       <c r="K14">
-        <v>0.9990557773336896</v>
+        <v>1.01698000785249</v>
       </c>
       <c r="L14">
-        <v>0.9815041515501746</v>
+        <v>0.9976054468916544</v>
       </c>
       <c r="M14">
-        <v>0.9740508577721159</v>
+        <v>1.020860302336604</v>
       </c>
       <c r="N14">
-        <v>0.9883759559291169</v>
+        <v>1.00353526803375</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9567803812990739</v>
+        <v>0.9723819777996041</v>
       </c>
       <c r="D15">
-        <v>0.9847337669136152</v>
+        <v>1.002801561208001</v>
       </c>
       <c r="E15">
-        <v>0.9669444306164013</v>
+        <v>0.9830820285067423</v>
       </c>
       <c r="F15">
-        <v>0.9595470423829372</v>
+        <v>1.006822622548685</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027405831470188</v>
+        <v>1.040531731449988</v>
       </c>
       <c r="J15">
-        <v>0.9879058760378864</v>
+        <v>1.002792253669674</v>
       </c>
       <c r="K15">
-        <v>0.9998758761094186</v>
+        <v>1.017599201906896</v>
       </c>
       <c r="L15">
-        <v>0.982442292506772</v>
+        <v>0.9982564577332461</v>
       </c>
       <c r="M15">
-        <v>0.975197972366731</v>
+        <v>1.021545791948844</v>
       </c>
       <c r="N15">
-        <v>0.9893088156962483</v>
+        <v>1.004216333691764</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.963556557640879</v>
+        <v>0.9776414653778721</v>
       </c>
       <c r="D16">
-        <v>0.9900334305092651</v>
+        <v>1.006939832546502</v>
       </c>
       <c r="E16">
-        <v>0.9729487881429926</v>
+        <v>0.987426997985275</v>
       </c>
       <c r="F16">
-        <v>0.966776209543834</v>
+        <v>1.011345849649654</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030218824621334</v>
+        <v>1.042461966401712</v>
       </c>
       <c r="J16">
-        <v>0.993212915206115</v>
+        <v>1.006691410541632</v>
       </c>
       <c r="K16">
-        <v>1.004547782061362</v>
+        <v>1.02114859359944</v>
       </c>
       <c r="L16">
-        <v>0.9877860905389699</v>
+        <v>1.001989676506311</v>
       </c>
       <c r="M16">
-        <v>0.9817338775454479</v>
+        <v>1.025477143908083</v>
       </c>
       <c r="N16">
-        <v>0.9946233914688212</v>
+        <v>1.00812102781372</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.967686990554571</v>
+        <v>0.9808734579474816</v>
       </c>
       <c r="D17">
-        <v>0.9932666707431401</v>
+        <v>1.009485019657682</v>
       </c>
       <c r="E17">
-        <v>0.976610020545965</v>
+        <v>0.9901001818490797</v>
       </c>
       <c r="F17">
-        <v>0.9711837173553026</v>
+        <v>1.014128855090156</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031928861385218</v>
+        <v>1.043644049031071</v>
       </c>
       <c r="J17">
-        <v>0.996446155678647</v>
+        <v>1.009087015257057</v>
       </c>
       <c r="K17">
-        <v>1.007393798682129</v>
+        <v>1.023328761174956</v>
       </c>
       <c r="L17">
-        <v>0.9910409783391794</v>
+        <v>1.004284046230621</v>
       </c>
       <c r="M17">
-        <v>0.9857165968740103</v>
+        <v>1.027893607874409</v>
       </c>
       <c r="N17">
-        <v>0.997861223513682</v>
+        <v>1.01052003456262</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9700555340563718</v>
+        <v>0.9827354965186228</v>
       </c>
       <c r="D18">
-        <v>0.9951216498595828</v>
+        <v>1.010952093712848</v>
       </c>
       <c r="E18">
-        <v>0.9787099031534823</v>
+        <v>0.9916413609221947</v>
       </c>
       <c r="F18">
-        <v>0.9737115257417159</v>
+        <v>1.015733390518748</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032907758930022</v>
+        <v>1.044323579975336</v>
       </c>
       <c r="J18">
-        <v>0.9982995711488852</v>
+        <v>1.01046698536547</v>
       </c>
       <c r="K18">
-        <v>1.009025124665005</v>
+        <v>1.024584420211931</v>
       </c>
       <c r="L18">
-        <v>0.9929065375136211</v>
+        <v>1.00560595223331</v>
       </c>
       <c r="M18">
-        <v>0.9880000045464987</v>
+        <v>1.029285961235546</v>
       </c>
       <c r="N18">
-        <v>0.9997172710464782</v>
+        <v>1.011901964386872</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9708564784096254</v>
+        <v>0.9833665771266744</v>
       </c>
       <c r="D19">
-        <v>0.995749075298241</v>
+        <v>1.011449429958885</v>
       </c>
       <c r="E19">
-        <v>0.9794200594350518</v>
+        <v>0.9921638752374869</v>
       </c>
       <c r="F19">
-        <v>0.9745663946281227</v>
+        <v>1.016277390522258</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033238490130858</v>
+        <v>1.04455362831035</v>
       </c>
       <c r="J19">
-        <v>0.9989262072456137</v>
+        <v>1.010934645782573</v>
       </c>
       <c r="K19">
-        <v>1.009576651054802</v>
+        <v>1.02500991570353</v>
       </c>
       <c r="L19">
-        <v>0.9935372346723851</v>
+        <v>1.006053977342309</v>
       </c>
       <c r="M19">
-        <v>0.9887720880248567</v>
+        <v>1.029757878690131</v>
       </c>
       <c r="N19">
-        <v>1.00034479703834</v>
+        <v>1.012370288935408</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9672480964121157</v>
+        <v>0.9805291112012805</v>
       </c>
       <c r="D20">
-        <v>0.992923013322257</v>
+        <v>1.009213770806809</v>
       </c>
       <c r="E20">
-        <v>0.9762209405137343</v>
+        <v>0.9898152583604919</v>
       </c>
       <c r="F20">
-        <v>0.9707153428585829</v>
+        <v>1.013832221662284</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031747331514851</v>
+        <v>1.043518261132253</v>
       </c>
       <c r="J20">
-        <v>0.9961026621798834</v>
+        <v>1.008831800140058</v>
       </c>
       <c r="K20">
-        <v>1.007091455034053</v>
+        <v>1.02309651912391</v>
       </c>
       <c r="L20">
-        <v>0.990695212774654</v>
+        <v>1.004039589882873</v>
       </c>
       <c r="M20">
-        <v>0.9852934439143887</v>
+        <v>1.02763613188115</v>
       </c>
       <c r="N20">
-        <v>0.9975172422147512</v>
+        <v>1.010264457010881</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9550204368553263</v>
+        <v>0.971024851221758</v>
       </c>
       <c r="D21">
-        <v>0.9833582903615578</v>
+        <v>1.001734493222923</v>
       </c>
       <c r="E21">
-        <v>0.9653854008618103</v>
+        <v>0.9819619249307531</v>
       </c>
       <c r="F21">
-        <v>0.957669713557377</v>
+        <v>1.005656624884997</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026673787972365</v>
+        <v>1.040032419232256</v>
       </c>
       <c r="J21">
-        <v>0.9865270085938984</v>
+        <v>1.001786029443801</v>
       </c>
       <c r="K21">
-        <v>0.9986619561595731</v>
+        <v>1.016683079439959</v>
       </c>
       <c r="L21">
-        <v>0.9810536339385457</v>
+        <v>0.9972932865881596</v>
       </c>
       <c r="M21">
-        <v>0.9735000149374328</v>
+        <v>1.020531617431934</v>
       </c>
       <c r="N21">
-        <v>0.9879279901023312</v>
+        <v>1.003208680512075</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9469062490068356</v>
+        <v>0.9648168043343827</v>
       </c>
       <c r="D22">
-        <v>0.9770221854617569</v>
+        <v>0.996857397953719</v>
       </c>
       <c r="E22">
-        <v>0.9582001691917562</v>
+        <v>0.9768436558558669</v>
       </c>
       <c r="F22">
-        <v>0.9490154266920374</v>
+        <v>1.000329022716311</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023291742968113</v>
+        <v>1.037742378669384</v>
       </c>
       <c r="J22">
-        <v>0.9801675535591783</v>
+        <v>0.9971828395555021</v>
       </c>
       <c r="K22">
-        <v>0.9930630063640058</v>
+        <v>1.012491368531611</v>
       </c>
       <c r="L22">
-        <v>0.9746477980018268</v>
+        <v>0.9928882379606956</v>
       </c>
       <c r="M22">
-        <v>0.9656693917158018</v>
+        <v>1.015893964419116</v>
       </c>
       <c r="N22">
-        <v>0.981559503912022</v>
+        <v>0.9985989535661415</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9512513785622365</v>
+        <v>0.9681310862384817</v>
       </c>
       <c r="D23">
-        <v>0.9804140126479116</v>
+        <v>0.9994602745314866</v>
       </c>
       <c r="E23">
-        <v>0.962047289571567</v>
+        <v>0.9795750038446764</v>
       </c>
       <c r="F23">
-        <v>0.9536495756978002</v>
+        <v>1.003171998923058</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025104200466602</v>
+        <v>1.038966146746558</v>
       </c>
       <c r="J23">
-        <v>0.9835734523291204</v>
+        <v>0.9996403852898368</v>
       </c>
       <c r="K23">
-        <v>0.9960616469347401</v>
+        <v>1.014729371476616</v>
       </c>
       <c r="L23">
-        <v>0.9780787828481248</v>
+        <v>0.9952397595033794</v>
       </c>
       <c r="M23">
-        <v>0.9698631281136041</v>
+        <v>1.01836951746214</v>
       </c>
       <c r="N23">
-        <v>0.9849702394488796</v>
+        <v>1.001059989297303</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9674465388457726</v>
+        <v>0.980684777893933</v>
       </c>
       <c r="D24">
-        <v>0.9930783924044371</v>
+        <v>1.009336390358912</v>
       </c>
       <c r="E24">
-        <v>0.9763968586814322</v>
+        <v>0.9899440585921486</v>
       </c>
       <c r="F24">
-        <v>0.9709271134050448</v>
+        <v>1.013966315272645</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031829414079124</v>
+        <v>1.043575129950935</v>
       </c>
       <c r="J24">
-        <v>0.9962579720008263</v>
+        <v>1.008947174290392</v>
       </c>
       <c r="K24">
-        <v>1.007228159413748</v>
+        <v>1.023201508581776</v>
       </c>
       <c r="L24">
-        <v>0.9908515507302375</v>
+        <v>1.004150099576302</v>
       </c>
       <c r="M24">
-        <v>0.9854847704377468</v>
+        <v>1.027752526960903</v>
       </c>
       <c r="N24">
-        <v>0.9976727725934539</v>
+        <v>1.010379995005742</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9846627279732466</v>
+        <v>0.9943540791966797</v>
       </c>
       <c r="D25">
-        <v>1.006575237911187</v>
+        <v>1.020117199489999</v>
       </c>
       <c r="E25">
-        <v>0.9916656532578269</v>
+        <v>1.001275548504391</v>
       </c>
       <c r="F25">
-        <v>0.9893085134879603</v>
+        <v>1.02576397421552</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038914025886061</v>
+        <v>1.048536144763616</v>
       </c>
       <c r="J25">
-        <v>1.009717511216751</v>
+        <v>1.019072956563882</v>
       </c>
       <c r="K25">
-        <v>1.019072332138091</v>
+        <v>1.032411046988159</v>
       </c>
       <c r="L25">
-        <v>1.004394741864891</v>
+        <v>1.013854095444159</v>
       </c>
       <c r="M25">
-        <v>1.00207509981391</v>
+        <v>1.037975082213521</v>
       </c>
       <c r="N25">
-        <v>1.011151425898896</v>
+        <v>1.020520157051505</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004637523232179</v>
+        <v>1.01702549376435</v>
       </c>
       <c r="D2">
-        <v>1.028242857041237</v>
+        <v>1.03153964630821</v>
       </c>
       <c r="E2">
-        <v>1.009827598289697</v>
+        <v>1.029277262091634</v>
       </c>
       <c r="F2">
-        <v>1.034667670062056</v>
+        <v>1.036230814016567</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052218786200822</v>
+        <v>1.049588394339508</v>
       </c>
       <c r="J2">
-        <v>1.026680406037196</v>
+        <v>1.038708632285768</v>
       </c>
       <c r="K2">
-        <v>1.039322261530617</v>
+        <v>1.042576398165416</v>
       </c>
       <c r="L2">
-        <v>1.021151696108199</v>
+        <v>1.040343247019054</v>
       </c>
       <c r="M2">
-        <v>1.045664266784783</v>
+        <v>1.04720745779853</v>
       </c>
       <c r="N2">
-        <v>1.028138409975657</v>
+        <v>1.016388180874863</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011789187117703</v>
+        <v>1.021790350027737</v>
       </c>
       <c r="D3">
-        <v>1.033899996834728</v>
+        <v>1.035115434733422</v>
       </c>
       <c r="E3">
-        <v>1.015788717346116</v>
+        <v>1.033405487600209</v>
       </c>
       <c r="F3">
-        <v>1.040873236741428</v>
+        <v>1.040975034321345</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054749682697243</v>
+        <v>1.051146300048503</v>
       </c>
       <c r="J3">
-        <v>1.031963546144148</v>
+        <v>1.041704113928914</v>
       </c>
       <c r="K3">
-        <v>1.044116743988385</v>
+        <v>1.045317888718879</v>
       </c>
       <c r="L3">
-        <v>1.026223486999003</v>
+        <v>1.043628061941664</v>
       </c>
       <c r="M3">
-        <v>1.0510085414371</v>
+        <v>1.051109160080337</v>
       </c>
       <c r="N3">
-        <v>1.033429052747546</v>
+        <v>1.017417041683307</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016283666933521</v>
+        <v>1.024808816603145</v>
       </c>
       <c r="D4">
-        <v>1.037457287017894</v>
+        <v>1.037383286779757</v>
       </c>
       <c r="E4">
-        <v>1.01954062342608</v>
+        <v>1.036026403945368</v>
       </c>
       <c r="F4">
-        <v>1.044778526324934</v>
+        <v>1.04398772734284</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05632577364815</v>
+        <v>1.052124644723546</v>
       </c>
       <c r="J4">
-        <v>1.035279811723495</v>
+        <v>1.043598517447749</v>
       </c>
       <c r="K4">
-        <v>1.047123714836217</v>
+        <v>1.047050530231763</v>
       </c>
       <c r="L4">
-        <v>1.029408794788506</v>
+        <v>1.04570862840804</v>
       </c>
       <c r="M4">
-        <v>1.054364959861582</v>
+        <v>1.053582735099002</v>
       </c>
       <c r="N4">
-        <v>1.036750027804396</v>
+        <v>1.018067312673359</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018142984241374</v>
+        <v>1.026062859179733</v>
       </c>
       <c r="D5">
-        <v>1.038929283230841</v>
+        <v>1.038326063756101</v>
       </c>
       <c r="E5">
-        <v>1.021094008852082</v>
+        <v>1.037116621633976</v>
       </c>
       <c r="F5">
-        <v>1.046395280806772</v>
+        <v>1.045241094559871</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056974246805194</v>
+        <v>1.052529014178416</v>
       </c>
       <c r="J5">
-        <v>1.03665070472354</v>
+        <v>1.04438476075654</v>
       </c>
       <c r="K5">
-        <v>1.048366109748964</v>
+        <v>1.047769355283735</v>
       </c>
       <c r="L5">
-        <v>1.03072595336356</v>
+        <v>1.046572903131037</v>
       </c>
       <c r="M5">
-        <v>1.05575284500888</v>
+        <v>1.054610821613591</v>
       </c>
       <c r="N5">
-        <v>1.038122867629746</v>
+        <v>1.018337095290826</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018453450233193</v>
+        <v>1.026272559561333</v>
       </c>
       <c r="D6">
-        <v>1.039175094525109</v>
+        <v>1.038483747223247</v>
       </c>
       <c r="E6">
-        <v>1.021353462639181</v>
+        <v>1.037299004986685</v>
       </c>
       <c r="F6">
-        <v>1.046665310182442</v>
+        <v>1.045450782530282</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057082317800851</v>
+        <v>1.052596508732965</v>
       </c>
       <c r="J6">
-        <v>1.036879553136757</v>
+        <v>1.044516187996214</v>
       </c>
       <c r="K6">
-        <v>1.048573469081166</v>
+        <v>1.047889496169194</v>
       </c>
       <c r="L6">
-        <v>1.030945855075133</v>
+        <v>1.046717419210584</v>
       </c>
       <c r="M6">
-        <v>1.05598455221406</v>
+        <v>1.054782761632094</v>
       </c>
       <c r="N6">
-        <v>1.038352041033958</v>
+        <v>1.018382185544144</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016308627580153</v>
+        <v>1.024825631074119</v>
       </c>
       <c r="D7">
-        <v>1.037477046639201</v>
+        <v>1.037395925501144</v>
       </c>
       <c r="E7">
-        <v>1.01956147216427</v>
+        <v>1.036041016572546</v>
       </c>
       <c r="F7">
-        <v>1.044800226135505</v>
+        <v>1.044004525985854</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056334493252825</v>
+        <v>1.052130074900857</v>
       </c>
       <c r="J7">
-        <v>1.035298219534799</v>
+        <v>1.043609062769427</v>
       </c>
       <c r="K7">
-        <v>1.047140399794493</v>
+        <v>1.047060172445129</v>
       </c>
       <c r="L7">
-        <v>1.029426479496024</v>
+        <v>1.045720217271624</v>
       </c>
       <c r="M7">
-        <v>1.054383594320878</v>
+        <v>1.053596518275896</v>
       </c>
       <c r="N7">
-        <v>1.036768461756905</v>
+        <v>1.01807093148846</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007083099020911</v>
+        <v>1.018649552691525</v>
       </c>
       <c r="D8">
-        <v>1.030176866764975</v>
+        <v>1.032757835440226</v>
       </c>
       <c r="E8">
-        <v>1.011864813932833</v>
+        <v>1.030683101484614</v>
       </c>
       <c r="F8">
-        <v>1.036788510661842</v>
+        <v>1.037846290508945</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053087254414601</v>
+        <v>1.050121167781295</v>
       </c>
       <c r="J8">
-        <v>1.028487811952264</v>
+        <v>1.039730263635543</v>
       </c>
       <c r="K8">
-        <v>1.040963017827385</v>
+        <v>1.043511635972965</v>
       </c>
       <c r="L8">
-        <v>1.022886431881787</v>
+        <v>1.04146289134124</v>
       </c>
       <c r="M8">
-        <v>1.047492190836024</v>
+        <v>1.048536897748862</v>
       </c>
       <c r="N8">
-        <v>1.029948382614437</v>
+        <v>1.016739162096764</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9897222330044713</v>
+        <v>1.007243581816657</v>
       </c>
       <c r="D9">
-        <v>1.016461288401439</v>
+        <v>1.024215800868163</v>
       </c>
       <c r="E9">
-        <v>0.9974311718906594</v>
+        <v>1.020835819705836</v>
       </c>
       <c r="F9">
-        <v>1.021761387546487</v>
+        <v>1.026532856335788</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046862770706281</v>
+        <v>1.04634452084061</v>
       </c>
       <c r="J9">
-        <v>1.015643220059828</v>
+        <v>1.032543118224583</v>
       </c>
       <c r="K9">
-        <v>1.02929282128888</v>
+        <v>1.036927841900579</v>
       </c>
       <c r="L9">
-        <v>1.010566064484887</v>
+        <v>1.033599659100278</v>
       </c>
       <c r="M9">
-        <v>1.03451099909233</v>
+        <v>1.03920963953579</v>
       </c>
       <c r="N9">
-        <v>1.017085549928219</v>
+        <v>1.014268562778575</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9772730140692585</v>
+        <v>0.9992471942639317</v>
       </c>
       <c r="D10">
-        <v>1.006649781562193</v>
+        <v>1.0182469668079</v>
       </c>
       <c r="E10">
-        <v>0.9871224041066154</v>
+        <v>1.013967395219605</v>
       </c>
       <c r="F10">
-        <v>1.011028748772516</v>
+        <v>1.018643887498798</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042327004998504</v>
+        <v>1.043654104636957</v>
       </c>
       <c r="J10">
-        <v>1.006418283573633</v>
+        <v>1.027490712023869</v>
       </c>
       <c r="K10">
-        <v>1.02090000123398</v>
+        <v>1.032294401012327</v>
       </c>
       <c r="L10">
-        <v>1.001728126380626</v>
+        <v>1.02808896173094</v>
       </c>
       <c r="M10">
-        <v>1.025201690536173</v>
+        <v>1.032684486910029</v>
       </c>
       <c r="N10">
-        <v>1.007847512974098</v>
+        <v>1.012530211917248</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9716401088048511</v>
+        <v>0.995681644705558</v>
       </c>
       <c r="D11">
-        <v>1.002218212958302</v>
+        <v>1.015591069173904</v>
       </c>
       <c r="E11">
-        <v>0.9824696739156377</v>
+        <v>1.010913850455156</v>
       </c>
       <c r="F11">
-        <v>1.006185174572055</v>
+        <v>1.015136862167941</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040258844846733</v>
+        <v>1.04244488469972</v>
       </c>
       <c r="J11">
-        <v>1.002242208701029</v>
+        <v>1.025235182360662</v>
       </c>
       <c r="K11">
-        <v>1.017098417923394</v>
+        <v>1.030224830922376</v>
       </c>
       <c r="L11">
-        <v>0.9977299357817987</v>
+        <v>1.025632841281374</v>
       </c>
       <c r="M11">
-        <v>1.020991382658115</v>
+        <v>1.02977885576869</v>
       </c>
       <c r="N11">
-        <v>1.003665507596172</v>
+        <v>1.011753884241163</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9695079884038709</v>
+        <v>0.9943408355541378</v>
       </c>
       <c r="D12">
-        <v>1.000542203815856</v>
+        <v>1.014593248923942</v>
       </c>
       <c r="E12">
-        <v>0.9807104949472417</v>
+        <v>1.009767001721833</v>
       </c>
       <c r="F12">
-        <v>1.004353952843557</v>
+        <v>1.013819706252559</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039473764000931</v>
+        <v>1.041988773998495</v>
       </c>
       <c r="J12">
-        <v>1.000661333206695</v>
+        <v>1.024386647596824</v>
       </c>
       <c r="K12">
-        <v>1.015659023423523</v>
+        <v>1.029446105921982</v>
       </c>
       <c r="L12">
-        <v>0.9962168232043627</v>
+        <v>1.024709443479187</v>
       </c>
       <c r="M12">
-        <v>1.01939821068643</v>
+        <v>1.028686846921595</v>
       </c>
       <c r="N12">
-        <v>1.002082387077307</v>
+        <v>1.011461793959729</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.969967196343919</v>
+        <v>0.9946292016073971</v>
       </c>
       <c r="D13">
-        <v>1.000903109821855</v>
+        <v>1.014807805979703</v>
       </c>
       <c r="E13">
-        <v>0.9810892898452246</v>
+        <v>1.010013587606923</v>
       </c>
       <c r="F13">
-        <v>1.004748254388856</v>
+        <v>1.014102910078768</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0396429514861</v>
+        <v>1.042086931042894</v>
       </c>
       <c r="J13">
-        <v>1.001001822164633</v>
+        <v>1.024569155941256</v>
       </c>
       <c r="K13">
-        <v>1.01596905227003</v>
+        <v>1.029613605624001</v>
       </c>
       <c r="L13">
-        <v>0.9965426979195402</v>
+        <v>1.024908026786927</v>
       </c>
       <c r="M13">
-        <v>1.019741316993471</v>
+        <v>1.02892167395514</v>
       </c>
       <c r="N13">
-        <v>1.00242335956862</v>
+        <v>1.011524620043549</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9714647003934432</v>
+        <v>0.9955711532414164</v>
       </c>
       <c r="D14">
-        <v>1.002080299066135</v>
+        <v>1.015508823102434</v>
       </c>
       <c r="E14">
-        <v>0.9823249068916601</v>
+        <v>1.010819313299438</v>
       </c>
       <c r="F14">
-        <v>1.006034476377214</v>
+        <v>1.015028286154088</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040194301689643</v>
+        <v>1.04240732611581</v>
       </c>
       <c r="J14">
-        <v>1.002112153831439</v>
+        <v>1.025165264400319</v>
       </c>
       <c r="K14">
-        <v>1.01698000785249</v>
+        <v>1.030160668119876</v>
       </c>
       <c r="L14">
-        <v>0.9976054468916544</v>
+        <v>1.025556742546953</v>
       </c>
       <c r="M14">
-        <v>1.020860302336604</v>
+        <v>1.029688853730037</v>
       </c>
       <c r="N14">
-        <v>1.00353526803375</v>
+        <v>1.011729817100268</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9723819777996041</v>
+        <v>0.9961493181288669</v>
       </c>
       <c r="D15">
-        <v>1.002801561208001</v>
+        <v>1.015939227206519</v>
       </c>
       <c r="E15">
-        <v>0.9830820285067423</v>
+        <v>1.011314053011189</v>
       </c>
       <c r="F15">
-        <v>1.006822622548685</v>
+        <v>1.015596495483</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040531731449988</v>
+        <v>1.042603801332386</v>
       </c>
       <c r="J15">
-        <v>1.002792253669674</v>
+        <v>1.02553110764109</v>
       </c>
       <c r="K15">
-        <v>1.017599201906896</v>
+        <v>1.030496391728021</v>
       </c>
       <c r="L15">
-        <v>0.9982564577332461</v>
+        <v>1.02595495088963</v>
       </c>
       <c r="M15">
-        <v>1.021545791948844</v>
+        <v>1.030159830755359</v>
       </c>
       <c r="N15">
-        <v>1.004216333691764</v>
+        <v>1.011855746211164</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9776414653778721</v>
+        <v>0.9994815795757629</v>
       </c>
       <c r="D16">
-        <v>1.006939832546502</v>
+        <v>1.01842167796082</v>
       </c>
       <c r="E16">
-        <v>0.987426997985275</v>
+        <v>1.014168317076267</v>
       </c>
       <c r="F16">
-        <v>1.011345849649654</v>
+        <v>1.018874650987292</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042461966401712</v>
+        <v>1.043733398780987</v>
       </c>
       <c r="J16">
-        <v>1.006691410541632</v>
+        <v>1.02763893002678</v>
       </c>
       <c r="K16">
-        <v>1.02114859359944</v>
+        <v>1.032430377700763</v>
       </c>
       <c r="L16">
-        <v>1.001989676506311</v>
+        <v>1.028250444347522</v>
       </c>
       <c r="M16">
-        <v>1.025477143908083</v>
+        <v>1.032875577550371</v>
       </c>
       <c r="N16">
-        <v>1.00812102781372</v>
+        <v>1.012581221685454</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9808734579474816</v>
+        <v>1.001543597623338</v>
       </c>
       <c r="D17">
-        <v>1.009485019657682</v>
+        <v>1.0199593528216</v>
       </c>
       <c r="E17">
-        <v>0.9901001818490797</v>
+        <v>1.015936975389267</v>
       </c>
       <c r="F17">
-        <v>1.014128855090156</v>
+        <v>1.020906020190603</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043644049031071</v>
+        <v>1.044429910036492</v>
       </c>
       <c r="J17">
-        <v>1.009087015257057</v>
+        <v>1.028942586614334</v>
       </c>
       <c r="K17">
-        <v>1.023328761174956</v>
+        <v>1.033626244429673</v>
       </c>
       <c r="L17">
-        <v>1.004284046230621</v>
+        <v>1.029671225072338</v>
       </c>
       <c r="M17">
-        <v>1.027893607874409</v>
+        <v>1.034557158427891</v>
       </c>
       <c r="N17">
-        <v>1.01052003456262</v>
+        <v>1.013029848861469</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9827354965186228</v>
+        <v>1.00273645977421</v>
       </c>
       <c r="D18">
-        <v>1.010952093712848</v>
+        <v>1.020849409447403</v>
       </c>
       <c r="E18">
-        <v>0.9916413609221947</v>
+        <v>1.016960984919839</v>
       </c>
       <c r="F18">
-        <v>1.015733390518748</v>
+        <v>1.022082156330385</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044323579975336</v>
+        <v>1.044831925290437</v>
       </c>
       <c r="J18">
-        <v>1.01046698536547</v>
+        <v>1.029696484081386</v>
       </c>
       <c r="K18">
-        <v>1.024584420211931</v>
+        <v>1.034317704595933</v>
       </c>
       <c r="L18">
-        <v>1.00560595223331</v>
+        <v>1.03049323411422</v>
       </c>
       <c r="M18">
-        <v>1.029285961235546</v>
+        <v>1.035530306683579</v>
       </c>
       <c r="N18">
-        <v>1.011901964386872</v>
+        <v>1.013289260323423</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9833665771266744</v>
+        <v>1.003141546309774</v>
       </c>
       <c r="D19">
-        <v>1.011449429958885</v>
+        <v>1.021151752030305</v>
       </c>
       <c r="E19">
-        <v>0.9921638752374869</v>
+        <v>1.017308873446154</v>
       </c>
       <c r="F19">
-        <v>1.016277390522258</v>
+        <v>1.022481731766324</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04455362831035</v>
+        <v>1.044968290449231</v>
       </c>
       <c r="J19">
-        <v>1.010934645782573</v>
+        <v>1.029952456417608</v>
       </c>
       <c r="K19">
-        <v>1.02500991570353</v>
+        <v>1.034552459606939</v>
       </c>
       <c r="L19">
-        <v>1.006053977342309</v>
+        <v>1.030772396912874</v>
       </c>
       <c r="M19">
-        <v>1.029757878690131</v>
+        <v>1.035860840661043</v>
       </c>
       <c r="N19">
-        <v>1.012370288935408</v>
+        <v>1.013377333978749</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9805291112012805</v>
+        <v>1.001323390778356</v>
       </c>
       <c r="D20">
-        <v>1.009213770806809</v>
+        <v>1.019795086746352</v>
       </c>
       <c r="E20">
-        <v>0.9898152583604919</v>
+        <v>1.015748007957133</v>
       </c>
       <c r="F20">
-        <v>1.013832221662284</v>
+        <v>1.020688981865545</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043518261132253</v>
+        <v>1.044355622486552</v>
       </c>
       <c r="J20">
-        <v>1.008831800140058</v>
+        <v>1.028803393076573</v>
       </c>
       <c r="K20">
-        <v>1.02309651912391</v>
+        <v>1.033498570388544</v>
       </c>
       <c r="L20">
-        <v>1.004039589882873</v>
+        <v>1.029519486647226</v>
       </c>
       <c r="M20">
-        <v>1.02763613188115</v>
+        <v>1.034377540819502</v>
       </c>
       <c r="N20">
-        <v>1.010264457010881</v>
+        <v>1.012981950971292</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.971024851221758</v>
+        <v>0.9952942325809285</v>
       </c>
       <c r="D21">
-        <v>1.001734493222923</v>
+        <v>1.015302707895113</v>
       </c>
       <c r="E21">
-        <v>0.9819619249307531</v>
+        <v>1.010582401476687</v>
       </c>
       <c r="F21">
-        <v>1.005656624884997</v>
+        <v>1.014756192789987</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040032419232256</v>
+        <v>1.04231317223374</v>
       </c>
       <c r="J21">
-        <v>1.001786029443801</v>
+        <v>1.024990026103745</v>
       </c>
       <c r="K21">
-        <v>1.016683079439959</v>
+        <v>1.029999851868324</v>
       </c>
       <c r="L21">
-        <v>0.9972932865881596</v>
+        <v>1.025366022770202</v>
       </c>
       <c r="M21">
-        <v>1.020531617431934</v>
+        <v>1.029463295471441</v>
       </c>
       <c r="N21">
-        <v>1.003208680512075</v>
+        <v>1.011669496098283</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9648168043343827</v>
+        <v>0.9914080370359432</v>
       </c>
       <c r="D22">
-        <v>0.996857397953719</v>
+        <v>1.01241246385589</v>
       </c>
       <c r="E22">
-        <v>0.9768436558558669</v>
+        <v>1.00726115073256</v>
       </c>
       <c r="F22">
-        <v>1.000329022716311</v>
+        <v>1.010941728678716</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037742378669384</v>
+        <v>1.040988609818877</v>
       </c>
       <c r="J22">
-        <v>0.9971828395555021</v>
+        <v>1.022530027548385</v>
       </c>
       <c r="K22">
-        <v>1.012491368531611</v>
+        <v>1.02774197360998</v>
       </c>
       <c r="L22">
-        <v>0.9928882379606956</v>
+        <v>1.022690122270194</v>
       </c>
       <c r="M22">
-        <v>1.015893964419116</v>
+        <v>1.026299500052689</v>
       </c>
       <c r="N22">
-        <v>0.9985989535661415</v>
+        <v>1.01082263744925</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9681310862384817</v>
+        <v>0.99347755429898</v>
       </c>
       <c r="D23">
-        <v>0.9994602745314866</v>
+        <v>1.013951070628955</v>
       </c>
       <c r="E23">
-        <v>0.9795750038446764</v>
+        <v>1.009029011385741</v>
       </c>
       <c r="F23">
-        <v>1.003171998923058</v>
+        <v>1.012972124230037</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038966146746558</v>
+        <v>1.04169472176091</v>
       </c>
       <c r="J23">
-        <v>0.9996403852898368</v>
+        <v>1.023840224849206</v>
       </c>
       <c r="K23">
-        <v>1.014729371476616</v>
+        <v>1.028944597733343</v>
       </c>
       <c r="L23">
-        <v>0.9952397595033794</v>
+        <v>1.024114980687735</v>
       </c>
       <c r="M23">
-        <v>1.01836951746214</v>
+        <v>1.027983943701814</v>
       </c>
       <c r="N23">
-        <v>1.001059989297303</v>
+        <v>1.011273690760138</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.980684777893933</v>
+        <v>1.001422923231672</v>
       </c>
       <c r="D24">
-        <v>1.009336390358912</v>
+        <v>1.019869332619954</v>
       </c>
       <c r="E24">
-        <v>0.9899440585921486</v>
+        <v>1.015833417700535</v>
       </c>
       <c r="F24">
-        <v>1.013966315272645</v>
+        <v>1.020787079052696</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043575129950935</v>
+        <v>1.044389202937932</v>
       </c>
       <c r="J24">
-        <v>1.008947174290392</v>
+        <v>1.028866308702386</v>
       </c>
       <c r="K24">
-        <v>1.023201508581776</v>
+        <v>1.033556279510241</v>
       </c>
       <c r="L24">
-        <v>1.004150099576302</v>
+        <v>1.029588071398729</v>
       </c>
       <c r="M24">
-        <v>1.027752526960903</v>
+        <v>1.034458725998238</v>
       </c>
       <c r="N24">
-        <v>1.010379995005742</v>
+        <v>1.013003600953044</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9943540791966797</v>
+        <v>1.010258298601896</v>
       </c>
       <c r="D25">
-        <v>1.020117199489999</v>
+        <v>1.02647043278782</v>
       </c>
       <c r="E25">
-        <v>1.001275548504391</v>
+        <v>1.023432714356802</v>
       </c>
       <c r="F25">
-        <v>1.02576397421552</v>
+        <v>1.029515955870202</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048536144763616</v>
+        <v>1.047350258924302</v>
       </c>
       <c r="J25">
-        <v>1.019072956563882</v>
+        <v>1.034445294164398</v>
       </c>
       <c r="K25">
-        <v>1.032411046988159</v>
+        <v>1.038671270627916</v>
       </c>
       <c r="L25">
-        <v>1.013854095444159</v>
+        <v>1.035677840755828</v>
       </c>
       <c r="M25">
-        <v>1.037975082213521</v>
+        <v>1.041672723777367</v>
       </c>
       <c r="N25">
-        <v>1.020520157051505</v>
+        <v>1.014922740616319</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01702549376435</v>
+        <v>1.044777178068919</v>
       </c>
       <c r="D2">
-        <v>1.03153964630821</v>
+        <v>1.047077408933838</v>
       </c>
       <c r="E2">
-        <v>1.029277262091634</v>
+        <v>1.052788740798424</v>
       </c>
       <c r="F2">
-        <v>1.036230814016567</v>
+        <v>1.064106469166505</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049588394339508</v>
+        <v>1.043271090259124</v>
       </c>
       <c r="J2">
-        <v>1.038708632285768</v>
+        <v>1.049840447941362</v>
       </c>
       <c r="K2">
-        <v>1.042576398165416</v>
+        <v>1.049841055284195</v>
       </c>
       <c r="L2">
-        <v>1.040343247019054</v>
+        <v>1.055536503558201</v>
       </c>
       <c r="M2">
-        <v>1.04720745779853</v>
+        <v>1.06682330188084</v>
       </c>
       <c r="N2">
-        <v>1.016388180874863</v>
+        <v>1.020440124633794</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.021790350027737</v>
+        <v>1.045775770204787</v>
       </c>
       <c r="D3">
-        <v>1.035115434733422</v>
+        <v>1.047844407548638</v>
       </c>
       <c r="E3">
-        <v>1.033405487600209</v>
+        <v>1.053707367659263</v>
       </c>
       <c r="F3">
-        <v>1.040975034321345</v>
+        <v>1.065177441659183</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051146300048503</v>
+        <v>1.04354554601472</v>
       </c>
       <c r="J3">
-        <v>1.041704113928914</v>
+        <v>1.050486190474443</v>
       </c>
       <c r="K3">
-        <v>1.045317888718879</v>
+        <v>1.050419941599203</v>
       </c>
       <c r="L3">
-        <v>1.043628061941664</v>
+        <v>1.056267774767188</v>
       </c>
       <c r="M3">
-        <v>1.051109160080337</v>
+        <v>1.067708773877698</v>
       </c>
       <c r="N3">
-        <v>1.017417041683307</v>
+        <v>1.020659050960056</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.024808816603145</v>
+        <v>1.04642222776657</v>
       </c>
       <c r="D4">
-        <v>1.037383286779757</v>
+        <v>1.048340914236005</v>
       </c>
       <c r="E4">
-        <v>1.036026403945368</v>
+        <v>1.054302435142328</v>
       </c>
       <c r="F4">
-        <v>1.04398772734284</v>
+        <v>1.065871365662233</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052124644723546</v>
+        <v>1.043722126586213</v>
       </c>
       <c r="J4">
-        <v>1.043598517447749</v>
+        <v>1.050903720152407</v>
       </c>
       <c r="K4">
-        <v>1.047050530231763</v>
+        <v>1.050794065477264</v>
       </c>
       <c r="L4">
-        <v>1.04570862840804</v>
+        <v>1.056740979271857</v>
       </c>
       <c r="M4">
-        <v>1.053582735099002</v>
+        <v>1.068282064022743</v>
       </c>
       <c r="N4">
-        <v>1.018067312673359</v>
+        <v>1.020800502503457</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026062859179733</v>
+        <v>1.046694070278302</v>
       </c>
       <c r="D5">
-        <v>1.038326063756101</v>
+        <v>1.048549694304685</v>
       </c>
       <c r="E5">
-        <v>1.037116621633976</v>
+        <v>1.054552757332667</v>
       </c>
       <c r="F5">
-        <v>1.045241094559871</v>
+        <v>1.066163313963843</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052529014178416</v>
+        <v>1.043796118739348</v>
       </c>
       <c r="J5">
-        <v>1.04438476075654</v>
+        <v>1.051079175060967</v>
       </c>
       <c r="K5">
-        <v>1.047769355283735</v>
+        <v>1.050951237744064</v>
       </c>
       <c r="L5">
-        <v>1.046572903131037</v>
+        <v>1.056939919309736</v>
       </c>
       <c r="M5">
-        <v>1.054610821613591</v>
+        <v>1.068523153634891</v>
       </c>
       <c r="N5">
-        <v>1.018337095290826</v>
+        <v>1.020859918535394</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.026272559561333</v>
+        <v>1.046739718026292</v>
       </c>
       <c r="D6">
-        <v>1.038483747223247</v>
+        <v>1.048584752222013</v>
       </c>
       <c r="E6">
-        <v>1.037299004986685</v>
+        <v>1.054594796642263</v>
       </c>
       <c r="F6">
-        <v>1.045450782530282</v>
+        <v>1.066212346402792</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052596508732965</v>
+        <v>1.043808528127136</v>
       </c>
       <c r="J6">
-        <v>1.044516187996214</v>
+        <v>1.051108630321719</v>
       </c>
       <c r="K6">
-        <v>1.047889496169194</v>
+        <v>1.05097762122426</v>
       </c>
       <c r="L6">
-        <v>1.046717419210584</v>
+        <v>1.056973322483173</v>
       </c>
       <c r="M6">
-        <v>1.054782761632094</v>
+        <v>1.068563638220832</v>
       </c>
       <c r="N6">
-        <v>1.018382185544144</v>
+        <v>1.020869891796355</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.024825631074119</v>
+        <v>1.046425859858149</v>
       </c>
       <c r="D7">
-        <v>1.037395925501144</v>
+        <v>1.048343703775523</v>
       </c>
       <c r="E7">
-        <v>1.036041016572546</v>
+        <v>1.054305779348493</v>
       </c>
       <c r="F7">
-        <v>1.044004525985854</v>
+        <v>1.065875265815798</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052130074900857</v>
+        <v>1.043723116225585</v>
       </c>
       <c r="J7">
-        <v>1.043609062769427</v>
+        <v>1.050906064883243</v>
       </c>
       <c r="K7">
-        <v>1.047060172445129</v>
+        <v>1.050796166051515</v>
       </c>
       <c r="L7">
-        <v>1.045720217271624</v>
+        <v>1.056743637500105</v>
       </c>
       <c r="M7">
-        <v>1.053596518275896</v>
+        <v>1.068285285166611</v>
       </c>
       <c r="N7">
-        <v>1.01807093148846</v>
+        <v>1.020801296620995</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.018649552691525</v>
+        <v>1.04511459420929</v>
       </c>
       <c r="D8">
-        <v>1.032757835440226</v>
+        <v>1.047336576201693</v>
       </c>
       <c r="E8">
-        <v>1.030683101484614</v>
+        <v>1.053099059013926</v>
       </c>
       <c r="F8">
-        <v>1.037846290508945</v>
+        <v>1.064468215656618</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050121167781295</v>
+        <v>1.043364052908581</v>
       </c>
       <c r="J8">
-        <v>1.039730263635543</v>
+        <v>1.050058743249362</v>
       </c>
       <c r="K8">
-        <v>1.043511635972965</v>
+        <v>1.050036786290401</v>
       </c>
       <c r="L8">
-        <v>1.04146289134124</v>
+        <v>1.055783634891148</v>
       </c>
       <c r="M8">
-        <v>1.048536897748862</v>
+        <v>1.067122482422934</v>
       </c>
       <c r="N8">
-        <v>1.016739162096764</v>
+        <v>1.020514154787788</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.007243581816657</v>
+        <v>1.042806307643039</v>
       </c>
       <c r="D9">
-        <v>1.024215800868163</v>
+        <v>1.045563519076768</v>
       </c>
       <c r="E9">
-        <v>1.020835819705836</v>
+        <v>1.050977714106148</v>
       </c>
       <c r="F9">
-        <v>1.026532856335788</v>
+        <v>1.061995993879366</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04634452084061</v>
+        <v>1.042723613220694</v>
       </c>
       <c r="J9">
-        <v>1.032543118224583</v>
+        <v>1.048563315224039</v>
       </c>
       <c r="K9">
-        <v>1.036927841900579</v>
+        <v>1.048695211818713</v>
       </c>
       <c r="L9">
-        <v>1.033599659100278</v>
+        <v>1.054092194483914</v>
       </c>
       <c r="M9">
-        <v>1.03920963953579</v>
+        <v>1.065076037878929</v>
       </c>
       <c r="N9">
-        <v>1.014268562778575</v>
+        <v>1.020006591009487</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9992471942639317</v>
+        <v>1.041269042832758</v>
       </c>
       <c r="D10">
-        <v>1.0182469668079</v>
+        <v>1.044382633558573</v>
       </c>
       <c r="E10">
-        <v>1.013967395219605</v>
+        <v>1.049566929614703</v>
       </c>
       <c r="F10">
-        <v>1.018643887498798</v>
+        <v>1.060352716803427</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043654104636957</v>
+        <v>1.042291481202697</v>
       </c>
       <c r="J10">
-        <v>1.027490712023869</v>
+        <v>1.047564825585463</v>
       </c>
       <c r="K10">
-        <v>1.032294401012327</v>
+        <v>1.04779854691728</v>
       </c>
       <c r="L10">
-        <v>1.02808896173094</v>
+        <v>1.052964745302572</v>
       </c>
       <c r="M10">
-        <v>1.032684486910029</v>
+        <v>1.063713504356682</v>
       </c>
       <c r="N10">
-        <v>1.012530211917248</v>
+        <v>1.019667168012467</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.995681644705558</v>
+        <v>1.040603772729712</v>
       </c>
       <c r="D11">
-        <v>1.015591069173904</v>
+        <v>1.043871581988783</v>
       </c>
       <c r="E11">
-        <v>1.010913850455156</v>
+        <v>1.048956871598101</v>
       </c>
       <c r="F11">
-        <v>1.015136862167941</v>
+        <v>1.059642323477747</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04244488469972</v>
+        <v>1.042103140704174</v>
       </c>
       <c r="J11">
-        <v>1.025235182360662</v>
+        <v>1.047132110808541</v>
       </c>
       <c r="K11">
-        <v>1.030224830922376</v>
+        <v>1.047409747492412</v>
       </c>
       <c r="L11">
-        <v>1.025632841281374</v>
+        <v>1.052476597244612</v>
       </c>
       <c r="M11">
-        <v>1.02977885576869</v>
+        <v>1.063123938341063</v>
       </c>
       <c r="N11">
-        <v>1.011753884241163</v>
+        <v>1.019519949248929</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9943408355541378</v>
+        <v>1.040356718530626</v>
       </c>
       <c r="D12">
-        <v>1.014593248923942</v>
+        <v>1.043681797578531</v>
       </c>
       <c r="E12">
-        <v>1.009767001721833</v>
+        <v>1.048730392984587</v>
       </c>
       <c r="F12">
-        <v>1.013819706252559</v>
+        <v>1.059378626134811</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041988773998495</v>
+        <v>1.042032998989771</v>
       </c>
       <c r="J12">
-        <v>1.024386647596824</v>
+        <v>1.046971327363984</v>
       </c>
       <c r="K12">
-        <v>1.029446105921982</v>
+        <v>1.047265249866517</v>
       </c>
       <c r="L12">
-        <v>1.024709443479187</v>
+        <v>1.052295284629156</v>
       </c>
       <c r="M12">
-        <v>1.028686846921595</v>
+        <v>1.062905010945282</v>
       </c>
       <c r="N12">
-        <v>1.011461793959729</v>
+        <v>1.019465228894726</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9946292016073971</v>
+        <v>1.040409709922687</v>
       </c>
       <c r="D13">
-        <v>1.014807805979703</v>
+        <v>1.043722505023397</v>
       </c>
       <c r="E13">
-        <v>1.010013587606923</v>
+        <v>1.048778967788221</v>
       </c>
       <c r="F13">
-        <v>1.014102910078768</v>
+        <v>1.059435182209496</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042086931042894</v>
+        <v>1.042048052932147</v>
       </c>
       <c r="J13">
-        <v>1.024569155941256</v>
+        <v>1.047005818390066</v>
       </c>
       <c r="K13">
-        <v>1.029613605624001</v>
+        <v>1.047296248718344</v>
       </c>
       <c r="L13">
-        <v>1.024908026786927</v>
+        <v>1.052334176460837</v>
       </c>
       <c r="M13">
-        <v>1.02892167395514</v>
+        <v>1.06295196872426</v>
       </c>
       <c r="N13">
-        <v>1.011524620043549</v>
+        <v>1.019476968255266</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9955711532414164</v>
+        <v>1.040583349993386</v>
       </c>
       <c r="D14">
-        <v>1.015508823102434</v>
+        <v>1.043855893470028</v>
       </c>
       <c r="E14">
-        <v>1.010819313299438</v>
+        <v>1.048938148269352</v>
       </c>
       <c r="F14">
-        <v>1.015028286154088</v>
+        <v>1.059620522612461</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04240732611581</v>
+        <v>1.04209734651321</v>
       </c>
       <c r="J14">
-        <v>1.025165264400319</v>
+        <v>1.047118821495682</v>
       </c>
       <c r="K14">
-        <v>1.030160668119876</v>
+        <v>1.04739780490655</v>
       </c>
       <c r="L14">
-        <v>1.025556742546953</v>
+        <v>1.052461609734893</v>
       </c>
       <c r="M14">
-        <v>1.029688853730037</v>
+        <v>1.063105840431991</v>
       </c>
       <c r="N14">
-        <v>1.011729817100268</v>
+        <v>1.019515426795556</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9961493181288669</v>
+        <v>1.040690342899037</v>
       </c>
       <c r="D15">
-        <v>1.015939227206519</v>
+        <v>1.043938084205102</v>
       </c>
       <c r="E15">
-        <v>1.011314053011189</v>
+        <v>1.049036241084011</v>
       </c>
       <c r="F15">
-        <v>1.015596495483</v>
+        <v>1.059734740075833</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042603801332386</v>
+        <v>1.042127693586629</v>
       </c>
       <c r="J15">
-        <v>1.02553110764109</v>
+        <v>1.047188439310146</v>
       </c>
       <c r="K15">
-        <v>1.030496391728021</v>
+        <v>1.047460366414333</v>
       </c>
       <c r="L15">
-        <v>1.02595495088963</v>
+        <v>1.052540126566229</v>
       </c>
       <c r="M15">
-        <v>1.030159830755359</v>
+        <v>1.063200654324042</v>
       </c>
       <c r="N15">
-        <v>1.011855746211164</v>
+        <v>1.019539117509599</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9994815795757629</v>
+        <v>1.041313202559022</v>
       </c>
       <c r="D16">
-        <v>1.01842167796082</v>
+        <v>1.044416556335442</v>
       </c>
       <c r="E16">
-        <v>1.014168317076267</v>
+        <v>1.049607434517459</v>
       </c>
       <c r="F16">
-        <v>1.018874650987292</v>
+        <v>1.060399887687492</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043733398780987</v>
+        <v>1.042303954968166</v>
       </c>
       <c r="J16">
-        <v>1.02763893002678</v>
+        <v>1.047593535852357</v>
       </c>
       <c r="K16">
-        <v>1.032430377700763</v>
+        <v>1.047824338975732</v>
       </c>
       <c r="L16">
-        <v>1.028250444347522</v>
+        <v>1.052997143075247</v>
       </c>
       <c r="M16">
-        <v>1.032875577550371</v>
+        <v>1.063752640809079</v>
       </c>
       <c r="N16">
-        <v>1.012581221685454</v>
+        <v>1.019676933268763</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.001543597623338</v>
+        <v>1.041704006759931</v>
       </c>
       <c r="D17">
-        <v>1.0199593528216</v>
+        <v>1.044716764755645</v>
       </c>
       <c r="E17">
-        <v>1.015936975389267</v>
+        <v>1.049965949398295</v>
       </c>
       <c r="F17">
-        <v>1.020906020190603</v>
+        <v>1.060817427272549</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044429910036492</v>
+        <v>1.042414191456232</v>
       </c>
       <c r="J17">
-        <v>1.028942586614334</v>
+        <v>1.047847545600622</v>
       </c>
       <c r="K17">
-        <v>1.033626244429673</v>
+        <v>1.048052505810628</v>
       </c>
       <c r="L17">
-        <v>1.029671225072338</v>
+        <v>1.053283829870738</v>
       </c>
       <c r="M17">
-        <v>1.034557158427891</v>
+        <v>1.064099000195406</v>
       </c>
       <c r="N17">
-        <v>1.013029848861469</v>
+        <v>1.019763315680029</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.00273645977421</v>
+        <v>1.041931992468514</v>
       </c>
       <c r="D18">
-        <v>1.020849409447403</v>
+        <v>1.044891898171196</v>
       </c>
       <c r="E18">
-        <v>1.016960984919839</v>
+        <v>1.050175144224485</v>
       </c>
       <c r="F18">
-        <v>1.022082156330385</v>
+        <v>1.06106108259132</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044831925290437</v>
+        <v>1.042478372369716</v>
       </c>
       <c r="J18">
-        <v>1.029696484081386</v>
+        <v>1.047995670210848</v>
       </c>
       <c r="K18">
-        <v>1.034317704595933</v>
+        <v>1.04818553975629</v>
       </c>
       <c r="L18">
-        <v>1.03049323411422</v>
+        <v>1.053451053720153</v>
       </c>
       <c r="M18">
-        <v>1.035530306683579</v>
+        <v>1.06430106624985</v>
       </c>
       <c r="N18">
-        <v>1.013289260323423</v>
+        <v>1.019813677290644</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.003141546309774</v>
+        <v>1.042009735839874</v>
       </c>
       <c r="D19">
-        <v>1.021151752030305</v>
+        <v>1.044951618679831</v>
       </c>
       <c r="E19">
-        <v>1.017308873446154</v>
+        <v>1.050246487658441</v>
       </c>
       <c r="F19">
-        <v>1.022481731766324</v>
+        <v>1.061144181659275</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044968290449231</v>
+        <v>1.042500236350799</v>
       </c>
       <c r="J19">
-        <v>1.029952456417608</v>
+        <v>1.048046170926843</v>
       </c>
       <c r="K19">
-        <v>1.034552459606939</v>
+        <v>1.048230892072178</v>
       </c>
       <c r="L19">
-        <v>1.030772396912874</v>
+        <v>1.05350807344217</v>
       </c>
       <c r="M19">
-        <v>1.035860840661043</v>
+        <v>1.064369972401999</v>
       </c>
       <c r="N19">
-        <v>1.013377333978749</v>
+        <v>1.019830845255472</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.001323390778356</v>
+        <v>1.04166207341807</v>
       </c>
       <c r="D20">
-        <v>1.019795086746352</v>
+        <v>1.044684552442096</v>
       </c>
       <c r="E20">
-        <v>1.015748007957133</v>
+        <v>1.049927475950961</v>
       </c>
       <c r="F20">
-        <v>1.020688981865545</v>
+        <v>1.060772617684679</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044355622486552</v>
+        <v>1.042402376344516</v>
       </c>
       <c r="J20">
-        <v>1.028803393076573</v>
+        <v>1.047820296372864</v>
       </c>
       <c r="K20">
-        <v>1.033498570388544</v>
+        <v>1.048028031033679</v>
       </c>
       <c r="L20">
-        <v>1.029519486647226</v>
+        <v>1.053253070642689</v>
       </c>
       <c r="M20">
-        <v>1.034377540819502</v>
+        <v>1.06406183491948</v>
       </c>
       <c r="N20">
-        <v>1.012981950971292</v>
+        <v>1.019754050123445</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9952942325809285</v>
+        <v>1.040532215751792</v>
       </c>
       <c r="D21">
-        <v>1.015302707895113</v>
+        <v>1.043816612705846</v>
       </c>
       <c r="E21">
-        <v>1.010582401476687</v>
+        <v>1.048891270153385</v>
       </c>
       <c r="F21">
-        <v>1.014756192789987</v>
+        <v>1.059565939664861</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04231317223374</v>
+        <v>1.042082835849914</v>
       </c>
       <c r="J21">
-        <v>1.024990026103745</v>
+        <v>1.047085546381729</v>
       </c>
       <c r="K21">
-        <v>1.029999851868324</v>
+        <v>1.047367901349968</v>
       </c>
       <c r="L21">
-        <v>1.025366022770202</v>
+        <v>1.052424083605579</v>
       </c>
       <c r="M21">
-        <v>1.029463295471441</v>
+        <v>1.063060527286904</v>
       </c>
       <c r="N21">
-        <v>1.011669496098283</v>
+        <v>1.019504102726374</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9914080370359432</v>
+        <v>1.039822157812855</v>
       </c>
       <c r="D22">
-        <v>1.01241246385589</v>
+        <v>1.043271153173484</v>
       </c>
       <c r="E22">
-        <v>1.00726115073256</v>
+        <v>1.048240484801778</v>
       </c>
       <c r="F22">
-        <v>1.010941728678716</v>
+        <v>1.058808262452699</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040988609818877</v>
+        <v>1.041880865564805</v>
       </c>
       <c r="J22">
-        <v>1.022530027548385</v>
+        <v>1.046623268245719</v>
       </c>
       <c r="K22">
-        <v>1.02774197360998</v>
+        <v>1.04695238783669</v>
       </c>
       <c r="L22">
-        <v>1.022690122270194</v>
+        <v>1.051902909117254</v>
       </c>
       <c r="M22">
-        <v>1.026299500052689</v>
+        <v>1.062431334115035</v>
       </c>
       <c r="N22">
-        <v>1.01082263744925</v>
+        <v>1.019346738380818</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.99347755429898</v>
+        <v>1.040198541731321</v>
       </c>
       <c r="D23">
-        <v>1.013951070628955</v>
+        <v>1.043560287730028</v>
       </c>
       <c r="E23">
-        <v>1.009029011385741</v>
+        <v>1.048585410085287</v>
       </c>
       <c r="F23">
-        <v>1.012972124230037</v>
+        <v>1.05920982561495</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04169472176091</v>
+        <v>1.04198803444645</v>
       </c>
       <c r="J23">
-        <v>1.023840224849206</v>
+        <v>1.046868360004853</v>
       </c>
       <c r="K23">
-        <v>1.028944597733343</v>
+        <v>1.04717270318505</v>
       </c>
       <c r="L23">
-        <v>1.024114980687735</v>
+        <v>1.05217918935025</v>
       </c>
       <c r="M23">
-        <v>1.027983943701814</v>
+        <v>1.062764846181038</v>
       </c>
       <c r="N23">
-        <v>1.011273690760138</v>
+        <v>1.019430180252112</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.001422923231672</v>
+        <v>1.041681021178245</v>
       </c>
       <c r="D24">
-        <v>1.019869332619954</v>
+        <v>1.044699107716893</v>
       </c>
       <c r="E24">
-        <v>1.015833417700535</v>
+        <v>1.04994486020117</v>
       </c>
       <c r="F24">
-        <v>1.020787079052696</v>
+        <v>1.060792864863971</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044389202937932</v>
+        <v>1.042407715450034</v>
       </c>
       <c r="J24">
-        <v>1.028866308702386</v>
+        <v>1.047832609234034</v>
       </c>
       <c r="K24">
-        <v>1.033556279510241</v>
+        <v>1.04803909029228</v>
       </c>
       <c r="L24">
-        <v>1.029588071398729</v>
+        <v>1.053266969400571</v>
       </c>
       <c r="M24">
-        <v>1.034458725998238</v>
+        <v>1.064078628182812</v>
       </c>
       <c r="N24">
-        <v>1.013003600953044</v>
+        <v>1.019758236903149</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010258298601896</v>
+        <v>1.04340277618526</v>
       </c>
       <c r="D25">
-        <v>1.02647043278782</v>
+        <v>1.046021697827877</v>
       </c>
       <c r="E25">
-        <v>1.023432714356802</v>
+        <v>1.051525528981329</v>
       </c>
       <c r="F25">
-        <v>1.029515955870202</v>
+        <v>1.062634267129997</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047350258924302</v>
+        <v>1.042890095427061</v>
       </c>
       <c r="J25">
-        <v>1.034445294164398</v>
+        <v>1.048950192802465</v>
       </c>
       <c r="K25">
-        <v>1.038671270627916</v>
+        <v>1.049042445960291</v>
       </c>
       <c r="L25">
-        <v>1.035677840755828</v>
+        <v>1.054529443882814</v>
       </c>
       <c r="M25">
-        <v>1.041672723777367</v>
+        <v>1.065604785074316</v>
       </c>
       <c r="N25">
-        <v>1.014922740616319</v>
+        <v>1.020137994245649</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044777178068919</v>
+        <v>1.017025493764349</v>
       </c>
       <c r="D2">
-        <v>1.047077408933838</v>
+        <v>1.031539646308209</v>
       </c>
       <c r="E2">
-        <v>1.052788740798424</v>
+        <v>1.029277262091633</v>
       </c>
       <c r="F2">
-        <v>1.064106469166505</v>
+        <v>1.036230814016565</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043271090259124</v>
+        <v>1.049588394339507</v>
       </c>
       <c r="J2">
-        <v>1.049840447941362</v>
+        <v>1.038708632285767</v>
       </c>
       <c r="K2">
-        <v>1.049841055284195</v>
+        <v>1.042576398165415</v>
       </c>
       <c r="L2">
-        <v>1.055536503558201</v>
+        <v>1.040343247019053</v>
       </c>
       <c r="M2">
-        <v>1.06682330188084</v>
+        <v>1.047207457798528</v>
       </c>
       <c r="N2">
-        <v>1.020440124633794</v>
+        <v>1.016388180874863</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045775770204787</v>
+        <v>1.021790350027737</v>
       </c>
       <c r="D3">
-        <v>1.047844407548638</v>
+        <v>1.035115434733422</v>
       </c>
       <c r="E3">
-        <v>1.053707367659263</v>
+        <v>1.033405487600209</v>
       </c>
       <c r="F3">
-        <v>1.065177441659183</v>
+        <v>1.040975034321345</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04354554601472</v>
+        <v>1.051146300048503</v>
       </c>
       <c r="J3">
-        <v>1.050486190474443</v>
+        <v>1.041704113928914</v>
       </c>
       <c r="K3">
-        <v>1.050419941599203</v>
+        <v>1.045317888718878</v>
       </c>
       <c r="L3">
-        <v>1.056267774767188</v>
+        <v>1.043628061941664</v>
       </c>
       <c r="M3">
-        <v>1.067708773877698</v>
+        <v>1.051109160080338</v>
       </c>
       <c r="N3">
-        <v>1.020659050960056</v>
+        <v>1.017417041683307</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04642222776657</v>
+        <v>1.024808816603144</v>
       </c>
       <c r="D4">
-        <v>1.048340914236005</v>
+        <v>1.037383286779757</v>
       </c>
       <c r="E4">
-        <v>1.054302435142328</v>
+        <v>1.036026403945367</v>
       </c>
       <c r="F4">
-        <v>1.065871365662233</v>
+        <v>1.04398772734284</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043722126586213</v>
+        <v>1.052124644723546</v>
       </c>
       <c r="J4">
-        <v>1.050903720152407</v>
+        <v>1.043598517447748</v>
       </c>
       <c r="K4">
-        <v>1.050794065477264</v>
+        <v>1.047050530231763</v>
       </c>
       <c r="L4">
-        <v>1.056740979271857</v>
+        <v>1.045708628408039</v>
       </c>
       <c r="M4">
-        <v>1.068282064022743</v>
+        <v>1.053582735099001</v>
       </c>
       <c r="N4">
-        <v>1.020800502503457</v>
+        <v>1.018067312673359</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046694070278302</v>
+        <v>1.026062859179733</v>
       </c>
       <c r="D5">
-        <v>1.048549694304685</v>
+        <v>1.038326063756101</v>
       </c>
       <c r="E5">
-        <v>1.054552757332667</v>
+        <v>1.037116621633976</v>
       </c>
       <c r="F5">
-        <v>1.066163313963843</v>
+        <v>1.045241094559871</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043796118739348</v>
+        <v>1.052529014178417</v>
       </c>
       <c r="J5">
-        <v>1.051079175060967</v>
+        <v>1.04438476075654</v>
       </c>
       <c r="K5">
-        <v>1.050951237744064</v>
+        <v>1.047769355283735</v>
       </c>
       <c r="L5">
-        <v>1.056939919309736</v>
+        <v>1.046572903131037</v>
       </c>
       <c r="M5">
-        <v>1.068523153634891</v>
+        <v>1.054610821613591</v>
       </c>
       <c r="N5">
-        <v>1.020859918535394</v>
+        <v>1.018337095290826</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046739718026292</v>
+        <v>1.026272559561332</v>
       </c>
       <c r="D6">
-        <v>1.048584752222013</v>
+        <v>1.038483747223247</v>
       </c>
       <c r="E6">
-        <v>1.054594796642263</v>
+        <v>1.037299004986685</v>
       </c>
       <c r="F6">
-        <v>1.066212346402792</v>
+        <v>1.045450782530281</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043808528127136</v>
+        <v>1.052596508732965</v>
       </c>
       <c r="J6">
-        <v>1.051108630321719</v>
+        <v>1.044516187996214</v>
       </c>
       <c r="K6">
-        <v>1.05097762122426</v>
+        <v>1.047889496169193</v>
       </c>
       <c r="L6">
-        <v>1.056973322483173</v>
+        <v>1.046717419210584</v>
       </c>
       <c r="M6">
-        <v>1.068563638220832</v>
+        <v>1.054782761632094</v>
       </c>
       <c r="N6">
-        <v>1.020869891796355</v>
+        <v>1.018382185544144</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046425859858149</v>
+        <v>1.024825631074118</v>
       </c>
       <c r="D7">
-        <v>1.048343703775523</v>
+        <v>1.037395925501143</v>
       </c>
       <c r="E7">
-        <v>1.054305779348493</v>
+        <v>1.036041016572546</v>
       </c>
       <c r="F7">
-        <v>1.065875265815798</v>
+        <v>1.044004525985853</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043723116225585</v>
+        <v>1.052130074900857</v>
       </c>
       <c r="J7">
-        <v>1.050906064883243</v>
+        <v>1.043609062769426</v>
       </c>
       <c r="K7">
-        <v>1.050796166051515</v>
+        <v>1.047060172445129</v>
       </c>
       <c r="L7">
-        <v>1.056743637500105</v>
+        <v>1.045720217271624</v>
       </c>
       <c r="M7">
-        <v>1.068285285166611</v>
+        <v>1.053596518275895</v>
       </c>
       <c r="N7">
-        <v>1.020801296620995</v>
+        <v>1.01807093148846</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04511459420929</v>
+        <v>1.018649552691523</v>
       </c>
       <c r="D8">
-        <v>1.047336576201693</v>
+        <v>1.032757835440225</v>
       </c>
       <c r="E8">
-        <v>1.053099059013926</v>
+        <v>1.030683101484613</v>
       </c>
       <c r="F8">
-        <v>1.064468215656618</v>
+        <v>1.037846290508944</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043364052908581</v>
+        <v>1.050121167781295</v>
       </c>
       <c r="J8">
-        <v>1.050058743249362</v>
+        <v>1.039730263635542</v>
       </c>
       <c r="K8">
-        <v>1.050036786290401</v>
+        <v>1.043511635972965</v>
       </c>
       <c r="L8">
-        <v>1.055783634891148</v>
+        <v>1.041462891341239</v>
       </c>
       <c r="M8">
-        <v>1.067122482422934</v>
+        <v>1.048536897748861</v>
       </c>
       <c r="N8">
-        <v>1.020514154787788</v>
+        <v>1.016739162096763</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042806307643039</v>
+        <v>1.007243581816655</v>
       </c>
       <c r="D9">
-        <v>1.045563519076768</v>
+        <v>1.024215800868162</v>
       </c>
       <c r="E9">
-        <v>1.050977714106148</v>
+        <v>1.020835819705835</v>
       </c>
       <c r="F9">
-        <v>1.061995993879366</v>
+        <v>1.026532856335786</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042723613220694</v>
+        <v>1.046344520840609</v>
       </c>
       <c r="J9">
-        <v>1.048563315224039</v>
+        <v>1.032543118224581</v>
       </c>
       <c r="K9">
-        <v>1.048695211818713</v>
+        <v>1.036927841900578</v>
       </c>
       <c r="L9">
-        <v>1.054092194483914</v>
+        <v>1.033599659100276</v>
       </c>
       <c r="M9">
-        <v>1.065076037878929</v>
+        <v>1.039209639535789</v>
       </c>
       <c r="N9">
-        <v>1.020006591009487</v>
+        <v>1.014268562778574</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041269042832758</v>
+        <v>0.9992471942639318</v>
       </c>
       <c r="D10">
-        <v>1.044382633558573</v>
+        <v>1.0182469668079</v>
       </c>
       <c r="E10">
-        <v>1.049566929614703</v>
+        <v>1.013967395219605</v>
       </c>
       <c r="F10">
-        <v>1.060352716803427</v>
+        <v>1.018643887498798</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042291481202697</v>
+        <v>1.043654104636957</v>
       </c>
       <c r="J10">
-        <v>1.047564825585463</v>
+        <v>1.027490712023869</v>
       </c>
       <c r="K10">
-        <v>1.04779854691728</v>
+        <v>1.032294401012327</v>
       </c>
       <c r="L10">
-        <v>1.052964745302572</v>
+        <v>1.02808896173094</v>
       </c>
       <c r="M10">
-        <v>1.063713504356682</v>
+        <v>1.032684486910029</v>
       </c>
       <c r="N10">
-        <v>1.019667168012467</v>
+        <v>1.012530211917248</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040603772729712</v>
+        <v>0.9956816447055583</v>
       </c>
       <c r="D11">
-        <v>1.043871581988783</v>
+        <v>1.015591069173904</v>
       </c>
       <c r="E11">
-        <v>1.048956871598101</v>
+        <v>1.010913850455156</v>
       </c>
       <c r="F11">
-        <v>1.059642323477747</v>
+        <v>1.015136862167942</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042103140704174</v>
+        <v>1.04244488469972</v>
       </c>
       <c r="J11">
-        <v>1.047132110808541</v>
+        <v>1.025235182360663</v>
       </c>
       <c r="K11">
-        <v>1.047409747492412</v>
+        <v>1.030224830922376</v>
       </c>
       <c r="L11">
-        <v>1.052476597244612</v>
+        <v>1.025632841281374</v>
       </c>
       <c r="M11">
-        <v>1.063123938341063</v>
+        <v>1.029778855768691</v>
       </c>
       <c r="N11">
-        <v>1.019519949248929</v>
+        <v>1.011753884241163</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040356718530626</v>
+        <v>0.9943408355541384</v>
       </c>
       <c r="D12">
-        <v>1.043681797578531</v>
+        <v>1.014593248923943</v>
       </c>
       <c r="E12">
-        <v>1.048730392984587</v>
+        <v>1.009767001721834</v>
       </c>
       <c r="F12">
-        <v>1.059378626134811</v>
+        <v>1.01381970625256</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042032998989771</v>
+        <v>1.041988773998495</v>
       </c>
       <c r="J12">
-        <v>1.046971327363984</v>
+        <v>1.024386647596824</v>
       </c>
       <c r="K12">
-        <v>1.047265249866517</v>
+        <v>1.029446105921983</v>
       </c>
       <c r="L12">
-        <v>1.052295284629156</v>
+        <v>1.024709443479188</v>
       </c>
       <c r="M12">
-        <v>1.062905010945282</v>
+        <v>1.028686846921596</v>
       </c>
       <c r="N12">
-        <v>1.019465228894726</v>
+        <v>1.01146179395973</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040409709922687</v>
+        <v>0.9946292016073969</v>
       </c>
       <c r="D13">
-        <v>1.043722505023397</v>
+        <v>1.014807805979702</v>
       </c>
       <c r="E13">
-        <v>1.048778967788221</v>
+        <v>1.010013587606923</v>
       </c>
       <c r="F13">
-        <v>1.059435182209496</v>
+        <v>1.014102910078768</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042048052932147</v>
+        <v>1.042086931042894</v>
       </c>
       <c r="J13">
-        <v>1.047005818390066</v>
+        <v>1.024569155941256</v>
       </c>
       <c r="K13">
-        <v>1.047296248718344</v>
+        <v>1.029613605624</v>
       </c>
       <c r="L13">
-        <v>1.052334176460837</v>
+        <v>1.024908026786927</v>
       </c>
       <c r="M13">
-        <v>1.06295196872426</v>
+        <v>1.028921673955139</v>
       </c>
       <c r="N13">
-        <v>1.019476968255266</v>
+        <v>1.011524620043549</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>1.040583349993386</v>
+        <v>0.9955711532414172</v>
       </c>
       <c r="D14">
-        <v>1.043855893470028</v>
+        <v>1.015508823102435</v>
       </c>
       <c r="E14">
-        <v>1.048938148269352</v>
+        <v>1.010819313299439</v>
       </c>
       <c r="F14">
-        <v>1.059620522612461</v>
+        <v>1.01502828615409</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04209734651321</v>
+        <v>1.04240732611581</v>
       </c>
       <c r="J14">
-        <v>1.047118821495682</v>
+        <v>1.02516526440032</v>
       </c>
       <c r="K14">
-        <v>1.04739780490655</v>
+        <v>1.030160668119877</v>
       </c>
       <c r="L14">
-        <v>1.052461609734893</v>
+        <v>1.025556742546954</v>
       </c>
       <c r="M14">
-        <v>1.063105840431991</v>
+        <v>1.029688853730037</v>
       </c>
       <c r="N14">
-        <v>1.019515426795556</v>
+        <v>1.011729817100268</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040690342899037</v>
+        <v>0.9961493181288672</v>
       </c>
       <c r="D15">
-        <v>1.043938084205102</v>
+        <v>1.015939227206519</v>
       </c>
       <c r="E15">
-        <v>1.049036241084011</v>
+        <v>1.011314053011189</v>
       </c>
       <c r="F15">
-        <v>1.059734740075833</v>
+        <v>1.015596495483001</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042127693586629</v>
+        <v>1.042603801332387</v>
       </c>
       <c r="J15">
-        <v>1.047188439310146</v>
+        <v>1.02553110764109</v>
       </c>
       <c r="K15">
-        <v>1.047460366414333</v>
+        <v>1.030496391728021</v>
       </c>
       <c r="L15">
-        <v>1.052540126566229</v>
+        <v>1.02595495088963</v>
       </c>
       <c r="M15">
-        <v>1.063200654324042</v>
+        <v>1.030159830755359</v>
       </c>
       <c r="N15">
-        <v>1.019539117509599</v>
+        <v>1.011855746211165</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041313202559022</v>
+        <v>0.9994815795757621</v>
       </c>
       <c r="D16">
-        <v>1.044416556335442</v>
+        <v>1.018421677960819</v>
       </c>
       <c r="E16">
-        <v>1.049607434517459</v>
+        <v>1.014168317076266</v>
       </c>
       <c r="F16">
-        <v>1.060399887687492</v>
+        <v>1.018874650987292</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042303954968166</v>
+        <v>1.043733398780987</v>
       </c>
       <c r="J16">
-        <v>1.047593535852357</v>
+        <v>1.02763893002678</v>
       </c>
       <c r="K16">
-        <v>1.047824338975732</v>
+        <v>1.032430377700763</v>
       </c>
       <c r="L16">
-        <v>1.052997143075247</v>
+        <v>1.028250444347521</v>
       </c>
       <c r="M16">
-        <v>1.063752640809079</v>
+        <v>1.03287557755037</v>
       </c>
       <c r="N16">
-        <v>1.019676933268763</v>
+        <v>1.012581221685454</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041704006759931</v>
+        <v>1.001543597623337</v>
       </c>
       <c r="D17">
-        <v>1.044716764755645</v>
+        <v>1.0199593528216</v>
       </c>
       <c r="E17">
-        <v>1.049965949398295</v>
+        <v>1.015936975389267</v>
       </c>
       <c r="F17">
-        <v>1.060817427272549</v>
+        <v>1.020906020190603</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042414191456232</v>
+        <v>1.044429910036492</v>
       </c>
       <c r="J17">
-        <v>1.047847545600622</v>
+        <v>1.028942586614334</v>
       </c>
       <c r="K17">
-        <v>1.048052505810628</v>
+        <v>1.033626244429673</v>
       </c>
       <c r="L17">
-        <v>1.053283829870738</v>
+        <v>1.029671225072338</v>
       </c>
       <c r="M17">
-        <v>1.064099000195406</v>
+        <v>1.034557158427892</v>
       </c>
       <c r="N17">
-        <v>1.019763315680029</v>
+        <v>1.013029848861469</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041931992468514</v>
+        <v>1.002736459774209</v>
       </c>
       <c r="D18">
-        <v>1.044891898171196</v>
+        <v>1.020849409447402</v>
       </c>
       <c r="E18">
-        <v>1.050175144224485</v>
+        <v>1.016960984919838</v>
       </c>
       <c r="F18">
-        <v>1.06106108259132</v>
+        <v>1.022082156330383</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042478372369716</v>
+        <v>1.044831925290437</v>
       </c>
       <c r="J18">
-        <v>1.047995670210848</v>
+        <v>1.029696484081385</v>
       </c>
       <c r="K18">
-        <v>1.04818553975629</v>
+        <v>1.034317704595932</v>
       </c>
       <c r="L18">
-        <v>1.053451053720153</v>
+        <v>1.030493234114218</v>
       </c>
       <c r="M18">
-        <v>1.06430106624985</v>
+        <v>1.035530306683578</v>
       </c>
       <c r="N18">
-        <v>1.019813677290644</v>
+        <v>1.013289260323422</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042009735839874</v>
+        <v>1.003141546309774</v>
       </c>
       <c r="D19">
-        <v>1.044951618679831</v>
+        <v>1.021151752030304</v>
       </c>
       <c r="E19">
-        <v>1.050246487658441</v>
+        <v>1.017308873446154</v>
       </c>
       <c r="F19">
-        <v>1.061144181659275</v>
+        <v>1.022481731766324</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042500236350799</v>
+        <v>1.044968290449231</v>
       </c>
       <c r="J19">
-        <v>1.048046170926843</v>
+        <v>1.029952456417607</v>
       </c>
       <c r="K19">
-        <v>1.048230892072178</v>
+        <v>1.034552459606939</v>
       </c>
       <c r="L19">
-        <v>1.05350807344217</v>
+        <v>1.030772396912874</v>
       </c>
       <c r="M19">
-        <v>1.064369972401999</v>
+        <v>1.035860840661043</v>
       </c>
       <c r="N19">
-        <v>1.019830845255472</v>
+        <v>1.013377333978749</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04166207341807</v>
+        <v>1.001323390778356</v>
       </c>
       <c r="D20">
-        <v>1.044684552442096</v>
+        <v>1.019795086746353</v>
       </c>
       <c r="E20">
-        <v>1.049927475950961</v>
+        <v>1.015748007957133</v>
       </c>
       <c r="F20">
-        <v>1.060772617684679</v>
+        <v>1.020688981865545</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042402376344516</v>
+        <v>1.044355622486553</v>
       </c>
       <c r="J20">
-        <v>1.047820296372864</v>
+        <v>1.028803393076573</v>
       </c>
       <c r="K20">
-        <v>1.048028031033679</v>
+        <v>1.033498570388545</v>
       </c>
       <c r="L20">
-        <v>1.053253070642689</v>
+        <v>1.029519486647226</v>
       </c>
       <c r="M20">
-        <v>1.06406183491948</v>
+        <v>1.034377540819502</v>
       </c>
       <c r="N20">
-        <v>1.019754050123445</v>
+        <v>1.012981950971293</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040532215751792</v>
+        <v>0.9952942325809284</v>
       </c>
       <c r="D21">
-        <v>1.043816612705846</v>
+        <v>1.015302707895113</v>
       </c>
       <c r="E21">
-        <v>1.048891270153385</v>
+        <v>1.010582401476687</v>
       </c>
       <c r="F21">
-        <v>1.059565939664861</v>
+        <v>1.014756192789986</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042082835849914</v>
+        <v>1.04231317223374</v>
       </c>
       <c r="J21">
-        <v>1.047085546381729</v>
+        <v>1.024990026103746</v>
       </c>
       <c r="K21">
-        <v>1.047367901349968</v>
+        <v>1.029999851868324</v>
       </c>
       <c r="L21">
-        <v>1.052424083605579</v>
+        <v>1.025366022770201</v>
       </c>
       <c r="M21">
-        <v>1.063060527286904</v>
+        <v>1.029463295471441</v>
       </c>
       <c r="N21">
-        <v>1.019504102726374</v>
+        <v>1.011669496098283</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039822157812855</v>
+        <v>0.9914080370359437</v>
       </c>
       <c r="D22">
-        <v>1.043271153173484</v>
+        <v>1.012412463855891</v>
       </c>
       <c r="E22">
-        <v>1.048240484801778</v>
+        <v>1.007261150732561</v>
       </c>
       <c r="F22">
-        <v>1.058808262452699</v>
+        <v>1.010941728678716</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041880865564805</v>
+        <v>1.040988609818877</v>
       </c>
       <c r="J22">
-        <v>1.046623268245719</v>
+        <v>1.022530027548385</v>
       </c>
       <c r="K22">
-        <v>1.04695238783669</v>
+        <v>1.02774197360998</v>
       </c>
       <c r="L22">
-        <v>1.051902909117254</v>
+        <v>1.022690122270195</v>
       </c>
       <c r="M22">
-        <v>1.062431334115035</v>
+        <v>1.026299500052689</v>
       </c>
       <c r="N22">
-        <v>1.019346738380818</v>
+        <v>1.010822637449251</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040198541731321</v>
+        <v>0.9934775542989791</v>
       </c>
       <c r="D23">
-        <v>1.043560287730028</v>
+        <v>1.013951070628955</v>
       </c>
       <c r="E23">
-        <v>1.048585410085287</v>
+        <v>1.009029011385741</v>
       </c>
       <c r="F23">
-        <v>1.05920982561495</v>
+        <v>1.012972124230037</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04198803444645</v>
+        <v>1.04169472176091</v>
       </c>
       <c r="J23">
-        <v>1.046868360004853</v>
+        <v>1.023840224849205</v>
       </c>
       <c r="K23">
-        <v>1.04717270318505</v>
+        <v>1.028944597733342</v>
       </c>
       <c r="L23">
-        <v>1.05217918935025</v>
+        <v>1.024114980687734</v>
       </c>
       <c r="M23">
-        <v>1.062764846181038</v>
+        <v>1.027983943701813</v>
       </c>
       <c r="N23">
-        <v>1.019430180252112</v>
+        <v>1.011273690760137</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041681021178245</v>
+        <v>1.001422923231672</v>
       </c>
       <c r="D24">
-        <v>1.044699107716893</v>
+        <v>1.019869332619954</v>
       </c>
       <c r="E24">
-        <v>1.04994486020117</v>
+        <v>1.015833417700535</v>
       </c>
       <c r="F24">
-        <v>1.060792864863971</v>
+        <v>1.020787079052697</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042407715450034</v>
+        <v>1.044389202937933</v>
       </c>
       <c r="J24">
-        <v>1.047832609234034</v>
+        <v>1.028866308702386</v>
       </c>
       <c r="K24">
-        <v>1.04803909029228</v>
+        <v>1.033556279510242</v>
       </c>
       <c r="L24">
-        <v>1.053266969400571</v>
+        <v>1.029588071398729</v>
       </c>
       <c r="M24">
-        <v>1.064078628182812</v>
+        <v>1.034458725998238</v>
       </c>
       <c r="N24">
-        <v>1.019758236903149</v>
+        <v>1.013003600953045</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04340277618526</v>
+        <v>1.010258298601896</v>
       </c>
       <c r="D25">
-        <v>1.046021697827877</v>
+        <v>1.026470432787819</v>
       </c>
       <c r="E25">
-        <v>1.051525528981329</v>
+        <v>1.023432714356801</v>
       </c>
       <c r="F25">
-        <v>1.062634267129997</v>
+        <v>1.029515955870201</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042890095427061</v>
+        <v>1.047350258924302</v>
       </c>
       <c r="J25">
-        <v>1.048950192802465</v>
+        <v>1.034445294164397</v>
       </c>
       <c r="K25">
-        <v>1.049042445960291</v>
+        <v>1.038671270627916</v>
       </c>
       <c r="L25">
-        <v>1.054529443882814</v>
+        <v>1.035677840755827</v>
       </c>
       <c r="M25">
-        <v>1.065604785074316</v>
+        <v>1.041672723777366</v>
       </c>
       <c r="N25">
-        <v>1.020137994245649</v>
+        <v>1.014922740616318</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017025493764349</v>
+        <v>0.9989936567019215</v>
       </c>
       <c r="D2">
-        <v>1.031539646308209</v>
+        <v>1.026083203284396</v>
       </c>
       <c r="E2">
-        <v>1.029277262091633</v>
+        <v>1.005621799883897</v>
       </c>
       <c r="F2">
-        <v>1.036230814016565</v>
+        <v>1.035817921409327</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049588394339507</v>
+        <v>1.051237244121482</v>
       </c>
       <c r="J2">
-        <v>1.038708632285767</v>
+        <v>1.02120450904275</v>
       </c>
       <c r="K2">
-        <v>1.042576398165415</v>
+        <v>1.037190734676001</v>
       </c>
       <c r="L2">
-        <v>1.040343247019053</v>
+        <v>1.017003365802807</v>
       </c>
       <c r="M2">
-        <v>1.047207457798528</v>
+        <v>1.046799828297396</v>
       </c>
       <c r="N2">
-        <v>1.016388180874863</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.01105453593344</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045611297571436</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.037367334497397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021790350027737</v>
+        <v>1.002494997517106</v>
       </c>
       <c r="D3">
-        <v>1.035115434733422</v>
+        <v>1.028385772749011</v>
       </c>
       <c r="E3">
-        <v>1.033405487600209</v>
+        <v>1.008341730346699</v>
       </c>
       <c r="F3">
-        <v>1.040975034321345</v>
+        <v>1.038207388290389</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051146300048503</v>
+        <v>1.051950875268353</v>
       </c>
       <c r="J3">
-        <v>1.041704113928914</v>
+        <v>1.022917876699974</v>
       </c>
       <c r="K3">
-        <v>1.045317888718878</v>
+        <v>1.038667891515519</v>
       </c>
       <c r="L3">
-        <v>1.043628061941664</v>
+        <v>1.018868978304121</v>
       </c>
       <c r="M3">
-        <v>1.051109160080338</v>
+        <v>1.048373668443297</v>
       </c>
       <c r="N3">
-        <v>1.017417041683307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.0116284574806</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.046856876718117</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038409146412633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024808816603144</v>
+        <v>1.004722936373141</v>
       </c>
       <c r="D4">
-        <v>1.037383286779757</v>
+        <v>1.029853031518623</v>
       </c>
       <c r="E4">
-        <v>1.036026403945367</v>
+        <v>1.010078394253755</v>
       </c>
       <c r="F4">
-        <v>1.04398772734284</v>
+        <v>1.039732617486067</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052124644723546</v>
+        <v>1.052392460081301</v>
       </c>
       <c r="J4">
-        <v>1.043598517447748</v>
+        <v>1.024006595711742</v>
       </c>
       <c r="K4">
-        <v>1.047050530231763</v>
+        <v>1.039604028237942</v>
       </c>
       <c r="L4">
-        <v>1.045708628408039</v>
+        <v>1.020056684901769</v>
       </c>
       <c r="M4">
-        <v>1.053582735099001</v>
+        <v>1.049374036118008</v>
       </c>
       <c r="N4">
-        <v>1.018067312673359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01199315880966</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047648593333195</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039071973800203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026062859179733</v>
+        <v>1.005653035041854</v>
       </c>
       <c r="D5">
-        <v>1.038326063756101</v>
+        <v>1.030467687348655</v>
       </c>
       <c r="E5">
-        <v>1.037116621633976</v>
+        <v>1.010805082786359</v>
       </c>
       <c r="F5">
-        <v>1.045241094559871</v>
+        <v>1.040371124756052</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052529014178417</v>
+        <v>1.052574946704932</v>
       </c>
       <c r="J5">
-        <v>1.04438476075654</v>
+        <v>1.024461807168185</v>
       </c>
       <c r="K5">
-        <v>1.047769355283735</v>
+        <v>1.039996049942558</v>
       </c>
       <c r="L5">
-        <v>1.046572903131037</v>
+        <v>1.020553451521348</v>
       </c>
       <c r="M5">
-        <v>1.054610821613591</v>
+        <v>1.049792535523671</v>
       </c>
       <c r="N5">
-        <v>1.018337095290826</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012145916943457</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047979804236564</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039356343317662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026272559561332</v>
+        <v>1.005811418402917</v>
       </c>
       <c r="D6">
-        <v>1.038483747223247</v>
+        <v>1.0305743891149</v>
       </c>
       <c r="E6">
-        <v>1.037299004986685</v>
+        <v>1.010929254736191</v>
       </c>
       <c r="F6">
-        <v>1.045450782530281</v>
+        <v>1.040480724559461</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052596508732965</v>
+        <v>1.052607285292616</v>
       </c>
       <c r="J6">
-        <v>1.044516187996214</v>
+        <v>1.024540624849514</v>
       </c>
       <c r="K6">
-        <v>1.047889496169193</v>
+        <v>1.040065368520143</v>
       </c>
       <c r="L6">
-        <v>1.046717419210584</v>
+        <v>1.020639041218156</v>
       </c>
       <c r="M6">
-        <v>1.054782761632094</v>
+        <v>1.049865205075408</v>
       </c>
       <c r="N6">
-        <v>1.018382185544144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012172692192414</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.048037316723403</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039414109231907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024825631074118</v>
+        <v>1.004742689128292</v>
       </c>
       <c r="D7">
-        <v>1.037395925501143</v>
+        <v>1.029871429449739</v>
       </c>
       <c r="E7">
-        <v>1.036041016572546</v>
+        <v>1.010094752235099</v>
       </c>
       <c r="F7">
-        <v>1.044004525985853</v>
+        <v>1.039748315677929</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052130074900857</v>
+        <v>1.052400194965277</v>
       </c>
       <c r="J7">
-        <v>1.043609062769426</v>
+        <v>1.024019803015566</v>
       </c>
       <c r="K7">
-        <v>1.047060172445129</v>
+        <v>1.039619334635105</v>
       </c>
       <c r="L7">
-        <v>1.045720217271624</v>
+        <v>1.02006988923936</v>
       </c>
       <c r="M7">
-        <v>1.053596518275895</v>
+        <v>1.049386713639654</v>
       </c>
       <c r="N7">
-        <v>1.01807093148846</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.0119984768321</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047658626643281</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039102926618585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018649552691523</v>
+        <v>1.000193870176809</v>
       </c>
       <c r="D8">
-        <v>1.032757835440225</v>
+        <v>1.026878508365389</v>
       </c>
       <c r="E8">
-        <v>1.030683101484613</v>
+        <v>1.006554101925227</v>
       </c>
       <c r="F8">
-        <v>1.037846290508944</v>
+        <v>1.036638564247111</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050121167781295</v>
+        <v>1.051489048514221</v>
       </c>
       <c r="J8">
-        <v>1.039730263635542</v>
+        <v>1.021796450167062</v>
       </c>
       <c r="K8">
-        <v>1.043511635972965</v>
+        <v>1.037706297377428</v>
       </c>
       <c r="L8">
-        <v>1.041462891341239</v>
+        <v>1.017646019639587</v>
       </c>
       <c r="M8">
-        <v>1.048536897748861</v>
+        <v>1.047344100273458</v>
       </c>
       <c r="N8">
-        <v>1.016739162096763</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011253968107951</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046042049195484</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037754819068196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007243581816655</v>
+        <v>0.9918665888806472</v>
       </c>
       <c r="D9">
-        <v>1.024215800868162</v>
+        <v>1.021409926923318</v>
       </c>
       <c r="E9">
-        <v>1.020835819705835</v>
+        <v>1.000119319848264</v>
       </c>
       <c r="F9">
-        <v>1.026532856335786</v>
+        <v>1.03098244790156</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046344520840609</v>
+        <v>1.049718363158795</v>
       </c>
       <c r="J9">
-        <v>1.032543118224581</v>
+        <v>1.017709864665995</v>
       </c>
       <c r="K9">
-        <v>1.036927841900578</v>
+        <v>1.034164937254016</v>
       </c>
       <c r="L9">
-        <v>1.033599659100276</v>
+        <v>1.013210461467702</v>
       </c>
       <c r="M9">
-        <v>1.039209639535789</v>
+        <v>1.043592088835879</v>
       </c>
       <c r="N9">
-        <v>1.014268562778574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009884226705313</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.043072600294346</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035247655294085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9992471942639318</v>
+        <v>0.9861269673561387</v>
       </c>
       <c r="D10">
-        <v>1.0182469668079</v>
+        <v>1.017677890704183</v>
       </c>
       <c r="E10">
-        <v>1.013967395219605</v>
+        <v>0.9957235109294377</v>
       </c>
       <c r="F10">
-        <v>1.018643887498798</v>
+        <v>1.027205728243887</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043654104636957</v>
+        <v>1.048455605499353</v>
       </c>
       <c r="J10">
-        <v>1.027490712023869</v>
+        <v>1.01490202599915</v>
       </c>
       <c r="K10">
-        <v>1.032294401012327</v>
+        <v>1.031735136169303</v>
       </c>
       <c r="L10">
-        <v>1.02808896173094</v>
+        <v>1.010170410393161</v>
       </c>
       <c r="M10">
-        <v>1.032684486910029</v>
+        <v>1.041100555088817</v>
       </c>
       <c r="N10">
-        <v>1.012530211917248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008947736343154</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.041151994755712</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.033546477057748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9956816447055583</v>
+        <v>0.9838069782208291</v>
       </c>
       <c r="D11">
-        <v>1.015591069173904</v>
+        <v>1.016329112878408</v>
       </c>
       <c r="E11">
-        <v>1.010913850455156</v>
+        <v>0.9939897962506954</v>
       </c>
       <c r="F11">
-        <v>1.015136862167942</v>
+        <v>1.026406718223536</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04244488469972</v>
+        <v>1.048077066831948</v>
       </c>
       <c r="J11">
-        <v>1.025235182360663</v>
+        <v>1.01386927425988</v>
       </c>
       <c r="K11">
-        <v>1.030224830922376</v>
+        <v>1.030949519043343</v>
       </c>
       <c r="L11">
-        <v>1.025632841281374</v>
+        <v>1.009025953302202</v>
       </c>
       <c r="M11">
-        <v>1.029778855768691</v>
+        <v>1.040847252107759</v>
       </c>
       <c r="N11">
-        <v>1.011753884241163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008638878296176</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.04138628342766</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033023937177127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9943408355541384</v>
+        <v>0.9829878749022997</v>
       </c>
       <c r="D12">
-        <v>1.014593248923943</v>
+        <v>1.015894533309844</v>
       </c>
       <c r="E12">
-        <v>1.009767001721834</v>
+        <v>0.9933898174513128</v>
       </c>
       <c r="F12">
-        <v>1.01381970625256</v>
+        <v>1.026391966722108</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041988773998495</v>
+        <v>1.047983218170305</v>
       </c>
       <c r="J12">
-        <v>1.024386647596824</v>
+        <v>1.013530086341728</v>
       </c>
       <c r="K12">
-        <v>1.029446105921983</v>
+        <v>1.030723425679515</v>
       </c>
       <c r="L12">
-        <v>1.024709443479188</v>
+        <v>1.008644763394404</v>
       </c>
       <c r="M12">
-        <v>1.028686846921596</v>
+        <v>1.041030423203386</v>
       </c>
       <c r="N12">
-        <v>1.01146179395973</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008553354792889</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.041856519975498</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032864081059288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,81 +1016,105 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9946292016073969</v>
+        <v>0.983281308980214</v>
       </c>
       <c r="D13">
-        <v>1.014807805979702</v>
+        <v>1.016151776687165</v>
       </c>
       <c r="E13">
-        <v>1.010013587606923</v>
+        <v>0.9936305806690309</v>
       </c>
       <c r="F13">
-        <v>1.014102910078768</v>
+        <v>1.02700532149821</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042086931042894</v>
+        <v>1.048117380420623</v>
       </c>
       <c r="J13">
-        <v>1.024569155941256</v>
+        <v>1.013715205024371</v>
       </c>
       <c r="K13">
-        <v>1.029613605624</v>
+        <v>1.030932923327615</v>
       </c>
       <c r="L13">
-        <v>1.024908026786927</v>
+        <v>1.008836386677316</v>
       </c>
       <c r="M13">
-        <v>1.028921673955139</v>
+        <v>1.041590446437455</v>
       </c>
       <c r="N13">
-        <v>1.011524620043549</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008639625079094</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.042575185290158</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.03300970400786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9955711532414172</v>
+        <v>0.9839904943324567</v>
       </c>
       <c r="D14">
-        <v>1.015508823102435</v>
+        <v>1.016644684742232</v>
       </c>
       <c r="E14">
-        <v>1.010819313299439</v>
+        <v>0.9941796865699954</v>
       </c>
       <c r="F14">
-        <v>1.01502828615409</v>
+        <v>1.027717425839065</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04240732611581</v>
+        <v>1.048313723866013</v>
       </c>
       <c r="J14">
-        <v>1.02516526440032</v>
+        <v>1.014081424538518</v>
       </c>
       <c r="K14">
-        <v>1.030160668119877</v>
+        <v>1.031275954575892</v>
       </c>
       <c r="L14">
-        <v>1.025556742546954</v>
+        <v>1.009229320756556</v>
       </c>
       <c r="M14">
-        <v>1.029688853730037</v>
+        <v>1.042151210548301</v>
       </c>
       <c r="N14">
-        <v>1.011729817100268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008777586625776</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.043191326283623</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.033253668026753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9961493181288672</v>
+        <v>0.9844101393446556</v>
       </c>
       <c r="D15">
-        <v>1.015939227206519</v>
+        <v>1.016924623443184</v>
       </c>
       <c r="E15">
-        <v>1.011314053011189</v>
+        <v>0.9945012612969251</v>
       </c>
       <c r="F15">
-        <v>1.015596495483001</v>
+        <v>1.028045789890592</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042603801332387</v>
+        <v>1.048416828279012</v>
       </c>
       <c r="J15">
-        <v>1.02553110764109</v>
+        <v>1.014291058425348</v>
       </c>
       <c r="K15">
-        <v>1.030496391728021</v>
+        <v>1.031464076394038</v>
       </c>
       <c r="L15">
-        <v>1.02595495088963</v>
+        <v>1.00945511721076</v>
       </c>
       <c r="M15">
-        <v>1.030159830755359</v>
+        <v>1.042388398810346</v>
       </c>
       <c r="N15">
-        <v>1.011855746211165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008851091573204</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.043416245018353</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.033392563651917</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9994815795757621</v>
+        <v>0.9867864646868784</v>
       </c>
       <c r="D16">
-        <v>1.018421677960819</v>
+        <v>1.018468769186156</v>
       </c>
       <c r="E16">
-        <v>1.014168317076266</v>
+        <v>0.9963119859885479</v>
       </c>
       <c r="F16">
-        <v>1.018874650987292</v>
+        <v>1.029571375269712</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043733398780987</v>
+        <v>1.048951819782829</v>
       </c>
       <c r="J16">
-        <v>1.02763893002678</v>
+        <v>1.015455826261851</v>
       </c>
       <c r="K16">
-        <v>1.032430377700763</v>
+        <v>1.032476660407797</v>
       </c>
       <c r="L16">
-        <v>1.028250444347521</v>
+        <v>1.010711274877724</v>
       </c>
       <c r="M16">
-        <v>1.03287557755037</v>
+        <v>1.043391303594895</v>
       </c>
       <c r="N16">
-        <v>1.012581221685454</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.00923522789884</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.044170319361463</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034111675034934</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001543597623337</v>
+        <v>0.988240833007709</v>
       </c>
       <c r="D17">
-        <v>1.0199593528216</v>
+        <v>1.01939692193881</v>
       </c>
       <c r="E17">
-        <v>1.015936975389267</v>
+        <v>0.9974174778337684</v>
       </c>
       <c r="F17">
-        <v>1.020906020190603</v>
+        <v>1.0303638411112</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044429910036492</v>
+        <v>1.049256254586212</v>
       </c>
       <c r="J17">
-        <v>1.028942586614334</v>
+        <v>1.016158521226587</v>
       </c>
       <c r="K17">
-        <v>1.033626244429673</v>
+        <v>1.033073190737783</v>
       </c>
       <c r="L17">
-        <v>1.029671225072338</v>
+        <v>1.011470940045754</v>
       </c>
       <c r="M17">
-        <v>1.034557158427892</v>
+        <v>1.043859634141267</v>
       </c>
       <c r="N17">
-        <v>1.013029848861469</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009457929002595</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.044411804491169</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.034536039769452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002736459774209</v>
+        <v>0.9890287959727252</v>
       </c>
       <c r="D18">
-        <v>1.020849409447402</v>
+        <v>1.019856610234416</v>
       </c>
       <c r="E18">
-        <v>1.016960984919838</v>
+        <v>0.9980069368099257</v>
       </c>
       <c r="F18">
-        <v>1.022082156330383</v>
+        <v>1.03054362812948</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044831925290437</v>
+        <v>1.049377525623224</v>
       </c>
       <c r="J18">
-        <v>1.029696484081385</v>
+        <v>1.016512787001677</v>
       </c>
       <c r="K18">
-        <v>1.034317704595932</v>
+        <v>1.033341174624186</v>
       </c>
       <c r="L18">
-        <v>1.030493234114218</v>
+        <v>1.01186016203311</v>
       </c>
       <c r="M18">
-        <v>1.035530306683578</v>
+        <v>1.043855173809731</v>
       </c>
       <c r="N18">
-        <v>1.013289260323422</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009555525994774</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.044171294815223</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034713850932742</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003141546309774</v>
+        <v>0.9891990764393305</v>
       </c>
       <c r="D19">
-        <v>1.021151752030304</v>
+        <v>1.019877652864284</v>
       </c>
       <c r="E19">
-        <v>1.017308873446154</v>
+        <v>0.9981166069129823</v>
       </c>
       <c r="F19">
-        <v>1.022481731766324</v>
+        <v>1.030149420447017</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044968290449231</v>
+        <v>1.049326956030344</v>
       </c>
       <c r="J19">
-        <v>1.029952456417607</v>
+        <v>1.016539378501176</v>
       </c>
       <c r="K19">
-        <v>1.034552459606939</v>
+        <v>1.033299119521339</v>
       </c>
       <c r="L19">
-        <v>1.030772396912874</v>
+        <v>1.011903211097589</v>
       </c>
       <c r="M19">
-        <v>1.035860840661043</v>
+        <v>1.043405400799909</v>
       </c>
       <c r="N19">
-        <v>1.013377333978749</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009538486943558</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.043491232254805</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034690525015599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001323390778356</v>
+        <v>0.9876309205098219</v>
       </c>
       <c r="D20">
-        <v>1.019795086746353</v>
+        <v>1.018667913706905</v>
       </c>
       <c r="E20">
-        <v>1.015748007957133</v>
+        <v>0.9968755676483171</v>
       </c>
       <c r="F20">
-        <v>1.020688981865545</v>
+        <v>1.028202757248581</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044355622486553</v>
+        <v>1.048800299305827</v>
       </c>
       <c r="J20">
-        <v>1.028803393076573</v>
+        <v>1.015647119305983</v>
       </c>
       <c r="K20">
-        <v>1.033498570388545</v>
+        <v>1.032390265032052</v>
       </c>
       <c r="L20">
-        <v>1.029519486647226</v>
+        <v>1.010973579823975</v>
       </c>
       <c r="M20">
-        <v>1.034377540819502</v>
+        <v>1.041767183147597</v>
       </c>
       <c r="N20">
-        <v>1.012981950971293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009199010772385</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.041669043649086</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.034051855004207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9952942325809284</v>
+        <v>0.983280620431657</v>
       </c>
       <c r="D21">
-        <v>1.015302707895113</v>
+        <v>1.015810957229569</v>
       </c>
       <c r="E21">
-        <v>1.010582401476687</v>
+        <v>0.9935492658587733</v>
       </c>
       <c r="F21">
-        <v>1.014756192789986</v>
+        <v>1.025209264416446</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04231317223374</v>
+        <v>1.04779106022341</v>
       </c>
       <c r="J21">
-        <v>1.024990026103746</v>
+        <v>1.013494394381388</v>
       </c>
       <c r="K21">
-        <v>1.029999851868324</v>
+        <v>1.030498852293681</v>
       </c>
       <c r="L21">
-        <v>1.025366022770201</v>
+        <v>1.00865388870011</v>
       </c>
       <c r="M21">
-        <v>1.029463295471441</v>
+        <v>1.03972827741156</v>
       </c>
       <c r="N21">
-        <v>1.011669496098283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008474307029311</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.040014657026168</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032717783882634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9914080370359437</v>
+        <v>0.9805015852323024</v>
       </c>
       <c r="D22">
-        <v>1.012412463855891</v>
+        <v>1.013995609733397</v>
       </c>
       <c r="E22">
-        <v>1.007261150732561</v>
+        <v>0.9914334487147188</v>
       </c>
       <c r="F22">
-        <v>1.010941728678716</v>
+        <v>1.02334854025423</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040988609818877</v>
+        <v>1.047140551238849</v>
       </c>
       <c r="J22">
-        <v>1.022530027548385</v>
+        <v>1.012122096578679</v>
       </c>
       <c r="K22">
-        <v>1.02774197360998</v>
+        <v>1.02929481766995</v>
       </c>
       <c r="L22">
-        <v>1.022690122270195</v>
+        <v>1.00717654251326</v>
       </c>
       <c r="M22">
-        <v>1.026299500052689</v>
+        <v>1.038471226959986</v>
       </c>
       <c r="N22">
-        <v>1.010822637449251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008013339459869</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.03901978451743</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031852929766295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9934775542989791</v>
+        <v>0.9819734514525759</v>
       </c>
       <c r="D23">
-        <v>1.013951070628955</v>
+        <v>1.014952362485477</v>
       </c>
       <c r="E23">
-        <v>1.009029011385741</v>
+        <v>0.9925522807177501</v>
       </c>
       <c r="F23">
-        <v>1.012972124230037</v>
+        <v>1.024331600741164</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04169472176091</v>
+        <v>1.047483329795572</v>
       </c>
       <c r="J23">
-        <v>1.023840224849205</v>
+        <v>1.012846034413428</v>
       </c>
       <c r="K23">
-        <v>1.028944597733342</v>
+        <v>1.02992722730448</v>
       </c>
       <c r="L23">
-        <v>1.024114980687734</v>
+        <v>1.007956466360945</v>
       </c>
       <c r="M23">
-        <v>1.027983943701813</v>
+        <v>1.039133958168399</v>
       </c>
       <c r="N23">
-        <v>1.011273690760137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008255543545132</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.039544292722331</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.032290409343373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001422923231672</v>
+        <v>0.9876697779889179</v>
       </c>
       <c r="D24">
-        <v>1.019869332619954</v>
+        <v>1.018670359642339</v>
       </c>
       <c r="E24">
-        <v>1.015833417700535</v>
+        <v>0.9969003865606354</v>
       </c>
       <c r="F24">
-        <v>1.020787079052697</v>
+        <v>1.028154043285799</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044389202937933</v>
+        <v>1.048789443605701</v>
       </c>
       <c r="J24">
-        <v>1.028866308702386</v>
+        <v>1.01565087299785</v>
       </c>
       <c r="K24">
-        <v>1.033556279510242</v>
+        <v>1.032377348395266</v>
       </c>
       <c r="L24">
-        <v>1.029588071398729</v>
+        <v>1.010982154418094</v>
       </c>
       <c r="M24">
-        <v>1.034458725998238</v>
+        <v>1.04170414606692</v>
       </c>
       <c r="N24">
-        <v>1.013003600953045</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009195624978955</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.041578423946543</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.034015250109688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010258298601896</v>
+        <v>0.9940679101876817</v>
       </c>
       <c r="D25">
-        <v>1.026470432787819</v>
+        <v>1.02286095516206</v>
       </c>
       <c r="E25">
-        <v>1.023432714356801</v>
+        <v>1.001816063448635</v>
       </c>
       <c r="F25">
-        <v>1.029515955870201</v>
+        <v>1.032475782170621</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047350258924302</v>
+        <v>1.050202989810155</v>
       </c>
       <c r="J25">
-        <v>1.034445294164397</v>
+        <v>1.018796575414137</v>
       </c>
       <c r="K25">
-        <v>1.038671270627916</v>
+        <v>1.035114454887648</v>
       </c>
       <c r="L25">
-        <v>1.035677840755827</v>
+        <v>1.014386252635967</v>
       </c>
       <c r="M25">
-        <v>1.041672723777366</v>
+        <v>1.044590035577729</v>
       </c>
       <c r="N25">
-        <v>1.014922740616318</v>
+        <v>1.010249981750195</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.043862404996137</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035947664762621</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9989936567019215</v>
+        <v>0.998908150535202</v>
       </c>
       <c r="D2">
-        <v>1.026083203284396</v>
+        <v>1.02550007960516</v>
       </c>
       <c r="E2">
-        <v>1.005621799883897</v>
+        <v>1.005550736556629</v>
       </c>
       <c r="F2">
-        <v>1.035817921409327</v>
+        <v>1.035407299470478</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051237244121482</v>
+        <v>1.050934958639383</v>
       </c>
       <c r="J2">
-        <v>1.02120450904275</v>
+        <v>1.021121567747379</v>
       </c>
       <c r="K2">
-        <v>1.037190734676001</v>
+        <v>1.036615230931048</v>
       </c>
       <c r="L2">
-        <v>1.017003365802807</v>
+        <v>1.016933278689346</v>
       </c>
       <c r="M2">
-        <v>1.046799828297396</v>
+        <v>1.046394445721898</v>
       </c>
       <c r="N2">
-        <v>1.01105453593344</v>
+        <v>1.012859883562668</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045611297571436</v>
+        <v>1.045290466626984</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037367334497397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036969190348365</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021846262049954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002494997517106</v>
+        <v>1.002294486188722</v>
       </c>
       <c r="D3">
-        <v>1.028385772749011</v>
+        <v>1.027654754036747</v>
       </c>
       <c r="E3">
-        <v>1.008341730346699</v>
+        <v>1.008170550637095</v>
       </c>
       <c r="F3">
-        <v>1.038207388290389</v>
+        <v>1.037693064171685</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051950875268353</v>
+        <v>1.051571544883817</v>
       </c>
       <c r="J3">
-        <v>1.022917876699974</v>
+        <v>1.02272279603349</v>
       </c>
       <c r="K3">
-        <v>1.038667891515519</v>
+        <v>1.037945604404151</v>
       </c>
       <c r="L3">
-        <v>1.018868978304121</v>
+        <v>1.018699944368084</v>
       </c>
       <c r="M3">
-        <v>1.048373668443297</v>
+        <v>1.047865343093204</v>
       </c>
       <c r="N3">
-        <v>1.0116284574806</v>
+        <v>1.013286218658116</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046856876718117</v>
+        <v>1.046454574683293</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038409146412633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037906937284479</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022099381233541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004722936373141</v>
+        <v>1.004449953477295</v>
       </c>
       <c r="D4">
-        <v>1.029853031518623</v>
+        <v>1.029028356874082</v>
       </c>
       <c r="E4">
-        <v>1.010078394253755</v>
+        <v>1.009844032554865</v>
       </c>
       <c r="F4">
-        <v>1.039732617486067</v>
+        <v>1.03915271213049</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052392460081301</v>
+        <v>1.051964251131748</v>
       </c>
       <c r="J4">
-        <v>1.024006595711742</v>
+        <v>1.023740509918345</v>
       </c>
       <c r="K4">
-        <v>1.039604028237942</v>
+        <v>1.038788617529198</v>
       </c>
       <c r="L4">
-        <v>1.020056684901769</v>
+        <v>1.019825083071836</v>
       </c>
       <c r="M4">
-        <v>1.049374036118008</v>
+        <v>1.048800491990233</v>
       </c>
       <c r="N4">
-        <v>1.01199315880966</v>
+        <v>1.013557236541295</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047648593333195</v>
+        <v>1.047194675915543</v>
       </c>
       <c r="Q4">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R4">
-        <v>1.039071973800203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038504000161488</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022257334095161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005653035041854</v>
+        <v>1.005349974259198</v>
       </c>
       <c r="D5">
-        <v>1.030467687348655</v>
+        <v>1.029604097321603</v>
       </c>
       <c r="E5">
-        <v>1.010805082786359</v>
+        <v>1.010544475696724</v>
       </c>
       <c r="F5">
-        <v>1.040371124756052</v>
+        <v>1.039763989439649</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052574946704932</v>
+        <v>1.052126406748495</v>
       </c>
       <c r="J5">
-        <v>1.024461807168185</v>
+        <v>1.024166176351822</v>
       </c>
       <c r="K5">
-        <v>1.039996049942558</v>
+        <v>1.039141905970249</v>
       </c>
       <c r="L5">
-        <v>1.020553451521348</v>
+        <v>1.020295831321232</v>
       </c>
       <c r="M5">
-        <v>1.049792535523671</v>
+        <v>1.049191885139507</v>
       </c>
       <c r="N5">
-        <v>1.012145916943457</v>
+        <v>1.013670808939445</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047979804236564</v>
+        <v>1.047504434443832</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039356343317662</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.03876169189691</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022323296489698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005811418402917</v>
+        <v>1.005503264111104</v>
       </c>
       <c r="D6">
-        <v>1.0305743891149</v>
+        <v>1.02970427351921</v>
       </c>
       <c r="E6">
-        <v>1.010929254736191</v>
+        <v>1.010664197742869</v>
       </c>
       <c r="F6">
-        <v>1.040480724559461</v>
+        <v>1.039869024256382</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052607285292616</v>
+        <v>1.052155334875608</v>
       </c>
       <c r="J6">
-        <v>1.024540624849514</v>
+        <v>1.024239986849637</v>
       </c>
       <c r="K6">
-        <v>1.040065368520143</v>
+        <v>1.039204727310806</v>
       </c>
       <c r="L6">
-        <v>1.020639041218156</v>
+        <v>1.020377008153167</v>
       </c>
       <c r="M6">
-        <v>1.049865205075408</v>
+        <v>1.049260008947186</v>
       </c>
       <c r="N6">
-        <v>1.012172692192414</v>
+        <v>1.013690754257048</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048037316723403</v>
+        <v>1.047558349350763</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039414109231907</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038815731236218</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02233543097385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004742689128292</v>
+        <v>1.004476313784008</v>
       </c>
       <c r="D7">
-        <v>1.029871429449739</v>
+        <v>1.029050684928188</v>
       </c>
       <c r="E7">
-        <v>1.010094752235099</v>
+        <v>1.009866270010924</v>
       </c>
       <c r="F7">
-        <v>1.039748315677929</v>
+        <v>1.039171175757735</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052400194965277</v>
+        <v>1.05197402500413</v>
       </c>
       <c r="J7">
-        <v>1.024019803015566</v>
+        <v>1.023760154951312</v>
       </c>
       <c r="K7">
-        <v>1.039619334635105</v>
+        <v>1.038807806376864</v>
       </c>
       <c r="L7">
-        <v>1.02006988923936</v>
+        <v>1.019844096617504</v>
       </c>
       <c r="M7">
-        <v>1.049386713639654</v>
+        <v>1.048815902250929</v>
       </c>
       <c r="N7">
-        <v>1.0119984768321</v>
+        <v>1.013589026892879</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047658626643281</v>
+        <v>1.047206871991647</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039102926618585</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038539694162844</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02226257627859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000193870176809</v>
+        <v>1.000090928158428</v>
       </c>
       <c r="D8">
-        <v>1.026878508365389</v>
+        <v>1.026258732716526</v>
       </c>
       <c r="E8">
-        <v>1.006554101925227</v>
+        <v>1.006468312975139</v>
       </c>
       <c r="F8">
-        <v>1.036638564247111</v>
+        <v>1.03620226122097</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051489048514221</v>
+        <v>1.051167655292795</v>
       </c>
       <c r="J8">
-        <v>1.021796450167062</v>
+        <v>1.021696493112095</v>
       </c>
       <c r="K8">
-        <v>1.037706297377428</v>
+        <v>1.037094382972886</v>
       </c>
       <c r="L8">
-        <v>1.017646019639587</v>
+        <v>1.017561373952785</v>
       </c>
       <c r="M8">
-        <v>1.047344100273458</v>
+        <v>1.04691320107345</v>
       </c>
       <c r="N8">
-        <v>1.011253968107951</v>
+        <v>1.013092469533843</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046042049195484</v>
+        <v>1.045701023886352</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037754819068196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.03733319328906</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021940773138045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9918665888806472</v>
+        <v>0.9920447685158629</v>
       </c>
       <c r="D9">
-        <v>1.021409926923318</v>
+        <v>1.021146377806784</v>
       </c>
       <c r="E9">
-        <v>1.000119319848264</v>
+        <v>1.000277686806602</v>
       </c>
       <c r="F9">
-        <v>1.03098244790156</v>
+        <v>1.030796529925521</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049718363158795</v>
+        <v>1.049582003992268</v>
       </c>
       <c r="J9">
-        <v>1.017709864665995</v>
+        <v>1.017881608289225</v>
       </c>
       <c r="K9">
-        <v>1.034164937254016</v>
+        <v>1.033905439625892</v>
       </c>
       <c r="L9">
-        <v>1.013210461467702</v>
+        <v>1.013366260342072</v>
       </c>
       <c r="M9">
-        <v>1.043592088835879</v>
+        <v>1.043408961505435</v>
       </c>
       <c r="N9">
-        <v>1.009884226705313</v>
+        <v>1.012085746935504</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.043072600294346</v>
+        <v>1.042927667791056</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035247655294085</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035074935072698</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021319253345258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9861269673561387</v>
+        <v>0.9865331386718006</v>
       </c>
       <c r="D10">
-        <v>1.017677890704183</v>
+        <v>1.017680310355941</v>
       </c>
       <c r="E10">
-        <v>0.9957235109294377</v>
+        <v>0.9960795903439973</v>
       </c>
       <c r="F10">
-        <v>1.027205728243887</v>
+        <v>1.027207437426236</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048455605499353</v>
+        <v>1.04845685556873</v>
       </c>
       <c r="J10">
-        <v>1.01490202599915</v>
+        <v>1.015291440494289</v>
       </c>
       <c r="K10">
-        <v>1.031735136169303</v>
+        <v>1.031737514074571</v>
       </c>
       <c r="L10">
-        <v>1.010170410393161</v>
+        <v>1.010519991619908</v>
       </c>
       <c r="M10">
-        <v>1.041100555088817</v>
+        <v>1.041102235483791</v>
       </c>
       <c r="N10">
-        <v>1.008947736343154</v>
+        <v>1.011516223212151</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.041151994755712</v>
+        <v>1.041153324592093</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033546477057748</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033560598770669</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020890358772562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9838069782208291</v>
+        <v>0.9843389856916724</v>
       </c>
       <c r="D11">
-        <v>1.016329112878408</v>
+        <v>1.016453501727033</v>
       </c>
       <c r="E11">
-        <v>0.9939897962506954</v>
+        <v>0.9944537839705704</v>
       </c>
       <c r="F11">
-        <v>1.026406718223536</v>
+        <v>1.026494524565576</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048077066831948</v>
+        <v>1.04814128158121</v>
       </c>
       <c r="J11">
-        <v>1.01386927425988</v>
+        <v>1.014378112984419</v>
       </c>
       <c r="K11">
-        <v>1.030949519043343</v>
+        <v>1.031071659443921</v>
       </c>
       <c r="L11">
-        <v>1.009025953302202</v>
+        <v>1.009481057263399</v>
       </c>
       <c r="M11">
-        <v>1.040847252107759</v>
+        <v>1.040933511340542</v>
       </c>
       <c r="N11">
-        <v>1.008638878296176</v>
+        <v>1.011526876520781</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.04138628342766</v>
+        <v>1.041454513430459</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033023937177127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033125949741685</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020786910988177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9829878749022997</v>
+        <v>0.983565143256544</v>
       </c>
       <c r="D12">
-        <v>1.015894533309844</v>
+        <v>1.01606092135679</v>
       </c>
       <c r="E12">
-        <v>0.9933898174513128</v>
+        <v>0.9938915864590802</v>
       </c>
       <c r="F12">
-        <v>1.026391966722108</v>
+        <v>1.026509341301106</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047983218170305</v>
+        <v>1.048069086923493</v>
       </c>
       <c r="J12">
-        <v>1.013530086341728</v>
+        <v>1.014081718118815</v>
       </c>
       <c r="K12">
-        <v>1.030723425679515</v>
+        <v>1.030886755267844</v>
       </c>
       <c r="L12">
-        <v>1.008644763394404</v>
+        <v>1.009136757246808</v>
       </c>
       <c r="M12">
-        <v>1.041030423203386</v>
+        <v>1.041145697064697</v>
       </c>
       <c r="N12">
-        <v>1.008553354792889</v>
+        <v>1.01156853904449</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041856519975498</v>
+        <v>1.041947669532108</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032864081059288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032995218641812</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020766631203592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.983281308980214</v>
+        <v>0.9838342661969096</v>
       </c>
       <c r="D13">
-        <v>1.016151776687165</v>
+        <v>1.0162946235898</v>
       </c>
       <c r="E13">
-        <v>0.9936305806690309</v>
+        <v>0.9941096092385151</v>
       </c>
       <c r="F13">
-        <v>1.02700532149821</v>
+        <v>1.027106014309561</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048117380420623</v>
+        <v>1.048191098552934</v>
       </c>
       <c r="J13">
-        <v>1.013715205024371</v>
+        <v>1.014243715581899</v>
       </c>
       <c r="K13">
-        <v>1.030932923327615</v>
+        <v>1.031073154922756</v>
       </c>
       <c r="L13">
-        <v>1.008836386677316</v>
+        <v>1.009306120160988</v>
       </c>
       <c r="M13">
-        <v>1.041590446437455</v>
+        <v>1.041689345850173</v>
       </c>
       <c r="N13">
-        <v>1.008639625079094</v>
+        <v>1.011605283591247</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042575185290158</v>
+        <v>1.042653367669007</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03300970400786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033124265540584</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020814571302491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9839904943324567</v>
+        <v>0.9844959067730045</v>
       </c>
       <c r="D14">
-        <v>1.016644684742232</v>
+        <v>1.016742210377947</v>
       </c>
       <c r="E14">
-        <v>0.9941796865699954</v>
+        <v>0.9946164130535529</v>
       </c>
       <c r="F14">
-        <v>1.027717425839065</v>
+        <v>1.027786134132508</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048313723866013</v>
+        <v>1.048364059497826</v>
       </c>
       <c r="J14">
-        <v>1.014081424538518</v>
+        <v>1.014564805732939</v>
       </c>
       <c r="K14">
-        <v>1.031275954575892</v>
+        <v>1.031371716402845</v>
       </c>
       <c r="L14">
-        <v>1.009229320756556</v>
+        <v>1.009657678328174</v>
       </c>
       <c r="M14">
-        <v>1.042151210548301</v>
+        <v>1.042218710629784</v>
       </c>
       <c r="N14">
-        <v>1.008777586625776</v>
+        <v>1.011629971233752</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.043191326283623</v>
+        <v>1.043244679556868</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033253668026753</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033336921743647</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020878980023186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9844101393446556</v>
+        <v>0.9848889381119706</v>
       </c>
       <c r="D15">
-        <v>1.016924623443184</v>
+        <v>1.016996593219418</v>
       </c>
       <c r="E15">
-        <v>0.9945012612969251</v>
+        <v>0.9949146711719953</v>
       </c>
       <c r="F15">
-        <v>1.028045789890592</v>
+        <v>1.02809648482871</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048416828279012</v>
+        <v>1.048453977279416</v>
       </c>
       <c r="J15">
-        <v>1.014291058425348</v>
+        <v>1.014749167064964</v>
       </c>
       <c r="K15">
-        <v>1.031464076394038</v>
+        <v>1.031534754328575</v>
       </c>
       <c r="L15">
-        <v>1.00945511721076</v>
+        <v>1.009860665874225</v>
       </c>
       <c r="M15">
-        <v>1.042388398810346</v>
+        <v>1.042438209077851</v>
       </c>
       <c r="N15">
-        <v>1.008851091573204</v>
+        <v>1.011639631900911</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043416245018353</v>
+        <v>1.043455614912049</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033392563651917</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033458650033709</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020912523059746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9867864646868784</v>
+        <v>0.9871254523208075</v>
       </c>
       <c r="D16">
-        <v>1.018468769186156</v>
+        <v>1.01840217865353</v>
       </c>
       <c r="E16">
-        <v>0.9963119859885479</v>
+        <v>0.9966042620958204</v>
       </c>
       <c r="F16">
-        <v>1.029571375269712</v>
+        <v>1.029524492224549</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048951819782829</v>
+        <v>1.048917426855595</v>
       </c>
       <c r="J16">
-        <v>1.015455826261851</v>
+        <v>1.015780898830115</v>
       </c>
       <c r="K16">
-        <v>1.032476660407797</v>
+        <v>1.032411213209126</v>
       </c>
       <c r="L16">
-        <v>1.010711274877724</v>
+        <v>1.010998240590266</v>
       </c>
       <c r="M16">
-        <v>1.043391303594895</v>
+        <v>1.043345203279612</v>
       </c>
       <c r="N16">
-        <v>1.00923522789884</v>
+        <v>1.011703771583888</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044170319361463</v>
+        <v>1.044133880772335</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034111675034934</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034081812124229</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021087192720164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.988240833007709</v>
+        <v>0.9885051356609197</v>
       </c>
       <c r="D17">
-        <v>1.01939692193881</v>
+        <v>1.019252446168932</v>
       </c>
       <c r="E17">
-        <v>0.9974174778337684</v>
+        <v>0.9976455017995627</v>
       </c>
       <c r="F17">
-        <v>1.0303638411112</v>
+        <v>1.030262130917226</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049256254586212</v>
+        <v>1.049181605283419</v>
       </c>
       <c r="J17">
-        <v>1.016158521226587</v>
+        <v>1.016412325644189</v>
       </c>
       <c r="K17">
-        <v>1.033073190737783</v>
+        <v>1.032931125908528</v>
       </c>
       <c r="L17">
-        <v>1.011470940045754</v>
+        <v>1.011694940226612</v>
       </c>
       <c r="M17">
-        <v>1.043859634141267</v>
+        <v>1.043759575057523</v>
       </c>
       <c r="N17">
-        <v>1.009457929002595</v>
+        <v>1.011769068964227</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044411804491169</v>
+        <v>1.044332707998614</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034536039769452</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034452250486373</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021187667012935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9890287959727252</v>
+        <v>0.9892593886463013</v>
       </c>
       <c r="D18">
-        <v>1.019856610234416</v>
+        <v>1.019675180240767</v>
       </c>
       <c r="E18">
-        <v>0.9980069368099257</v>
+        <v>0.9982066245023364</v>
       </c>
       <c r="F18">
-        <v>1.03054362812948</v>
+        <v>1.03041585765379</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049377525623224</v>
+        <v>1.04928375664096</v>
       </c>
       <c r="J18">
-        <v>1.016512787001677</v>
+        <v>1.016734395607921</v>
       </c>
       <c r="K18">
-        <v>1.033341174624186</v>
+        <v>1.033162722170544</v>
       </c>
       <c r="L18">
-        <v>1.01186016203311</v>
+        <v>1.012056385913162</v>
       </c>
       <c r="M18">
-        <v>1.043855173809731</v>
+        <v>1.043729444713173</v>
       </c>
       <c r="N18">
-        <v>1.009555525994774</v>
+        <v>1.011799226256612</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044171294815223</v>
+        <v>1.04407188563009</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034713850932742</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034603199229943</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021224769514516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9891990764393305</v>
+        <v>0.9894306794983485</v>
       </c>
       <c r="D19">
-        <v>1.019877652864284</v>
+        <v>1.019696649634337</v>
       </c>
       <c r="E19">
-        <v>0.9981166069129823</v>
+        <v>0.9983183980831344</v>
       </c>
       <c r="F19">
-        <v>1.030149420447017</v>
+        <v>1.030021850850249</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049326956030344</v>
+        <v>1.049233392565954</v>
       </c>
       <c r="J19">
-        <v>1.016539378501176</v>
+        <v>1.016762015433621</v>
       </c>
       <c r="K19">
-        <v>1.033299119521339</v>
+        <v>1.033121070811266</v>
       </c>
       <c r="L19">
-        <v>1.011903211097589</v>
+        <v>1.012101521771958</v>
       </c>
       <c r="M19">
-        <v>1.043405400799909</v>
+        <v>1.043279860513777</v>
       </c>
       <c r="N19">
-        <v>1.009538486943558</v>
+        <v>1.01177712327043</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043491232254805</v>
+        <v>1.043391940125845</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034690525015599</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034580781885059</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021200745521777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9876309205098219</v>
+        <v>0.9879569930566503</v>
       </c>
       <c r="D20">
-        <v>1.018667913706905</v>
+        <v>1.018588372186867</v>
       </c>
       <c r="E20">
-        <v>0.9968755676483171</v>
+        <v>0.9971616795176931</v>
       </c>
       <c r="F20">
-        <v>1.028202757248581</v>
+        <v>1.028146590964808</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048800299305827</v>
+        <v>1.048759190208148</v>
       </c>
       <c r="J20">
-        <v>1.015647119305983</v>
+        <v>1.015960177989219</v>
       </c>
       <c r="K20">
-        <v>1.032390265032052</v>
+        <v>1.032312056986121</v>
       </c>
       <c r="L20">
-        <v>1.010973579823975</v>
+        <v>1.01125462165261</v>
       </c>
       <c r="M20">
-        <v>1.041767183147597</v>
+        <v>1.041711936119487</v>
       </c>
       <c r="N20">
-        <v>1.009199010772385</v>
+        <v>1.011597156932727</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041669043649086</v>
+        <v>1.041625321552155</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034051855004207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034013093821854</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021006479032466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.983280620431657</v>
+        <v>0.983881312493576</v>
       </c>
       <c r="D21">
-        <v>1.015810957229569</v>
+        <v>1.015998239916809</v>
       </c>
       <c r="E21">
-        <v>0.9935492658587733</v>
+        <v>0.9940761107662889</v>
       </c>
       <c r="F21">
-        <v>1.025209264416446</v>
+        <v>1.025341675882398</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04779106022341</v>
+        <v>1.047887751364093</v>
       </c>
       <c r="J21">
-        <v>1.013494394381388</v>
+        <v>1.014068757257199</v>
       </c>
       <c r="K21">
-        <v>1.030498852293681</v>
+        <v>1.03068272992436</v>
       </c>
       <c r="L21">
-        <v>1.00865388870011</v>
+        <v>1.009170588927436</v>
       </c>
       <c r="M21">
-        <v>1.03972827741156</v>
+        <v>1.039858338217944</v>
       </c>
       <c r="N21">
-        <v>1.008474307029311</v>
+        <v>1.011508782942099</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.040014657026168</v>
+        <v>1.040117591496106</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032717783882634</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032864659572712</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020679428361913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9805015852323024</v>
+        <v>0.9812757059249027</v>
       </c>
       <c r="D22">
-        <v>1.013995609733397</v>
+        <v>1.014351476156744</v>
       </c>
       <c r="E22">
-        <v>0.9914334487147188</v>
+        <v>0.9921122062349053</v>
       </c>
       <c r="F22">
-        <v>1.02334854025423</v>
+        <v>1.023600327084148</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047140551238849</v>
+        <v>1.047324158360979</v>
       </c>
       <c r="J22">
-        <v>1.012122096578679</v>
+        <v>1.012860307879164</v>
       </c>
       <c r="K22">
-        <v>1.02929481766995</v>
+        <v>1.029643889754017</v>
       </c>
       <c r="L22">
-        <v>1.00717654251326</v>
+        <v>1.007841558237416</v>
       </c>
       <c r="M22">
-        <v>1.038471226959986</v>
+        <v>1.038718319905979</v>
       </c>
       <c r="N22">
-        <v>1.008013339459869</v>
+        <v>1.011444107840254</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03901978451743</v>
+        <v>1.039215342393094</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031852929766295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032115309412044</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020469286595456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9819734514525759</v>
+        <v>0.9826442046357801</v>
       </c>
       <c r="D23">
-        <v>1.014952362485477</v>
+        <v>1.015211495953676</v>
       </c>
       <c r="E23">
-        <v>0.9925522807177501</v>
+        <v>0.9931403029265794</v>
       </c>
       <c r="F23">
-        <v>1.024331600741164</v>
+        <v>1.024514874409082</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047483329795572</v>
+        <v>1.047617074750985</v>
       </c>
       <c r="J23">
-        <v>1.012846034413428</v>
+        <v>1.013486586926059</v>
       </c>
       <c r="K23">
-        <v>1.02992722730448</v>
+        <v>1.030181538811722</v>
       </c>
       <c r="L23">
-        <v>1.007956466360945</v>
+        <v>1.008532893458863</v>
       </c>
       <c r="M23">
-        <v>1.039133958168399</v>
+        <v>1.039313901911852</v>
       </c>
       <c r="N23">
-        <v>1.008255543545132</v>
+        <v>1.011434324156624</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039544292722331</v>
+        <v>1.039686706305435</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032290409343373</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032484845997826</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020576714172117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9876697779889179</v>
+        <v>0.9879955676752815</v>
       </c>
       <c r="D24">
-        <v>1.018670359642339</v>
+        <v>1.018590261776163</v>
       </c>
       <c r="E24">
-        <v>0.9969003865606354</v>
+        <v>0.9971864576747203</v>
       </c>
       <c r="F24">
-        <v>1.028154043285799</v>
+        <v>1.028097477940672</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048789443605701</v>
+        <v>1.0487480457307</v>
       </c>
       <c r="J24">
-        <v>1.01565087299785</v>
+        <v>1.015963679876394</v>
       </c>
       <c r="K24">
-        <v>1.032377348395266</v>
+        <v>1.032298591600662</v>
       </c>
       <c r="L24">
-        <v>1.010982154418094</v>
+        <v>1.01126316308284</v>
       </c>
       <c r="M24">
-        <v>1.04170414606692</v>
+        <v>1.041648505437864</v>
       </c>
       <c r="N24">
-        <v>1.009195624978955</v>
+        <v>1.011590843572234</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041578423946543</v>
+        <v>1.041534388183656</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034015250109688</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033973431490422</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020999433564513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9940679101876817</v>
+        <v>0.9941622455870255</v>
       </c>
       <c r="D25">
-        <v>1.02286095516206</v>
+        <v>1.022497620382467</v>
       </c>
       <c r="E25">
-        <v>1.001816063448635</v>
+        <v>1.00190149603502</v>
       </c>
       <c r="F25">
-        <v>1.032475782170621</v>
+        <v>1.032219613979821</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050202989810155</v>
+        <v>1.05001489371032</v>
       </c>
       <c r="J25">
-        <v>1.018796575414137</v>
+        <v>1.018887683384612</v>
       </c>
       <c r="K25">
-        <v>1.035114454887648</v>
+        <v>1.034756447267846</v>
       </c>
       <c r="L25">
-        <v>1.014386252635967</v>
+        <v>1.014470365268563</v>
       </c>
       <c r="M25">
-        <v>1.044590035577729</v>
+        <v>1.044337534747316</v>
       </c>
       <c r="N25">
-        <v>1.010249981750195</v>
+        <v>1.012321941625846</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043862404996137</v>
+        <v>1.043662568417707</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035947664762621</v>
+        <v>1.03570809109939</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021488444999906</v>
       </c>
     </row>
   </sheetData>
